--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89F9D9-D4DA-AF40-87BF-240D220DDC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC771F-395E-AF4F-8787-20DE6FAF78A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="460" windowWidth="14780" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$288</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="563">
   <si>
     <t>Entidad</t>
   </si>
@@ -806,9 +806,6 @@
     <t>Seguro de desempleo</t>
   </si>
   <si>
-    <t>Se creará un Seguro de Desempleo tanto para las personas que hayan perdido su empleo o aquellas que no tienen empleos fijos y trabajen por su cuenta, de $2,500 mensuales por dos meses para aminorar los efectos del impacto en la economía familiar.</t>
-  </si>
-  <si>
     <t>Gobierno del Estado de Yucatán. Plan para Impulsar la Economía, los Empleos y la Salud del Gobierno del Estado. https://apoyos.yucatan.gob.mx/</t>
   </si>
   <si>
@@ -833,22 +830,7 @@
     <t>Programa de asistencia a la comunidad en vulnerabilidad y discapacidad. Entrega de paquetes alimenticios hasta 450 mil familias en situación de vulnerabilidad, cada quince días, durante dos meses.</t>
   </si>
   <si>
-    <t>Apoyo al campo</t>
-  </si>
-  <si>
-    <t>Se otorgarán apoyos económicos para adquirir infraestructura productiva, insumos, maquinaria o herramientas de acuerdo a la actividad productiva que se implemente, así mismo con los recursos de este programa los beneficiarios podrán contratar servicios de capacitación, asistencia técnica, comercialización de sus productos o hacer difusión de sus actividades.</t>
-  </si>
-  <si>
     <t>Crédito a los sectores agrícola y pesquero</t>
-  </si>
-  <si>
-    <t>Entrega de créditos para la producción, transformación, transportación y comercialización de productos de origen agropecuario, forestal o pesquero con una tasa de interés preferencial. El programa otorga 4 meses de gracia en el pago de la primera mensualidad.</t>
-  </si>
-  <si>
-    <t>Apoyo para unidades productivas campesinas e insumos rurales</t>
-  </si>
-  <si>
-    <t>Entrega de insumos y apoyos permanentes a fin de fortalecer el desarrollo de las actividades de apicultores, avicultores, porcicultores, ganaderos en general, agricultores, mujeres campesinas y cualquier otra persona que se dedique a las labores del campo.</t>
   </si>
   <si>
     <t>Crédito para micro y pequeños empresarios</t>
@@ -890,16 +872,7 @@
     <t>Apoyo a trabajadores del sector pesquero</t>
   </si>
   <si>
-    <t>Se realizará la entrega de apoyos en efectivo por $2,000 a 12,500 personas que se dedican a la actividad pesquera</t>
-  </si>
-  <si>
-    <t>INFONAVIT</t>
-  </si>
-  <si>
     <t>Programa de apoyos para la vivienda social.</t>
-  </si>
-  <si>
-    <t>Subsidio de $45,000.00 para cubrir el enganche requerido para la adquisición de vivienda social nueva. El programa otorga 4 meses de gracia en el pago de la primera mensualidad. Vivienda social: Vivienda con un valor en el mercado de hasta $417,302.00 pesos mexicanos</t>
   </si>
   <si>
     <t>Descuento al pago del recibo de luz eléctrica</t>
@@ -1764,6 +1737,72 @@
   </si>
   <si>
     <t>https://twitter.com/JaimeRdzNL/status/1250245381641953281</t>
+  </si>
+  <si>
+    <t>Se creará un Seguro de Desempleo tanto para las personas de 18 a 65 años, que hayan perdido su empleo o aquellas que no tienen empleos fijos y trabajen por su cuenta, de $2,500 mensuales por dos meses para aminorar los efectos del impacto en la economía familiar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo  económico  para  completar  la compra de una vivienda social nueva a través de un subsidio de $45,000. El programa otorga 4 meses de gracia en el pago de la primera mensualidad para personas mayores de  18  años  que  habiten  en  el  estado  de  Yucatán,  derechohabientes  del  Instituto  del Fondo  Nacional  de  la  Vivienda  para  los  Trabajadores  (INFONAVIT)  con  ingresos  de hasta 2.8 UMAS ($7,395.22 aproximadamente). Vivienda social: Vivienda con un valor en el mercado de hasta $417,302.00 pesos mexicanos. </t>
+  </si>
+  <si>
+    <t>Se otorgará un estímulo fiscal del 100% sobre lo causado del Impuesto cedular sobre la obtención de ingresos por actividades empresariales durante los meses de marzo y abril.</t>
+  </si>
+  <si>
+    <t>Descuento del 100% sobre el impuesto causado en los meses de marzo y abril del 2020 sobre el Impuesto sobre el ejercicio profesional y el impuesto adicional para la ejecución de obras materiales y asistencia social.</t>
+  </si>
+  <si>
+    <t>Descuento del 50% sobre el Impuesto sobre erogaciones por remuneración al trabajo personal.  en los meses de marzo y abril de 2020</t>
+  </si>
+  <si>
+    <t>Retenciones del impuesto sobreerogaciones por remuneración altrabajo personal. 50% sobre el monto obligado a retener enlos meses de abril, mayo y junio de 2020</t>
+  </si>
+  <si>
+    <t>Apoyo a Trabajadores del Sector Pesquero. Entrega de apoyo en efectivo a pescadores y personas que se dedican a la actividad pesquera por $2,000 a 12,500 personas para personas que durante todo el año se dedican a la actividad pesquera.</t>
+  </si>
+  <si>
+    <t>Entrega de créditos para la producción, transformación, transportación y comercialización de productos de origen agropecuario, forestal o pesquero para persona física o moral con capacidad para contratar créditos, que tengan como objetivo primordial mantener las actividades agropecuarias, agroindustriales, forestales, artesanales, de servicios o comercio en el medio rural.</t>
+  </si>
+  <si>
+    <t>Entrega de insumos y apoyos económicos, a fin de fortalecer el desarrollo de las actividades de apicultores, avicultores, porcicultores, ganaderos en general, agricultores, mujeres campesinas y cualquier otra persona que se dedique a las labores del campo para apicultores, avicultores, porcicultores, ganaderos en general, agricultores, mujeres campesinas y cualquier otra persona que se dedique a las labores del campo</t>
+  </si>
+  <si>
+    <t>Entrega de apoyos económicos materiales, herramientas de trabajo y maquinaria para el desempeño de actividades productivas para la Población Económicamente Activa ocupada bajo la modalidad de trabajador independiente.</t>
+  </si>
+  <si>
+    <t>Créditos para Personas que trabajan por su cuenta. Créditos para adquirir materiales, maquinaria y capital de trabajo con 0% de interés; que deberá ser destinado para la adquisición de maquinaria, equipo, herramientas o insumos para el desarrollo de un proyecto de negocio o la consolidación de una actividad productiva ya establecida para la Población Económicamente Activa ocupada bajo la modalidad de trabajador independiente.</t>
+  </si>
+  <si>
+    <t>Crédito para Micro y Pequeños Empresarios. Créditos de fácil acceso y bajo costo con 0% de interés y 4 meses de gracia en la primera mensualidad, para personas que trabajen por su cuenta, mayores de 18 años que residan en Yucatán para Emprendedores y Emprendedoras mayores de dieciocho años, micro y pequeñas empresas con domicilio fiscal en el territorio del estado de Yucatán.</t>
+  </si>
+  <si>
+    <t>Créditos a Mujeres. Crédito con carácter devolutivo a micro, pequeñas y medianas empresas conformadas por mujeres o en su mayoría por mujeres, con una tasa de interés de 0% y con 4 meses de gracia en la primera mensualidad para mujeres o personas morales constituidas por completo o en su mayoría por mujeres, entendida esta como la aportación accionaria o en la participación social, agrupadas o no en cualquier figura jurídica, legalmente establecidas, con domicilio y operación en el estado de Yucatán</t>
+  </si>
+  <si>
+    <t>Créditos con carácter devolutivo 0% interés y con 4 meses de período de gracia en la primera mensualidad para Micro, Pequeñas y Medianas empresas con domicilio fiscal en el estado de Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créditos de apoyo al empleo para hoteles, restaurantes, servicios turísticos y culturales. Crédito para apoyar a los empleados de los hoteles, restaurantes, proveedores de servicios culturales y turísticos con tasa 0% y 4 meses de gracia en el pago a capital para trabajadores de hoteles, restaurantes, servicios culturales y demás prestadores de servicios turísticos que tengan un salario equivalente de hasta tres salarios mínimos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo para la Regularización de Predios. Para las familias que se encuentran pagando su predio en el IVEY, se les condonará el pago del concepto de Regularización Social durante 4 meses para 160 familias que cuentan con el contrato de Regularización Social. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de recursos económicos extraordinarios a municipios: La administración estatal transferirá recursos propios a municipios para apoyarlos ante la contingencia del coronavirus. Estos recursos sólo podrán ser destinados para compra de alimentos para quienes lo necesiten y de bienes y suministros para la prevención de contagios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidas realizads por Yucatán, oficio enviado al LNPP el 16 de abril, 2020 por parte de la Secretría Técnica de Planeación y evaluación. </t>
+  </si>
+  <si>
+    <t>16/4/2020</t>
+  </si>
+  <si>
+    <t>Medidas realizadas por Yucatán</t>
+  </si>
+  <si>
+    <t>Se otorgará un estímulo fiscal del 100% sobre lo causado en los meses de marzo, abril, mayo y junio del impuesto sobre hospedaje,</t>
+  </si>
+  <si>
+    <t>Vivienda</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1999,7 +2038,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2008,6 +2046,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,14 +2278,16 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I276"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="23"/>
     <col min="5" max="5" width="75.1640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2247,7 +2301,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
@@ -2331,7 +2385,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2360,7 +2414,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2643,7 +2697,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2737,7 +2791,7 @@
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2766,7 +2820,7 @@
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2795,7 +2849,7 @@
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2998,7 +3052,7 @@
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3405,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>94</v>
@@ -3744,7 +3798,7 @@
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="6"/>
@@ -3907,7 +3961,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -3936,7 +3990,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -3965,7 +4019,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -3994,7 +4048,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -4023,14 +4077,14 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4052,14 +4106,14 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4081,7 +4135,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
@@ -4110,7 +4164,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -4139,7 +4193,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -4231,7 +4285,7 @@
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4609,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>168</v>
@@ -4666,7 +4720,7 @@
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="6"/>
@@ -4720,7 +4774,7 @@
       <c r="B87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="6"/>
@@ -4747,7 +4801,7 @@
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="6"/>
@@ -4828,7 +4882,7 @@
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="6"/>
@@ -4855,7 +4909,7 @@
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="6"/>
@@ -4882,7 +4936,7 @@
       <c r="B93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="6"/>
@@ -5017,7 +5071,7 @@
       <c r="B98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="6"/>
@@ -5098,10 +5152,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="42"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="2" t="s">
         <v>217</v>
       </c>
@@ -5125,7 +5179,7 @@
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="6"/>
@@ -5341,7 +5395,7 @@
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="6"/>
@@ -5523,7 +5577,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>248</v>
       </c>
@@ -5533,10 +5587,10 @@
       <c r="C117" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="21" t="s">
         <v>250</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -5552,7 +5606,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>248</v>
       </c>
@@ -5562,26 +5616,26 @@
       <c r="C118" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="I118" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>248</v>
       </c>
@@ -5591,55 +5645,55 @@
       <c r="C119" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E119" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I119" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E120" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="F120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I120" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>248</v>
       </c>
@@ -5649,26 +5703,26 @@
       <c r="C121" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I121" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>248</v>
       </c>
@@ -5678,171 +5732,161 @@
       <c r="C122" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>264</v>
+      <c r="D122" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I122" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H123" s="50"/>
+      <c r="I123" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H124" s="50"/>
+      <c r="I124" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E125" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H125" s="50"/>
+      <c r="I125" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I123" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="D126" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H126" s="50"/>
+      <c r="I126" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I124" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="B127" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I125" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I126" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I127" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G127" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H127" s="50"/>
+      <c r="I127" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
@@ -5850,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>278</v>
+        <v>60</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H128" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I128" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>248</v>
       </c>
@@ -5879,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H129" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I129" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>248</v>
       </c>
@@ -5908,28 +5952,28 @@
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G130" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H130" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I130" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>248</v>
       </c>
@@ -5937,28 +5981,28 @@
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>286</v>
+        <v>268</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>272</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G131" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I131" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>248</v>
       </c>
@@ -5966,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I132" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>248</v>
       </c>
@@ -5995,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>290</v>
+        <v>562</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G133" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I133" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>248</v>
       </c>
@@ -6024,57 +6068,57 @@
         <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>292</v>
+        <v>74</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I134" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>294</v>
+      <c r="C135" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H135" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I135" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>248</v>
       </c>
@@ -6082,130 +6126,136 @@
         <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>296</v>
+        <v>35</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G136" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H136" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I136" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D137" s="6"/>
-      <c r="E137" s="2" t="s">
-        <v>298</v>
+      <c r="C137" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>283</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I137" s="7">
-        <v>43913</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="I137" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="2" t="s">
-        <v>301</v>
+        <v>60</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>285</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I138" s="7">
-        <v>43913</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="I138" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="2" t="s">
-        <v>302</v>
+        <v>60</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>287</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I139" s="7">
-        <v>43913</v>
+        <v>255</v>
+      </c>
+      <c r="I139" s="4">
+        <v>43927</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>463</v>
+      <c r="C140" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I140" s="7">
         <v>43913</v>
@@ -6213,26 +6263,26 @@
     </row>
     <row r="141" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I141" s="7">
         <v>43913</v>
@@ -6240,26 +6290,26 @@
     </row>
     <row r="142" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I142" s="7">
         <v>43913</v>
@@ -6267,28 +6317,26 @@
     </row>
     <row r="143" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="C143" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D143" s="6"/>
       <c r="E143" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="I143" s="7">
         <v>43913</v>
@@ -6296,28 +6344,26 @@
     </row>
     <row r="144" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>311</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D144" s="6"/>
       <c r="E144" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="I144" s="7">
         <v>43913</v>
@@ -6325,28 +6371,26 @@
     </row>
     <row r="145" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D145" s="6"/>
       <c r="E145" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="I145" s="7">
         <v>43913</v>
@@ -6354,28 +6398,28 @@
     </row>
     <row r="146" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D146" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I146" s="7">
         <v>43913</v>
@@ -6383,7 +6427,7 @@
     </row>
     <row r="147" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>10</v>
@@ -6392,19 +6436,19 @@
         <v>35</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I147" s="7">
         <v>43913</v>
@@ -6412,173 +6456,173 @@
     </row>
     <row r="148" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I148" s="7">
         <v>43913</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I149" s="7">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I149" s="7">
-        <v>43920</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G150" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="I150" s="7">
-        <v>43920</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>517</v>
+        <v>311</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="I151" s="7">
-        <v>43920</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I152" s="7">
         <v>43920</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I153" s="7">
         <v>43920</v>
@@ -6586,181 +6630,181 @@
     </row>
     <row r="154" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I154" s="7">
         <v>43920</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I155" s="7">
         <v>43920</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>326</v>
+        <v>510</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I156" s="7">
         <v>43920</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>56</v>
+      <c r="C157" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>329</v>
+        <v>512</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I157" s="10">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="I157" s="7">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>56</v>
+      <c r="C158" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>332</v>
+        <v>511</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I158" s="10">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="I158" s="7">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I159" s="10">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="I159" s="7">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>10</v>
@@ -6769,19 +6813,19 @@
         <v>56</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I160" s="10">
         <v>43919</v>
@@ -6789,7 +6833,7 @@
     </row>
     <row r="161" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>10</v>
@@ -6798,27 +6842,27 @@
         <v>56</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I161" s="10">
         <v>43919</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>10</v>
@@ -6827,97 +6871,97 @@
         <v>56</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="I162" s="4">
-        <v>43932</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I162" s="10">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I163" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I163" s="10">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>345</v>
+        <v>319</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>326</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I164" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="I164" s="10">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>346</v>
+        <v>328</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>14</v>
@@ -6926,36 +6970,36 @@
         <v>330</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I165" s="7">
-        <v>43915</v>
+        <v>327</v>
+      </c>
+      <c r="I165" s="4">
+        <v>43932</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>60</v>
+      <c r="C166" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I166" s="7">
         <v>43915</v>
@@ -6963,28 +7007,28 @@
     </row>
     <row r="167" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I167" s="7">
         <v>43915</v>
@@ -6992,28 +7036,28 @@
     </row>
     <row r="168" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I168" s="7">
         <v>43915</v>
@@ -7021,28 +7065,28 @@
     </row>
     <row r="169" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I169" s="7">
         <v>43915</v>
@@ -7050,28 +7094,28 @@
     </row>
     <row r="170" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I170" s="7">
         <v>43915</v>
@@ -7079,28 +7123,28 @@
     </row>
     <row r="171" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>60</v>
+        <v>268</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I171" s="7">
         <v>43915</v>
@@ -7108,202 +7152,202 @@
     </row>
     <row r="172" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="I172" s="4">
-        <v>43928</v>
+        <v>335</v>
+      </c>
+      <c r="I172" s="7">
+        <v>43915</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="I173" s="4">
-        <v>43928</v>
+        <v>335</v>
+      </c>
+      <c r="I173" s="7">
+        <v>43915</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="I174" s="4">
-        <v>43928</v>
+        <v>335</v>
+      </c>
+      <c r="I174" s="7">
+        <v>43915</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="20" t="s">
-        <v>463</v>
+      <c r="C175" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="I175" s="4">
-        <v>43925</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="I176" s="4">
-        <v>43925</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="I177" s="4">
-        <v>43925</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>366</v>
+      <c r="C178" s="20" t="s">
+        <v>454</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I178" s="4">
         <v>43925</v>
@@ -7311,28 +7355,28 @@
     </row>
     <row r="179" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I179" s="4">
         <v>43925</v>
@@ -7340,28 +7384,28 @@
     </row>
     <row r="180" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I180" s="4">
         <v>43925</v>
@@ -7369,28 +7413,28 @@
     </row>
     <row r="181" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>35</v>
+        <v>357</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I181" s="4">
         <v>43925</v>
@@ -7398,28 +7442,28 @@
     </row>
     <row r="182" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I182" s="4">
         <v>43925</v>
@@ -7427,28 +7471,28 @@
     </row>
     <row r="183" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="F183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I183" s="4">
         <v>43925</v>
@@ -7456,28 +7500,28 @@
     </row>
     <row r="184" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="F184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I184" s="4">
         <v>43925</v>
@@ -7485,28 +7529,28 @@
     </row>
     <row r="185" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I185" s="4">
         <v>43925</v>
@@ -7514,28 +7558,28 @@
     </row>
     <row r="186" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I186" s="4">
         <v>43925</v>
@@ -7543,7 +7587,7 @@
     </row>
     <row r="187" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
@@ -7552,19 +7596,19 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I187" s="4">
         <v>43925</v>
@@ -7572,28 +7616,28 @@
     </row>
     <row r="188" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I188" s="4">
         <v>43925</v>
@@ -7601,28 +7645,28 @@
     </row>
     <row r="189" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I189" s="4">
         <v>43925</v>
@@ -7630,144 +7674,144 @@
     </row>
     <row r="190" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="I190" s="4">
         <v>43925</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" s="11" t="s">
+    <row r="191" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>382</v>
+      <c r="D191" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H191" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="I191" s="13">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>386</v>
+        <v>14</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I191" s="4">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="I192" s="13">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>387</v>
+        <v>14</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I192" s="4">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G193" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H193" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="I193" s="13">
-        <v>43918</v>
+        <v>14</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I193" s="4">
+        <v>43925</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I194" s="13">
         <v>43918</v>
@@ -7775,28 +7819,28 @@
     </row>
     <row r="195" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="11" t="s">
-        <v>17</v>
+      <c r="C195" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I195" s="13">
         <v>43918</v>
@@ -7804,28 +7848,28 @@
     </row>
     <row r="196" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I196" s="13">
         <v>43918</v>
@@ -7833,28 +7877,28 @@
     </row>
     <row r="197" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="11" t="s">
-        <v>58</v>
+      <c r="C197" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I197" s="13">
         <v>43918</v>
@@ -7862,28 +7906,28 @@
     </row>
     <row r="198" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H198" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I198" s="13">
         <v>43918</v>
@@ -7891,28 +7935,28 @@
     </row>
     <row r="199" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>24</v>
+      <c r="C199" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I199" s="13">
         <v>43918</v>
@@ -7920,28 +7964,28 @@
     </row>
     <row r="200" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E200" s="12" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I200" s="13">
         <v>43918</v>
@@ -7949,28 +7993,28 @@
     </row>
     <row r="201" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E201" s="12" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I201" s="13">
         <v>43918</v>
@@ -7978,65 +8022,65 @@
     </row>
     <row r="202" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="11" t="s">
-        <v>27</v>
+      <c r="C202" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I202" s="4">
-        <v>43928</v>
+        <v>374</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I202" s="13">
+        <v>43918</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>405</v>
+        <v>386</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>387</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I203" s="4">
-        <v>43924</v>
+        <v>374</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I203" s="13">
+        <v>43918</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
@@ -8044,86 +8088,86 @@
       <c r="C204" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>410</v>
+      <c r="D204" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I204" s="4">
-        <v>43927</v>
+        <v>374</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I204" s="13">
+        <v>43918</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E205" s="15" t="s">
-        <v>414</v>
+        <v>391</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="I205" s="4">
-        <v>43923</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>418</v>
+        <v>58</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E206" s="12" t="s">
-        <v>419</v>
+        <v>395</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I206" s="13">
-        <v>43914</v>
+        <v>398</v>
+      </c>
+      <c r="I206" s="4">
+        <v>43924</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>422</v>
+      <c r="A207" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>10</v>
@@ -8131,207 +8175,213 @@
       <c r="C207" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D207" s="16"/>
-      <c r="E207" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="F207" s="11" t="s">
+      <c r="D207" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H207" s="18" t="s">
-        <v>424</v>
+        <v>402</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="I207" s="4">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>422</v>
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C208" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D208" s="16"/>
-      <c r="E208" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="F208" s="11" t="s">
+      <c r="C208" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H208" s="18" t="s">
-        <v>424</v>
+        <v>406</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="I208" s="4">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>422</v>
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D209" s="16"/>
-      <c r="E209" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="F209" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H209" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="I209" s="4">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I209" s="13">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C210" s="19" t="s">
-        <v>21</v>
+      <c r="C210" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="22" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="I210" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B211" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C211" s="27" t="s">
+    <row r="211" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D211" s="16"/>
+      <c r="E211" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="F211" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H211" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="I211" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="16"/>
+      <c r="E212" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H212" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="I212" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" s="16"/>
+      <c r="E213" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H213" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="I213" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="D211" s="25"/>
-      <c r="E211" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="H211" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="I211" s="30">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B212" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D212" s="32"/>
-      <c r="E212" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="H212" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="I212" s="30">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D213" s="25"/>
-      <c r="E213" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="H213" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="I213" s="30">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B214" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>463</v>
       </c>
       <c r="D214" s="25"/>
       <c r="E214" s="28" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F214" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G214" s="26" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H214" s="29" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="I214" s="30">
         <v>43929</v>
@@ -8339,99 +8389,111 @@
     </row>
     <row r="215" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B215" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C215" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D215" s="25"/>
+      <c r="C215" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D215" s="32"/>
       <c r="E215" s="28" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F215" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G215" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="H215" s="29"/>
-      <c r="I215" s="30"/>
-    </row>
-    <row r="216" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="H215" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="I215" s="30">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B216" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="F216" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G216" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="H216" s="29"/>
-      <c r="I216" s="30"/>
-    </row>
-    <row r="217" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="H216" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="I216" s="30">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C217" s="27" t="s">
-        <v>58</v>
+      <c r="C217" s="20" t="s">
+        <v>454</v>
       </c>
       <c r="D217" s="25"/>
       <c r="E217" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="F217" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="H217" s="29"/>
-      <c r="I217" s="30"/>
+        <v>420</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="H217" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="I217" s="30">
+        <v>43929</v>
+      </c>
     </row>
     <row r="218" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B218" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="F218" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G218" s="33" t="s">
-        <v>462</v>
+        <v>438</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" s="26" t="s">
+        <v>439</v>
       </c>
       <c r="H218" s="29"/>
       <c r="I218" s="30"/>
     </row>
     <row r="219" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>10</v>
@@ -8441,20 +8503,20 @@
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="28" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F219" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G219" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H219" s="29"/>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B220" s="26" t="s">
         <v>10</v>
@@ -8464,248 +8526,230 @@
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="28" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F220" s="33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G220" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H220" s="29"/>
       <c r="I220" s="30"/>
     </row>
     <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B221" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C221" s="34" t="s">
-        <v>35</v>
+      <c r="C221" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="28" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F221" s="33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H221" s="29"/>
       <c r="I221" s="30"/>
     </row>
     <row r="222" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B222" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C222" s="34" t="s">
-        <v>200</v>
+      <c r="C222" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="28" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F222" s="33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H222" s="29"/>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B223" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>463</v>
+        <v>58</v>
       </c>
       <c r="D223" s="25"/>
-      <c r="E223" s="35" t="s">
-        <v>458</v>
+      <c r="E223" s="28" t="s">
+        <v>446</v>
       </c>
       <c r="F223" s="33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H223" s="29"/>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B224" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C224" s="34" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D224" s="25"/>
-      <c r="E224" s="35" t="s">
-        <v>459</v>
+      <c r="E224" s="28" t="s">
+        <v>447</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H224" s="29"/>
       <c r="I224" s="30"/>
     </row>
     <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E225" s="35" t="s">
-        <v>460</v>
+        <v>200</v>
+      </c>
+      <c r="D225" s="25"/>
+      <c r="E225" s="28" t="s">
+        <v>448</v>
       </c>
       <c r="F225" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H225" s="29"/>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C226" s="19" t="s">
+    <row r="226" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B226" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D226" s="25"/>
+      <c r="E226" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G226" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="H226" s="29"/>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B227" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="25"/>
+      <c r="E227" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="H227" s="29"/>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B228" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E228" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="F228" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="H228" s="29"/>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D226" s="16"/>
-      <c r="E226" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G226" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H226" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="I226" s="4">
+      <c r="D229" s="16"/>
+      <c r="E229" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="I229" s="4">
         <v>43929</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C227" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E227" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="F227" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H227" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="I227" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E228" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="F228" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G228" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H228" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="I228" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E229" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="H229" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="I229" s="7">
-        <v>43915</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B230" s="11" t="s">
         <v>10</v>
@@ -8714,114 +8758,114 @@
         <v>88</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I230" s="7">
         <v>43915</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="11" t="s">
-        <v>436</v>
+      <c r="A231" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>35</v>
+      <c r="C231" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>23</v>
+        <v>425</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>439</v>
+        <v>321</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="I231" s="7">
-        <v>43917</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="11" t="s">
-        <v>436</v>
+      <c r="A232" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>53</v>
+      <c r="C232" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>23</v>
+        <v>499</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>439</v>
+        <v>321</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="I232" s="7">
-        <v>43917</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="11" t="s">
-        <v>436</v>
+      <c r="A233" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>178</v>
+      <c r="C233" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>23</v>
+        <v>426</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>439</v>
+        <v>321</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="I233" s="7">
-        <v>43917</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>10</v>
@@ -8830,19 +8874,19 @@
         <v>35</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I234" s="7">
         <v>43917</v>
@@ -8850,28 +8894,28 @@
     </row>
     <row r="235" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>14</v>
+        <v>432</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I235" s="7">
         <v>43917</v>
@@ -8879,28 +8923,28 @@
     </row>
     <row r="236" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I236" s="7">
         <v>43917</v>
@@ -8908,1097 +8952,1420 @@
     </row>
     <row r="237" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I237" s="7">
         <v>43917</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B238" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="C238" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="D238" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="E238" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="F238" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" s="39" t="s">
-        <v>468</v>
+    <row r="238" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B239" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="C239" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="D239" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="E239" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="F239" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" s="39" t="s">
-        <v>468</v>
+        <v>431</v>
+      </c>
+      <c r="I238" s="7">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E239" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B240" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="C240" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D240" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="E240" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="F240" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" s="39" t="s">
-        <v>468</v>
+        <v>431</v>
+      </c>
+      <c r="I239" s="7">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>469</v>
+        <v>431</v>
+      </c>
+      <c r="I240" s="7">
+        <v>43917</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B241" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D241" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F241" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G241" s="39" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="D242" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E242" s="40" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F242" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G242" s="39" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="D243" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E243" s="40" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="F243" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G243" s="39" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B244" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C244" s="39" t="s">
         <v>464</v>
       </c>
-      <c r="C244" s="39" t="s">
-        <v>200</v>
-      </c>
       <c r="D244" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F244" s="38" t="s">
-        <v>478</v>
+        <v>14</v>
       </c>
       <c r="G244" s="39" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D245" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E245" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="E245" s="40" t="s">
-        <v>479</v>
-      </c>
       <c r="F245" s="38" t="s">
-        <v>478</v>
+        <v>14</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>482</v>
+        <v>200</v>
       </c>
       <c r="D246" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E246" s="40" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F246" s="38" t="s">
-        <v>478</v>
+        <v>14</v>
       </c>
       <c r="G246" s="39" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>484</v>
+        <v>200</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F247" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>486</v>
+        <v>200</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F248" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F249" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G249" s="39" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="F250" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="F251" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="F252" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>498</v>
+        <v>200</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="F253" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D254" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F255" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G255" s="39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>200</v>
+        <v>489</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="38" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H258" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B259" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C259" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D259" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E259" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="F259" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="G259" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B260" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C260" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="D260" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E260" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="F260" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="G260" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="H260" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B261" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C261" s="39" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B259" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C259" s="36" t="s">
+      <c r="D261" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E261" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="F261" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="G261" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="H261" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B262" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D259" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E259" s="43" t="s">
-        <v>510</v>
-      </c>
-      <c r="F259" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" s="36" t="s">
+      <c r="D262" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E262" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="H262" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="I262" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B263" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E263" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="H263" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="I263" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B264" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E264" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="H259" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I259" s="44" t="s">
+      <c r="F264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="H264" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="I264" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B265" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E265" s="42" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B260" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C260" s="36" t="s">
+      <c r="F265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="H265" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="I265" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B266" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E260" s="43" t="s">
-        <v>511</v>
-      </c>
-      <c r="F260" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="H260" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I260" s="44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B261" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C261" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E261" s="43" t="s">
+      <c r="D266" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E266" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="F266" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H266" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I266" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B267" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D267" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E267" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="F267" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G267" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H267" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I267" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B268" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D268" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E268" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="F268" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G268" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H268" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I268" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B269" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D269" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E269" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="F269" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H269" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I269" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B270" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D270" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E270" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="F270" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H270" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I270" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B271" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E271" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F271" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H271" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I271" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B272" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E272" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H272" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I272" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B273" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E273" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="F273" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H273" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I273" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B274" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D274" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E274" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="F261" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="H261" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I261" s="44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B262" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C262" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E262" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="F262" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="H262" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="I262" s="44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B263" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="36" t="s">
+      <c r="F274" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="H274" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="I274" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B275" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D275" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="E275" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="E263" s="43" t="s">
-        <v>525</v>
-      </c>
-      <c r="F263" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H263" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I263" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B264" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C264" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D264" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E264" s="43" t="s">
-        <v>526</v>
-      </c>
-      <c r="F264" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G264" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H264" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I264" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B265" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C265" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D265" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E265" s="43" t="s">
+      <c r="F275" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="F265" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G265" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H265" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I265" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B266" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C266" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D266" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E266" s="43" t="s">
-        <v>535</v>
-      </c>
-      <c r="F266" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H266" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I266" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B267" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C267" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D267" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E267" s="43" t="s">
+      <c r="H275" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="F267" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H267" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I267" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B268" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C268" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D268" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E268" s="43" t="s">
+      <c r="I275" s="36" t="s">
         <v>529</v>
-      </c>
-      <c r="F268" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H268" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I268" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B269" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C269" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="D269" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E269" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="F269" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H269" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I269" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B270" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C270" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D270" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E270" s="43" t="s">
-        <v>531</v>
-      </c>
-      <c r="F270" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H270" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I270" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B271" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C271" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D271" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E271" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="F271" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H271" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I271" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B272" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C272" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D272" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E272" s="43" t="s">
-        <v>533</v>
-      </c>
-      <c r="F272" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="I272" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B273" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C273" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D273" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="E273" s="43" t="s">
-        <v>541</v>
-      </c>
-      <c r="F273" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G273" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="H273" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="I273" s="44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B274" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C274" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E274" s="43" t="s">
-        <v>542</v>
-      </c>
-      <c r="F274" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="H274" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="I274" s="46">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B275" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C275" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E275" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="F275" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="H275" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="I275" s="44" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B276" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D276" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="E276" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F276" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="H276" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="I276" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B277" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D277"/>
+      <c r="E277" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="F277" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="H277" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="I277" s="45">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B278" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="F278" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="H278" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="I278" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B276" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C276" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="E276" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="F276" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" s="36" t="s">
+      <c r="B279" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="F279" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G279" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="H279" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="I279" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D280" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E280" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="F280" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" s="49" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E281" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="F281" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I281" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C282" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E282" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="F282" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I282" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E283" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="H276" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="I276" s="44" t="s">
-        <v>513</v>
+      <c r="F283" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G283" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I283" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E284" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="F284" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I284" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D285" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E285" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="F285" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G285" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I285" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D286" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E286" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I286" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B287" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D287" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E287" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I287" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D288" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E288" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="F288" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G288" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="I288" s="30" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I276" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:I288" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Hidalgo"/>
+        <filter val="INFONAVIT"/>
+        <filter val="Información no disponible"/>
+        <filter val="Sector informal"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10123,133 +10490,131 @@
     <hyperlink ref="H119" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
     <hyperlink ref="H120" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="H121" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H122" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="H123" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H124" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="H125" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="H126" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="H127" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="H128" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="H129" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="H130" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="H131" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="H132" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="H133" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="H134" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="H135" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="H136" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="H137" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="H138" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="H139" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="H140" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="H141" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="H142" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H143" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="H144" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H145" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H146" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H147" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H148" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H155" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="H156" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="H157" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="H158" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="H159" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="H160" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="H161" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="H162" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="H163" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="H164" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="H165" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="H166" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="H167" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="H168" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="H169" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H170" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="H171" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="H172" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H173" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="H174" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="H175" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="H176" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="H177" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="H178" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="H179" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="H180" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="H181" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="H182" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="H183" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="H184" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="H185" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H186" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="H187" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="H188" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="H189" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="H190" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="H191" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="H192" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="H193" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="H194" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="H195" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="H196" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="H197" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="H198" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="H199" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="H200" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="H201" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="H202" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E203" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="H203" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H204" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="H205" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="H206" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="H207" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="H208" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H209" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="H210" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H211" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="H212" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="H213" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H214" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="H227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="H229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="H230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="H231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="H232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="H233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="H234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="H235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H236" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="H237" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="H238" r:id="rId218" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
-    <hyperlink ref="H239" r:id="rId219" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
-    <hyperlink ref="H240" r:id="rId220" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
-    <hyperlink ref="H241" r:id="rId221" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
-    <hyperlink ref="H242" r:id="rId222" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
-    <hyperlink ref="H243" r:id="rId223" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
-    <hyperlink ref="H244" r:id="rId224" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
-    <hyperlink ref="H245" r:id="rId225" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
-    <hyperlink ref="H246" r:id="rId226" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
-    <hyperlink ref="H247" r:id="rId227" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
-    <hyperlink ref="H248" r:id="rId228" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
-    <hyperlink ref="H249" r:id="rId229" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
-    <hyperlink ref="H250" r:id="rId230" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
-    <hyperlink ref="H251" r:id="rId231" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
-    <hyperlink ref="H252" r:id="rId232" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
-    <hyperlink ref="H253" r:id="rId233" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
-    <hyperlink ref="H254" r:id="rId234" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
-    <hyperlink ref="H255" r:id="rId235" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
-    <hyperlink ref="H256" r:id="rId236" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
-    <hyperlink ref="H257" r:id="rId237" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
-    <hyperlink ref="H258" r:id="rId238" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
-    <hyperlink ref="H154" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="H153" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H152" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H151" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H150" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H149" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H122" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H128" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="H129" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H130" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="H131" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H132" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H133" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H134" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H135" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H136" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H137" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H138" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H139" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H140" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="H142" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="H143" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="H144" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H145" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H146" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H147" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H148" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H149" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H150" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H151" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H158" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="H159" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="H160" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H161" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="H162" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="H163" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="H164" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H165" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="H166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="H167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="H168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="H169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="H170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="H171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="H172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="H174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="H175" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="H176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="H177" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="H178" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="H179" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="H180" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="H181" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H182" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H183" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="H184" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="H185" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="H186" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="H187" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="H188" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H189" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="H190" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H191" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="H192" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H193" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="H194" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H195" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H196" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="H197" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="H198" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="H199" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="H200" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="H201" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="H202" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="H203" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="H204" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="H205" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E206" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="H206" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H207" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="H208" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="H209" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="H210" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H211" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H212" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H213" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H214" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H215" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H216" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H217" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H229" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H230" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H231" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H232" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H233" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H234" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H235" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H236" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H237" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H238" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H239" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H240" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H241" r:id="rId216" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
+    <hyperlink ref="H242" r:id="rId217" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
+    <hyperlink ref="H243" r:id="rId218" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
+    <hyperlink ref="H244" r:id="rId219" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
+    <hyperlink ref="H245" r:id="rId220" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
+    <hyperlink ref="H246" r:id="rId221" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
+    <hyperlink ref="H247" r:id="rId222" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
+    <hyperlink ref="H248" r:id="rId223" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
+    <hyperlink ref="H249" r:id="rId224" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
+    <hyperlink ref="H250" r:id="rId225" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
+    <hyperlink ref="H251" r:id="rId226" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
+    <hyperlink ref="H252" r:id="rId227" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
+    <hyperlink ref="H253" r:id="rId228" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
+    <hyperlink ref="H254" r:id="rId229" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
+    <hyperlink ref="H255" r:id="rId230" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
+    <hyperlink ref="H256" r:id="rId231" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
+    <hyperlink ref="H257" r:id="rId232" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
+    <hyperlink ref="H258" r:id="rId233" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
+    <hyperlink ref="H259" r:id="rId234" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
+    <hyperlink ref="H260" r:id="rId235" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
+    <hyperlink ref="H261" r:id="rId236" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
+    <hyperlink ref="H157" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H156" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H155" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H154" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H153" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H152" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC771F-395E-AF4F-8787-20DE6FAF78A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5061AB9F-B244-0C48-9202-4154D9FD3397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17520" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="565">
   <si>
     <t>Entidad</t>
   </si>
@@ -1790,9 +1790,6 @@
     <t xml:space="preserve">Entrega de recursos económicos extraordinarios a municipios: La administración estatal transferirá recursos propios a municipios para apoyarlos ante la contingencia del coronavirus. Estos recursos sólo podrán ser destinados para compra de alimentos para quienes lo necesiten y de bienes y suministros para la prevención de contagios. </t>
   </si>
   <si>
-    <t xml:space="preserve">Medidas realizads por Yucatán, oficio enviado al LNPP el 16 de abril, 2020 por parte de la Secretría Técnica de Planeación y evaluación. </t>
-  </si>
-  <si>
     <t>16/4/2020</t>
   </si>
   <si>
@@ -1803,6 +1800,15 @@
   </si>
   <si>
     <t>Vivienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medidas realizadas por Yucatán, oficio enviado al LNPP el 16 de abril, 2020 por parte de la Secretría Técnica de Planeación y evaluación. </t>
+  </si>
+  <si>
+    <t>https://github.com/lnpp/medidasEconomicasCovid19/raw/master/www/Documentos/MedidasCampeche.pptx</t>
+  </si>
+  <si>
+    <t>https://github.com/lnpp/medidasEconomicasCovid19/raw/master/www/Documentos/MedidasYucatan.pdf</t>
   </si>
 </sst>
 </file>
@@ -2046,10 +2052,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2060,6 +2062,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2697,7 +2703,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -5152,10 +5158,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="46" t="s">
+      <c r="C101" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="47"/>
+      <c r="D101" s="51"/>
       <c r="E101" s="2" t="s">
         <v>217</v>
       </c>
@@ -5761,21 +5767,23 @@
       <c r="C123" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D123" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E123" s="48" t="s">
+      <c r="D123" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E123" s="46" t="s">
         <v>549</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G123" s="49" t="s">
+      <c r="G123" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H123" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="I123" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="H123" s="50"/>
-      <c r="I123" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -5788,21 +5796,23 @@
       <c r="C124" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E124" s="48" t="s">
+      <c r="D124" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E124" s="46" t="s">
         <v>551</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G124" s="49" t="s">
+      <c r="G124" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="I124" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="H124" s="50"/>
-      <c r="I124" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -5815,21 +5825,23 @@
       <c r="C125" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D125" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E125" s="48" t="s">
+      <c r="D125" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E125" s="46" t="s">
         <v>550</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G125" s="49" t="s">
+      <c r="G125" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H125" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="I125" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="H125" s="50"/>
-      <c r="I125" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -5842,21 +5854,23 @@
       <c r="C126" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="D126" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E126" s="48" t="s">
+      <c r="D126" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E126" s="46" t="s">
         <v>553</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G126" s="49" t="s">
+      <c r="G126" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H126" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="I126" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="H126" s="50"/>
-      <c r="I126" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -5869,21 +5883,23 @@
       <c r="C127" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E127" s="48" t="s">
+      <c r="D127" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E127" s="46" t="s">
         <v>552</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G127" s="49" t="s">
+      <c r="G127" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="I127" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="H127" s="50"/>
-      <c r="I127" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -6031,7 +6047,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>248</v>
       </c>
@@ -6039,7 +6055,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>275</v>
@@ -6541,7 +6557,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>288</v>
       </c>
@@ -8223,7 +8239,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
         <v>408</v>
       </c>
@@ -8252,7 +8268,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>413</v>
       </c>
@@ -8279,7 +8295,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>413</v>
       </c>
@@ -8306,7 +8322,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="29" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>413</v>
       </c>
@@ -8333,7 +8349,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>413</v>
       </c>
@@ -8360,7 +8376,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
         <v>413</v>
       </c>
@@ -8387,7 +8403,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
         <v>413</v>
       </c>
@@ -8414,7 +8430,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
         <v>413</v>
       </c>
@@ -8441,7 +8457,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" s="31" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
         <v>413</v>
       </c>
@@ -8468,7 +8484,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
         <v>413</v>
       </c>
@@ -8488,10 +8504,14 @@
       <c r="G218" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="H218" s="29"/>
-      <c r="I218" s="30"/>
-    </row>
-    <row r="219" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H218" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I218" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
         <v>413</v>
       </c>
@@ -8511,10 +8531,14 @@
       <c r="G219" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H219" s="29"/>
-      <c r="I219" s="30"/>
-    </row>
-    <row r="220" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H219" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I219" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
         <v>413</v>
       </c>
@@ -8534,10 +8558,14 @@
       <c r="G220" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H220" s="29"/>
-      <c r="I220" s="30"/>
-    </row>
-    <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H220" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I220" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
         <v>413</v>
       </c>
@@ -8557,10 +8585,14 @@
       <c r="G221" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H221" s="29"/>
-      <c r="I221" s="30"/>
-    </row>
-    <row r="222" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H221" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I221" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
         <v>413</v>
       </c>
@@ -8580,10 +8612,14 @@
       <c r="G222" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H222" s="29"/>
-      <c r="I222" s="30"/>
-    </row>
-    <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H222" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I222" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
         <v>413</v>
       </c>
@@ -8603,10 +8639,14 @@
       <c r="G223" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H223" s="29"/>
-      <c r="I223" s="30"/>
-    </row>
-    <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H223" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I223" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
         <v>413</v>
       </c>
@@ -8626,10 +8666,14 @@
       <c r="G224" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H224" s="29"/>
-      <c r="I224" s="30"/>
-    </row>
-    <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H224" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I224" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
         <v>413</v>
       </c>
@@ -8649,10 +8693,14 @@
       <c r="G225" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H225" s="29"/>
-      <c r="I225" s="30"/>
-    </row>
-    <row r="226" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H225" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I225" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
         <v>413</v>
       </c>
@@ -8672,10 +8720,14 @@
       <c r="G226" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H226" s="29"/>
-      <c r="I226" s="30"/>
-    </row>
-    <row r="227" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H226" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I226" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" s="31" customFormat="1" ht="71" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
         <v>413</v>
       </c>
@@ -8695,10 +8747,14 @@
       <c r="G227" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H227" s="29"/>
-      <c r="I227" s="30"/>
-    </row>
-    <row r="228" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H227" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I227" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
         <v>413</v>
       </c>
@@ -8717,10 +8773,14 @@
       <c r="G228" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H228" s="29"/>
-      <c r="I228" s="30"/>
-    </row>
-    <row r="229" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H228" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I228" s="30" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="43" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>413</v>
       </c>
@@ -10138,16 +10198,22 @@
       <c r="C280" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D280" s="48" t="s">
+      <c r="D280" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E280" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="E280" s="48" t="s">
-        <v>561</v>
-      </c>
-      <c r="F280" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" s="49" t="s">
+      <c r="F280" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H280" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I280" s="30" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10161,20 +10227,23 @@
       <c r="C281" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D281" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E281" s="51" t="s">
+      <c r="D281" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E281" s="49" t="s">
         <v>543</v>
       </c>
       <c r="F281" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G281" s="49" t="s">
+      <c r="G281" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H281" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I281" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I281" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10187,20 +10256,23 @@
       <c r="C282" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D282" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E282" s="51" t="s">
+      <c r="D282" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E282" s="49" t="s">
         <v>544</v>
       </c>
       <c r="F282" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G282" s="49" t="s">
+      <c r="G282" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H282" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I282" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I282" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10213,20 +10285,23 @@
       <c r="C283" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D283" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E283" s="51" t="s">
+      <c r="D283" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E283" s="49" t="s">
         <v>545</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G283" s="49" t="s">
+      <c r="G283" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H283" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I283" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I283" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10239,20 +10314,23 @@
       <c r="C284" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D284" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E284" s="51" t="s">
+      <c r="D284" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E284" s="49" t="s">
         <v>546</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G284" s="49" t="s">
+      <c r="G284" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H284" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I284" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I284" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10265,20 +10343,23 @@
       <c r="C285" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D285" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E285" s="51" t="s">
+      <c r="D285" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E285" s="49" t="s">
         <v>554</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G285" s="49" t="s">
+      <c r="G285" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H285" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I285" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I285" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10291,20 +10372,23 @@
       <c r="C286" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D286" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E286" s="51" t="s">
+      <c r="D286" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E286" s="49" t="s">
         <v>555</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G286" s="49" t="s">
+      <c r="G286" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H286" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I286" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I286" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10317,20 +10401,23 @@
       <c r="C287" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D287" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E287" s="51" t="s">
+      <c r="D287" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E287" s="49" t="s">
         <v>556</v>
       </c>
       <c r="F287" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G287" s="49" t="s">
+      <c r="G287" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H287" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I287" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I287" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10343,29 +10430,30 @@
       <c r="C288" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="D288" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="E288" s="51" t="s">
+      <c r="D288" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="E288" s="49" t="s">
         <v>557</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G288" s="49" t="s">
+      <c r="G288" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H288" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="I288" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="I288" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I288" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="INFONAVIT"/>
-        <filter val="Información no disponible"/>
-        <filter val="Sector informal"/>
+        <filter val="Campeche"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10491,130 +10579,130 @@
     <hyperlink ref="H120" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="H121" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="H122" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H128" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="H129" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="H130" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="H131" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="H132" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="H133" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="H134" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="H135" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="H136" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="H137" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="H138" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="H139" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="H140" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="H141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="H142" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="H143" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="H144" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="H145" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H146" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="H147" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H148" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H149" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H150" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H151" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H158" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="H159" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="H160" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="H161" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="H162" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="H163" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="H164" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="H165" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="H166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="H167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="H168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="H169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="H170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="H171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="H172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="H174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="H175" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H176" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="H177" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="H178" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="H179" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="H180" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="H181" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="H182" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="H183" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="H184" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="H185" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="H186" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="H187" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="H188" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H189" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="H190" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="H191" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="H192" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="H193" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="H194" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="H195" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="H196" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="H197" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="H198" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="H199" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="H200" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="H201" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="H202" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="H203" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="H204" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="H205" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E206" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="H206" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H207" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="H208" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="H209" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="H210" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="H211" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H212" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="H213" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H214" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="H215" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="H216" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H217" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H229" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="H230" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H231" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="H232" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="H233" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="H234" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="H235" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="H236" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="H237" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="H238" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H239" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="H240" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="H241" r:id="rId216" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
-    <hyperlink ref="H242" r:id="rId217" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
-    <hyperlink ref="H243" r:id="rId218" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
-    <hyperlink ref="H244" r:id="rId219" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
-    <hyperlink ref="H245" r:id="rId220" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
-    <hyperlink ref="H246" r:id="rId221" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
-    <hyperlink ref="H247" r:id="rId222" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
-    <hyperlink ref="H248" r:id="rId223" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
-    <hyperlink ref="H249" r:id="rId224" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
-    <hyperlink ref="H250" r:id="rId225" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
-    <hyperlink ref="H251" r:id="rId226" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
-    <hyperlink ref="H252" r:id="rId227" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
-    <hyperlink ref="H253" r:id="rId228" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
-    <hyperlink ref="H254" r:id="rId229" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
-    <hyperlink ref="H255" r:id="rId230" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
-    <hyperlink ref="H256" r:id="rId231" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
-    <hyperlink ref="H257" r:id="rId232" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
-    <hyperlink ref="H258" r:id="rId233" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
-    <hyperlink ref="H259" r:id="rId234" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
-    <hyperlink ref="H260" r:id="rId235" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
-    <hyperlink ref="H261" r:id="rId236" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
-    <hyperlink ref="H157" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="H156" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H155" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H154" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H153" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H152" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H129" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H130" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="H131" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H133" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H134" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H135" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H136" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H137" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H138" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H139" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H140" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H141" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="H142" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="H143" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="H144" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H145" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H146" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H147" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H148" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H149" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H150" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H151" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H158" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="H159" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="H160" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H161" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="H162" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="H163" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="H164" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H165" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="H166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="H167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="H168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="H169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="H170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="H171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="H172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="H174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="H175" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="H176" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="H177" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="H178" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="H179" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="H180" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="H181" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H182" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H183" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="H184" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="H185" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="H186" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="H187" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="H188" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H189" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="H190" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H191" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="H192" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H193" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="H194" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H195" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H196" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="H197" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="H198" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="H199" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="H200" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="H201" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="H202" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="H203" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="H204" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="H205" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E206" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="H206" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H207" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="H208" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="H209" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="H210" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H211" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H212" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H213" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H214" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H215" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H216" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H217" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H229" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H230" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H231" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H232" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H233" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H234" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H235" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H236" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H237" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H238" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H239" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H240" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H241" r:id="rId215" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
+    <hyperlink ref="H242" r:id="rId216" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
+    <hyperlink ref="H243" r:id="rId217" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
+    <hyperlink ref="H244" r:id="rId218" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
+    <hyperlink ref="H245" r:id="rId219" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
+    <hyperlink ref="H246" r:id="rId220" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
+    <hyperlink ref="H247" r:id="rId221" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
+    <hyperlink ref="H248" r:id="rId222" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
+    <hyperlink ref="H249" r:id="rId223" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
+    <hyperlink ref="H250" r:id="rId224" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
+    <hyperlink ref="H251" r:id="rId225" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
+    <hyperlink ref="H252" r:id="rId226" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
+    <hyperlink ref="H253" r:id="rId227" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
+    <hyperlink ref="H254" r:id="rId228" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
+    <hyperlink ref="H255" r:id="rId229" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
+    <hyperlink ref="H256" r:id="rId230" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
+    <hyperlink ref="H257" r:id="rId231" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
+    <hyperlink ref="H258" r:id="rId232" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
+    <hyperlink ref="H259" r:id="rId233" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
+    <hyperlink ref="H260" r:id="rId234" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
+    <hyperlink ref="H261" r:id="rId235" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
+    <hyperlink ref="H157" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H156" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H155" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H154" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H153" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H152" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H128" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5061AB9F-B244-0C48-9202-4154D9FD3397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C803A0C-DCAE-284C-98F3-5E52D8534C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="17520" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$289</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="568">
   <si>
     <t>Entidad</t>
   </si>
@@ -1342,18 +1342,6 @@
     <t>Chiapas</t>
   </si>
   <si>
-    <t>Información no disponible</t>
-  </si>
-  <si>
-    <t>Información no disponible, se encuentran en proceso de planeación.</t>
-  </si>
-  <si>
-    <t>Reuniones de Preparación con empresarios</t>
-  </si>
-  <si>
-    <t>http://www.economiaytrabajo.chiapas.gob.mx/index.php?option=com_k2&amp;view=item&amp;id=363:se-unen-sectores-empresarial-y-publico-ante-contingencia-de-salud&amp;Itemid=151</t>
-  </si>
-  <si>
     <t>Campeche</t>
   </si>
   <si>
@@ -1809,6 +1797,27 @@
   </si>
   <si>
     <t>https://github.com/lnpp/medidasEconomicasCovid19/raw/master/www/Documentos/MedidasYucatan.pdf</t>
+  </si>
+  <si>
+    <t>Crédito a la palabra para más de 60,000 empresas hasta por 25 mil pesos, pagaderos en tres años y con un tiempo de gracia, para que la gente pueda tener como ayudar a sus empresas. Interés bajo de 6.5%</t>
+  </si>
+  <si>
+    <t>Anuncio del gobernador en Twitter el 16 de abril del 2020.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RutilioEscandon/status/1250825116784754688</t>
+  </si>
+  <si>
+    <t>Creación del espacio "Chihuahua adelante" en el que se dará a conocer al público la implementación del Plan Emergente de Apoyo y Protección a la Salud, el Empleo y el Ingreso Familiar, a las 7 de la mañana cada lunes y jueves.</t>
+  </si>
+  <si>
+    <t>Comunicación a través de cuenta oficial de Twitter del Gobernador el 15 de Abril, 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Javier_Corral/status/1250582007324839936</t>
+  </si>
+  <si>
+    <t>15/4/2020</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2062,6 +2071,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2284,10 +2297,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2616,7 +2629,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2645,7 +2658,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2674,7 +2687,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2703,7 +2716,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -3465,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>94</v>
@@ -4669,7 +4682,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>168</v>
@@ -5158,10 +5171,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="51"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="2" t="s">
         <v>217</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>253</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>14</v>
@@ -5742,7 +5755,7 @@
         <v>262</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
@@ -5768,22 +5781,22 @@
         <v>24</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E123" s="46" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I123" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -5797,22 +5810,22 @@
         <v>60</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -5826,22 +5839,22 @@
         <v>60</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -5855,22 +5868,22 @@
         <v>265</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -5884,22 +5897,22 @@
         <v>35</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E127" s="46" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -6032,7 +6045,7 @@
         <v>274</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>14</v>
@@ -6055,13 +6068,13 @@
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>275</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>23</v>
@@ -6113,7 +6126,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>278</v>
@@ -6339,7 +6352,7 @@
         <v>10</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="2" t="s">
@@ -6600,7 +6613,7 @@
         <v>314</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>23</v>
@@ -6629,7 +6642,7 @@
         <v>314</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>14</v>
@@ -6658,7 +6671,7 @@
         <v>314</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>23</v>
@@ -6687,7 +6700,7 @@
         <v>314</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>23</v>
@@ -6716,7 +6729,7 @@
         <v>314</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>14</v>
@@ -6745,7 +6758,7 @@
         <v>314</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>14</v>
@@ -6774,7 +6787,7 @@
         <v>314</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>14</v>
@@ -7348,7 +7361,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>352</v>
@@ -8247,30 +8260,28 @@
         <v>10</v>
       </c>
       <c r="C209" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D209" s="11"/>
+      <c r="E209" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="H209" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I209" s="13">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>10</v>
@@ -8280,7 +8291,7 @@
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>14</v>
@@ -8289,15 +8300,15 @@
         <v>321</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I210" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>10</v>
@@ -8307,7 +8318,7 @@
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>14</v>
@@ -8316,15 +8327,15 @@
         <v>321</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I211" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>10</v>
@@ -8334,7 +8345,7 @@
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>14</v>
@@ -8343,15 +8354,15 @@
         <v>321</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I212" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>10</v>
@@ -8361,7 +8372,7 @@
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>14</v>
@@ -8370,15 +8381,15 @@
         <v>321</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I213" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B214" s="26" t="s">
         <v>10</v>
@@ -8388,7 +8399,7 @@
       </c>
       <c r="D214" s="25"/>
       <c r="E214" s="28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F214" s="26" t="s">
         <v>14</v>
@@ -8397,15 +8408,15 @@
         <v>321</v>
       </c>
       <c r="H214" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I214" s="30">
         <v>43929</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B215" s="26" t="s">
         <v>10</v>
@@ -8415,7 +8426,7 @@
       </c>
       <c r="D215" s="32"/>
       <c r="E215" s="28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F215" s="26" t="s">
         <v>14</v>
@@ -8424,15 +8435,15 @@
         <v>321</v>
       </c>
       <c r="H215" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I215" s="30">
         <v>43929</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B216" s="26" t="s">
         <v>10</v>
@@ -8442,7 +8453,7 @@
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="28" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>14</v>
@@ -8451,25 +8462,25 @@
         <v>321</v>
       </c>
       <c r="H216" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I216" s="30">
         <v>43929</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="31" customFormat="1" ht="43" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D217" s="25"/>
       <c r="E217" s="28" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F217" s="26" t="s">
         <v>14</v>
@@ -8478,15 +8489,15 @@
         <v>321</v>
       </c>
       <c r="H217" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I217" s="30">
         <v>43929</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B218" s="26" t="s">
         <v>10</v>
@@ -8496,24 +8507,24 @@
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F218" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G218" s="26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H218" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I218" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>10</v>
@@ -8523,24 +8534,24 @@
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="28" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F219" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G219" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H219" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I219" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B220" s="26" t="s">
         <v>10</v>
@@ -8550,24 +8561,24 @@
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F220" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G220" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H220" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I220" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B221" s="26" t="s">
         <v>10</v>
@@ -8577,24 +8588,24 @@
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="28" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F221" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H221" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I221" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B222" s="26" t="s">
         <v>10</v>
@@ -8604,24 +8615,24 @@
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F222" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H222" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I222" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B223" s="26" t="s">
         <v>10</v>
@@ -8631,24 +8642,24 @@
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="28" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H223" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I223" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B224" s="26" t="s">
         <v>10</v>
@@ -8658,24 +8669,24 @@
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="28" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H224" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I224" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>10</v>
@@ -8685,51 +8696,51 @@
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="28" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F225" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I225" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B226" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="35" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F226" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H226" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I226" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" s="31" customFormat="1" ht="71" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B227" s="26" t="s">
         <v>10</v>
@@ -8739,24 +8750,24 @@
       </c>
       <c r="D227" s="25"/>
       <c r="E227" s="35" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F227" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G227" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I227" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B228" s="26" t="s">
         <v>10</v>
@@ -8765,24 +8776,24 @@
         <v>110</v>
       </c>
       <c r="E228" s="35" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F228" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H228" s="29" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I228" s="30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="43" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>10</v>
@@ -8792,7 +8803,7 @@
       </c>
       <c r="D229" s="16"/>
       <c r="E229" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>14</v>
@@ -8801,7 +8812,7 @@
         <v>321</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I229" s="4">
         <v>43929</v>
@@ -8809,7 +8820,7 @@
     </row>
     <row r="230" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B230" s="11" t="s">
         <v>10</v>
@@ -8818,10 +8829,10 @@
         <v>88</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>14</v>
@@ -8830,7 +8841,7 @@
         <v>321</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I230" s="7">
         <v>43915</v>
@@ -8838,7 +8849,7 @@
     </row>
     <row r="231" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>10</v>
@@ -8847,10 +8858,10 @@
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>14</v>
@@ -8859,7 +8870,7 @@
         <v>321</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I231" s="7">
         <v>43915</v>
@@ -8867,7 +8878,7 @@
     </row>
     <row r="232" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>10</v>
@@ -8876,10 +8887,10 @@
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>14</v>
@@ -8888,7 +8899,7 @@
         <v>321</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I232" s="7">
         <v>43915</v>
@@ -8896,7 +8907,7 @@
     </row>
     <row r="233" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>10</v>
@@ -8905,10 +8916,10 @@
         <v>88</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E233" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="E233" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>14</v>
@@ -8917,7 +8928,7 @@
         <v>321</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I233" s="7">
         <v>43915</v>
@@ -8925,7 +8936,7 @@
     </row>
     <row r="234" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>10</v>
@@ -8934,19 +8945,19 @@
         <v>35</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I234" s="7">
         <v>43917</v>
@@ -8954,7 +8965,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>10</v>
@@ -8963,19 +8974,19 @@
         <v>53</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E235" s="17" t="s">
         <v>428</v>
-      </c>
-      <c r="E235" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I235" s="7">
         <v>43917</v>
@@ -8983,7 +8994,7 @@
     </row>
     <row r="236" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>10</v>
@@ -8992,19 +9003,19 @@
         <v>178</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I236" s="7">
         <v>43917</v>
@@ -9012,7 +9023,7 @@
     </row>
     <row r="237" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>10</v>
@@ -9021,19 +9032,19 @@
         <v>35</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I237" s="7">
         <v>43917</v>
@@ -9041,7 +9052,7 @@
     </row>
     <row r="238" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B238" s="11" t="s">
         <v>10</v>
@@ -9050,19 +9061,19 @@
         <v>60</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F238" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I238" s="7">
         <v>43917</v>
@@ -9070,7 +9081,7 @@
     </row>
     <row r="239" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>10</v>
@@ -9079,19 +9090,19 @@
         <v>58</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I239" s="7">
         <v>43917</v>
@@ -9099,7 +9110,7 @@
     </row>
     <row r="240" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>10</v>
@@ -9108,19 +9119,19 @@
         <v>58</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I240" s="7">
         <v>43917</v>
@@ -9131,25 +9142,25 @@
         <v>331</v>
       </c>
       <c r="B241" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C241" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="F241" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="C241" s="39" t="s">
+      <c r="H241" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="D241" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="E241" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="F241" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="H241" s="18" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9157,25 +9168,25 @@
         <v>331</v>
       </c>
       <c r="B242" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E242" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="F242" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="C242" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="D242" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="E242" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="F242" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" s="39" t="s">
-        <v>459</v>
-      </c>
       <c r="H242" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9183,25 +9194,25 @@
         <v>331</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C243" s="39" t="s">
         <v>268</v>
       </c>
       <c r="D243" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E243" s="40" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F243" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G243" s="39" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9209,25 +9220,25 @@
         <v>331</v>
       </c>
       <c r="B244" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="F244" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="C244" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="D244" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="E244" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="F244" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="39" t="s">
-        <v>459</v>
-      </c>
       <c r="H244" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9235,25 +9246,25 @@
         <v>331</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D245" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F245" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9261,25 +9272,25 @@
         <v>331</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C246" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D246" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E246" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F246" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G246" s="39" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9287,25 +9298,25 @@
         <v>331</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F247" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9313,25 +9324,25 @@
         <v>331</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F248" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9339,25 +9350,25 @@
         <v>331</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F249" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G249" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9365,25 +9376,25 @@
         <v>331</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F250" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9391,25 +9402,25 @@
         <v>331</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F251" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9417,25 +9428,25 @@
         <v>331</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F252" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9443,25 +9454,25 @@
         <v>331</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C253" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F253" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9469,25 +9480,25 @@
         <v>331</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D254" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9495,25 +9506,25 @@
         <v>331</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F255" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G255" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9521,25 +9532,25 @@
         <v>331</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9547,25 +9558,25 @@
         <v>331</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9573,25 +9584,25 @@
         <v>331</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9599,25 +9610,25 @@
         <v>331</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C259" s="39" t="s">
         <v>200</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F259" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9625,25 +9636,25 @@
         <v>331</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C260" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="D260" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E260" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="F260" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="G260" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="H260" s="18" t="s">
         <v>484</v>
-      </c>
-      <c r="D260" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="E260" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="F260" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="G260" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="H260" s="18" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9651,25 +9662,25 @@
         <v>331</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C261" s="39" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F261" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G261" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9683,22 +9694,22 @@
         <v>88</v>
       </c>
       <c r="D262" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E262" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="H262" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I262" s="43" t="s">
         <v>500</v>
-      </c>
-      <c r="E262" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="F262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="H262" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="I262" s="43" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9712,22 +9723,22 @@
         <v>11</v>
       </c>
       <c r="D263" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E263" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="H263" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I263" s="43" t="s">
         <v>500</v>
-      </c>
-      <c r="E263" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="F263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="H263" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="I263" s="43" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9741,22 +9752,22 @@
         <v>11</v>
       </c>
       <c r="D264" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E264" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="F264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="H264" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I264" s="43" t="s">
         <v>500</v>
-      </c>
-      <c r="E264" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="F264" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="H264" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="I264" s="43" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9770,22 +9781,22 @@
         <v>11</v>
       </c>
       <c r="D265" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="E265" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="F265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="H265" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I265" s="43" t="s">
         <v>500</v>
-      </c>
-      <c r="E265" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="F265" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="H265" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="I265" s="43" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9799,22 +9810,22 @@
         <v>11</v>
       </c>
       <c r="D266" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E266" s="42" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F266" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G266" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H266" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I266" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9825,25 +9836,25 @@
         <v>10</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D267" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F267" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G267" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H267" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I267" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9857,22 +9868,22 @@
         <v>35</v>
       </c>
       <c r="D268" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F268" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G268" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H268" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I268" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9886,22 +9897,22 @@
         <v>35</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F269" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G269" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H269" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I269" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9915,22 +9926,22 @@
         <v>35</v>
       </c>
       <c r="D270" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="E270" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="E270" s="42" t="s">
-        <v>519</v>
-      </c>
       <c r="F270" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G270" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H270" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I270" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9944,22 +9955,22 @@
         <v>21</v>
       </c>
       <c r="D271" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F271" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G271" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H271" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I271" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9970,25 +9981,25 @@
         <v>10</v>
       </c>
       <c r="C272" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="E272" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="H272" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="I272" s="36" t="s">
         <v>525</v>
-      </c>
-      <c r="D272" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="E272" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="F272" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="I272" s="36" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10002,22 +10013,22 @@
         <v>21</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F273" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G273" s="36" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H273" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I273" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10031,22 +10042,22 @@
         <v>60</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E274" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="F274" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="F274" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" s="36" t="s">
-        <v>527</v>
-      </c>
       <c r="H274" s="37" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I274" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10060,22 +10071,22 @@
         <v>35</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E275" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F275" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="H275" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="F275" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="H275" s="37" t="s">
-        <v>528</v>
-      </c>
       <c r="I275" s="36" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10089,22 +10100,22 @@
         <v>58</v>
       </c>
       <c r="D276" s="44" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E276" s="42" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F276" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G276" s="36" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H276" s="37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10119,16 +10130,16 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="42" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F277" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G277" s="36" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H277" s="37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I277" s="45">
         <v>44078</v>
@@ -10146,19 +10157,19 @@
       </c>
       <c r="D278"/>
       <c r="E278" s="42" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F278" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G278" s="36" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H278" s="37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I278" s="43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10169,23 +10180,23 @@
         <v>10</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="42" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F279" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G279" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="H279" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="H279" s="37" t="s">
-        <v>540</v>
-      </c>
       <c r="I279" s="43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="280" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10196,25 +10207,25 @@
         <v>10</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E280" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="H280" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="F280" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="H280" s="31" t="s">
-        <v>564</v>
-      </c>
       <c r="I280" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10228,22 +10239,22 @@
         <v>11</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E281" s="49" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F281" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G281" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H281" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I281" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10257,22 +10268,22 @@
         <v>11</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E282" s="49" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F282" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G282" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H282" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I282" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10286,22 +10297,22 @@
         <v>11</v>
       </c>
       <c r="D283" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E283" s="49" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G283" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H283" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10315,22 +10326,22 @@
         <v>11</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E284" s="49" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G284" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H284" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10344,22 +10355,22 @@
         <v>268</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E285" s="49" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G285" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H285" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10370,25 +10381,25 @@
         <v>10</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E286" s="49" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G286" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H286" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I286" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10402,22 +10413,22 @@
         <v>88</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F287" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G287" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H287" s="31" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I287" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10428,32 +10439,61 @@
         <v>10</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E288" s="49" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G288" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H288" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="I288" s="30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="B289" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="D289" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="E289" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="I288" s="30" t="s">
-        <v>558</v>
+      <c r="F289" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="H289" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="I289" s="43" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I288" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I289" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Campeche"/>
+        <filter val="Jalisco"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10654,55 +10694,54 @@
     <hyperlink ref="H206" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
     <hyperlink ref="H207" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
     <hyperlink ref="H208" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="H209" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="H210" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="H211" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H212" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="H213" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H214" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="H215" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="H216" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H217" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H229" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="H230" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H231" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="H232" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="H233" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="H234" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="H235" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="H236" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="H237" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="H238" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H239" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="H240" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="H241" r:id="rId215" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
-    <hyperlink ref="H242" r:id="rId216" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
-    <hyperlink ref="H243" r:id="rId217" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
-    <hyperlink ref="H244" r:id="rId218" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
-    <hyperlink ref="H245" r:id="rId219" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
-    <hyperlink ref="H246" r:id="rId220" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
-    <hyperlink ref="H247" r:id="rId221" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
-    <hyperlink ref="H248" r:id="rId222" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
-    <hyperlink ref="H249" r:id="rId223" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
-    <hyperlink ref="H250" r:id="rId224" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
-    <hyperlink ref="H251" r:id="rId225" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
-    <hyperlink ref="H252" r:id="rId226" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
-    <hyperlink ref="H253" r:id="rId227" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
-    <hyperlink ref="H254" r:id="rId228" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
-    <hyperlink ref="H255" r:id="rId229" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
-    <hyperlink ref="H256" r:id="rId230" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
-    <hyperlink ref="H257" r:id="rId231" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
-    <hyperlink ref="H258" r:id="rId232" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
-    <hyperlink ref="H259" r:id="rId233" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
-    <hyperlink ref="H260" r:id="rId234" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
-    <hyperlink ref="H261" r:id="rId235" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
-    <hyperlink ref="H157" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="H156" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H155" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H154" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H153" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H152" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H128" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="H210" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H211" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H212" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H213" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H214" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H215" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H216" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H217" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H229" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H230" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H231" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H232" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H233" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H234" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H235" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H236" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H237" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H238" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H239" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H240" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H241" r:id="rId214" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
+    <hyperlink ref="H242" r:id="rId215" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
+    <hyperlink ref="H243" r:id="rId216" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
+    <hyperlink ref="H244" r:id="rId217" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
+    <hyperlink ref="H245" r:id="rId218" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
+    <hyperlink ref="H246" r:id="rId219" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
+    <hyperlink ref="H247" r:id="rId220" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
+    <hyperlink ref="H248" r:id="rId221" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
+    <hyperlink ref="H249" r:id="rId222" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
+    <hyperlink ref="H250" r:id="rId223" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
+    <hyperlink ref="H251" r:id="rId224" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
+    <hyperlink ref="H252" r:id="rId225" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
+    <hyperlink ref="H253" r:id="rId226" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
+    <hyperlink ref="H254" r:id="rId227" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
+    <hyperlink ref="H255" r:id="rId228" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
+    <hyperlink ref="H256" r:id="rId229" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
+    <hyperlink ref="H257" r:id="rId230" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
+    <hyperlink ref="H258" r:id="rId231" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
+    <hyperlink ref="H259" r:id="rId232" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
+    <hyperlink ref="H260" r:id="rId233" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
+    <hyperlink ref="H261" r:id="rId234" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
+    <hyperlink ref="H157" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H156" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H155" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H154" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H153" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H152" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H128" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C803A0C-DCAE-284C-98F3-5E52D8534C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A5FF0A-176A-3D46-9678-BE0DCD49DC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17520" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$295</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="580">
   <si>
     <t>Entidad</t>
   </si>
@@ -479,21 +479,10 @@
     <t>Mi beca para empezar</t>
   </si>
   <si>
-    <t>Adelanto de $500 pesos en las becas del Programa "Mi Beca para empezar" (sumado a los $300 corrientes) para los alumnos de prescolar a secundaria, que correspondía a la ayuda para uniforme y útiles escolares.</t>
-  </si>
-  <si>
-    <t>Político
-  Expansión</t>
-  </si>
-  <si>
     <t>Oaxaca</t>
   </si>
   <si>
     <t>Decreto por el que se dictan las medidas urgentes necesarias para la conservación de la salubridad pública del Estado. Cuatro medidas para preservar el empleo y la estabilidad económica en la entidad</t>
-  </si>
-  <si>
-    <t>Estímulo fiscal del 50% en el segundo bimestre de 2020 en el Impuesto sobre sobre Erogaciones por Remuneraciones al Trabajo Personal (Impuesto sobre Nóminas) y 100% en recargos y actualizaciones , para empresas cuyos ingresos disminuyeran al menos en 50% en ese mismo periodo. Requisito: Enviar a la Secretaría de Finanzas del Estado, las declaraciones de impuestos federales de marzo y abril correspondientes al 2019 y 2020. 
-  Esta medida se incluye en el Decreto por el que se dictan las medidas urgentes necesarias para la conservación de la salubridad pública del Estado (25 de marzo).</t>
   </si>
   <si>
     <t>Decreto por el que se dictan las medidas urgentes necesarias para la conservación de la salubridad pública del Estado [Decreto]. Periódico Oficial, 25 de marzo de 2020. 
@@ -501,9 +490,6 @@
   </si>
   <si>
     <t>https://www.oaxaca.gob.mx/wp-content/uploads/2020/03/EXT-ACDGOB-2020-03-25.pdf</t>
-  </si>
-  <si>
-    <t>Estímulo fiscal del 100% en el segundo bimestre de 2020 en el Impuesto sobre la Prestación de Servicios de Hospedaje. Requisito: el contribuyente deberá presentar declaración y el sistema otorgará de manera automática el beneficio fiscal. Esta medida se incluye en el Decreto por el que se dictan las medidas urgentes necesarias para la conservación de la salubridad pública del Estado (25 de marzo).</t>
   </si>
   <si>
     <t>Abastecimiento</t>
@@ -1534,15 +1520,9 @@
     <t>Se trabajará en la recuperación de la cafeticultura poblana y se dará un gran impulso comercial a maíces nativos</t>
   </si>
   <si>
-    <t>Sector agropecuario y acuícola</t>
-  </si>
-  <si>
     <t>También habrá financiamiento agropecuario y acuícola</t>
   </si>
   <si>
-    <t>Sector agropecuario</t>
-  </si>
-  <si>
     <t>Programa de uso sustentable del agua en el sector agropecuario</t>
   </si>
   <si>
@@ -1592,9 +1572,6 @@
   </si>
   <si>
     <t>Proseguirá el Programa de Economía Social, para dar continuidad a la estrategia de empresas de alto impacto en las regiones del estado, en especial, la vinculación con las principales cadenas comerciales con presencia en la entidad para su desarrollo como proveedores directos bajo condiciones preferentes.</t>
-  </si>
-  <si>
-    <t>Empresas y productores agropecuarios</t>
   </si>
   <si>
     <t>En la página de la Secretaría de Economía ya operan enlaces para vender productos a través de Amazon, alimentos a domicilio a través de una plataforma en Internet, así como la venta a cadenas comerciales si se es productor agropecuario industrial.</t>
@@ -1818,6 +1795,85 @@
   </si>
   <si>
     <t>15/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de apoyos económicos a más de 4,500 choferes de taxis, camiones y combis para fortalecer los ingresos de sus familias y seguir fomentando la actividad económica en nuestro estado. </t>
+  </si>
+  <si>
+    <t>Comunicación a través de cuenta oficial de Twitter el 18 de Abril, 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MartinOrozcoAgs/status/1251619574300266497</t>
+  </si>
+  <si>
+    <t>Sector transportes</t>
+  </si>
+  <si>
+    <t>@s</t>
+  </si>
+  <si>
+    <t>de escuela pública de preescolar a secundaria. Primer apoyo abril; segundo apoyo en Mayo. ( Total 1,200 millones de pesos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación Oficial de la cuenta de Twitter de Claudia Sheinbaum el 17 de Abril, 2020 </t>
+  </si>
+  <si>
+    <t>https://twitter.com/i/status/1251195861490708480</t>
+  </si>
+  <si>
+    <t>17/4/2020</t>
+  </si>
+  <si>
+    <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. ( Total 500 millones de pesos)</t>
+  </si>
+  <si>
+    <t>Apoyo contingente a 35 mil personas a través del seguro de desempleo de 1500 pesos mensuales por dos meses (105 millones)</t>
+  </si>
+  <si>
+    <t>Apoyo a personas vulnerables como los artesanos indígenas (10 millones)</t>
+  </si>
+  <si>
+    <t>Apoyo a los enfermos de Covid-19 para que ellos y sus familias se queden en casa) con un kit médico y apoyo alimentario (hasta 50 millones apartados. Va aumentando dependiendo de los apoyos)</t>
+  </si>
+  <si>
+    <t>Programa de alcaldías de apoyo a familias vulnerables y micro negocios. Mercomuna.</t>
+  </si>
+  <si>
+    <t>Población Vulnerable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apoyo mensual de 500 adicionales a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#MiBecaParaEmpezar ( un total de entre 800 y 900 pesos dependiendo del nivel educativo) a 1 millón 200 mil niñ</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>os y niñas de escuela pública de preescolar a secundaria. El primer apoyo será en abril, el segundo apoyo será en marzo. (Total, $1,200 MDP)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mensaje del gobernador en su cuenta de Twitter, el 15 de abril del 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MarcoAMena/status/1250510465433772035</t>
+  </si>
+  <si>
+    <t>Elaboración del  "Acuerdo para la Defensa del Empleo y del Sector Productivo", en el cual se darán a conocer medidas económicas y un plan de obra pública para reactivar la economía. (15/4/2020)</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1885,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1906,6 +1962,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1939,10 +2008,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2079,8 +2149,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2297,10 +2374,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2629,7 +2706,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2658,7 +2735,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2687,7 +2764,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2716,7 +2793,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -3478,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>94</v>
@@ -3810,7 +3887,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -3837,7 +3914,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -4281,25 +4358,25 @@
       <c r="D69" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I69" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
@@ -4308,27 +4385,27 @@
         <v>11</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>565</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I70" s="7">
         <v>43915</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>10</v>
@@ -4337,19 +4414,19 @@
         <v>17</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>566</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I71" s="7">
         <v>43915</v>
@@ -4357,28 +4434,28 @@
     </row>
     <row r="72" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I72" s="7">
         <v>43915</v>
@@ -4386,7 +4463,7 @@
     </row>
     <row r="73" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
@@ -4395,19 +4472,19 @@
         <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I73" s="7">
         <v>43919</v>
@@ -4415,7 +4492,7 @@
     </row>
     <row r="74" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -4424,19 +4501,19 @@
         <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I74" s="4">
         <v>43928</v>
@@ -4444,7 +4521,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -4453,19 +4530,19 @@
         <v>74</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I75" s="4">
         <v>43924</v>
@@ -4473,7 +4550,7 @@
     </row>
     <row r="76" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
@@ -4482,19 +4559,19 @@
         <v>35</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I76" s="4">
         <v>43928</v>
@@ -4502,7 +4579,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
@@ -4511,19 +4588,19 @@
         <v>35</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I77" s="4">
         <v>43928</v>
@@ -4531,7 +4608,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
@@ -4540,19 +4617,19 @@
         <v>30</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I78" s="4">
         <v>43928</v>
@@ -4560,28 +4637,28 @@
     </row>
     <row r="79" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I79" s="4">
         <v>43928</v>
@@ -4589,7 +4666,7 @@
     </row>
     <row r="80" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>10</v>
@@ -4598,19 +4675,19 @@
         <v>56</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I80" s="4">
         <v>43928</v>
@@ -4618,7 +4695,7 @@
     </row>
     <row r="81" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
@@ -4627,19 +4704,19 @@
         <v>24</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I81" s="4">
         <v>43928</v>
@@ -4647,7 +4724,7 @@
     </row>
     <row r="82" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
@@ -4656,19 +4733,19 @@
         <v>58</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I82" s="4">
         <v>43928</v>
@@ -4676,28 +4753,28 @@
     </row>
     <row r="83" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I83" s="4">
         <v>43928</v>
@@ -4705,7 +4782,7 @@
     </row>
     <row r="84" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>10</v>
@@ -4714,19 +4791,19 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I84" s="4">
         <v>43928</v>
@@ -4734,7 +4811,7 @@
     </row>
     <row r="85" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
@@ -4744,16 +4821,16 @@
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I85" s="7">
         <v>43914</v>
@@ -4761,7 +4838,7 @@
     </row>
     <row r="86" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
@@ -4771,16 +4848,16 @@
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I86" s="7">
         <v>43914</v>
@@ -4788,7 +4865,7 @@
     </row>
     <row r="87" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
@@ -4798,16 +4875,16 @@
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I87" s="7">
         <v>43914</v>
@@ -4815,7 +4892,7 @@
     </row>
     <row r="88" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -4825,16 +4902,16 @@
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I88" s="7">
         <v>43914</v>
@@ -4842,7 +4919,7 @@
     </row>
     <row r="89" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
@@ -4852,16 +4929,16 @@
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I89" s="7">
         <v>43914</v>
@@ -4869,7 +4946,7 @@
     </row>
     <row r="90" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
@@ -4879,16 +4956,16 @@
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I90" s="7">
         <v>43914</v>
@@ -4896,7 +4973,7 @@
     </row>
     <row r="91" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
@@ -4906,16 +4983,16 @@
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I91" s="4">
         <v>43922</v>
@@ -4923,7 +5000,7 @@
     </row>
     <row r="92" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
@@ -4933,16 +5010,16 @@
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I92" s="4">
         <v>43922</v>
@@ -4950,7 +5027,7 @@
     </row>
     <row r="93" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
@@ -4960,16 +5037,16 @@
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I93" s="4">
         <v>43922</v>
@@ -4977,26 +5054,26 @@
     </row>
     <row r="94" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I94" s="4">
         <v>43922</v>
@@ -5004,26 +5081,26 @@
     </row>
     <row r="95" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I95" s="7">
         <v>43920</v>
@@ -5031,7 +5108,7 @@
     </row>
     <row r="96" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
@@ -5041,16 +5118,16 @@
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I96" s="7">
         <v>43920</v>
@@ -5058,7 +5135,7 @@
     </row>
     <row r="97" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -5068,16 +5145,16 @@
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I97" s="7">
         <v>43920</v>
@@ -5085,7 +5162,7 @@
     </row>
     <row r="98" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -5095,16 +5172,16 @@
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I98" s="7">
         <v>43920</v>
@@ -5112,7 +5189,7 @@
     </row>
     <row r="99" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -5122,16 +5199,16 @@
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I99" s="7">
         <v>43920</v>
@@ -5139,7 +5216,7 @@
     </row>
     <row r="100" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -5149,16 +5226,16 @@
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I100" s="7">
         <v>43916</v>
@@ -5166,26 +5243,26 @@
     </row>
     <row r="101" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="53"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I101" s="7">
         <v>43913</v>
@@ -5193,7 +5270,7 @@
     </row>
     <row r="102" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
@@ -5203,16 +5280,16 @@
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I102" s="7">
         <v>43914</v>
@@ -5220,7 +5297,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -5230,16 +5307,16 @@
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I103" s="4">
         <v>43922</v>
@@ -5247,26 +5324,26 @@
     </row>
     <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I104" s="7">
         <v>43916</v>
@@ -5274,7 +5351,7 @@
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
@@ -5284,16 +5361,16 @@
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I105" s="7">
         <v>43916</v>
@@ -5301,7 +5378,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
@@ -5311,16 +5388,16 @@
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I106" s="7">
         <v>43916</v>
@@ -5328,7 +5405,7 @@
     </row>
     <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5338,16 +5415,16 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I107" s="7">
         <v>43916</v>
@@ -5355,7 +5432,7 @@
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
@@ -5365,16 +5442,16 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I108" s="7">
         <v>43916</v>
@@ -5382,26 +5459,26 @@
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I109" s="7">
         <v>43916</v>
@@ -5409,7 +5486,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
@@ -5419,16 +5496,16 @@
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I110" s="7">
         <v>43916</v>
@@ -5436,7 +5513,7 @@
     </row>
     <row r="111" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
@@ -5446,16 +5523,16 @@
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I111" s="7">
         <v>43920</v>
@@ -5463,7 +5540,7 @@
     </row>
     <row r="112" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
@@ -5473,16 +5550,16 @@
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I112" s="7">
         <v>43920</v>
@@ -5490,7 +5567,7 @@
     </row>
     <row r="113" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
@@ -5500,16 +5577,16 @@
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I113" s="7">
         <v>43920</v>
@@ -5517,7 +5594,7 @@
     </row>
     <row r="114" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>10</v>
@@ -5527,16 +5604,16 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I114" s="7">
         <v>43920</v>
@@ -5544,26 +5621,26 @@
     </row>
     <row r="115" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I115" s="7">
         <v>43920</v>
@@ -5571,7 +5648,7 @@
     </row>
     <row r="116" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
@@ -5581,16 +5658,16 @@
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I116" s="7">
         <v>43920</v>
@@ -5598,7 +5675,7 @@
     </row>
     <row r="117" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
@@ -5607,19 +5684,19 @@
         <v>74</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I117" s="7">
         <v>43920</v>
@@ -5627,28 +5704,28 @@
     </row>
     <row r="118" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I118" s="4">
         <v>43927</v>
@@ -5656,7 +5733,7 @@
     </row>
     <row r="119" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
@@ -5665,19 +5742,19 @@
         <v>70</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I119" s="4">
         <v>43927</v>
@@ -5685,7 +5762,7 @@
     </row>
     <row r="120" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
@@ -5694,19 +5771,19 @@
         <v>11</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I120" s="4">
         <v>43927</v>
@@ -5714,7 +5791,7 @@
     </row>
     <row r="121" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>10</v>
@@ -5723,27 +5800,27 @@
         <v>56</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I121" s="4">
         <v>43927</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
@@ -5752,19 +5829,19 @@
         <v>24</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I122" s="4">
         <v>43927</v>
@@ -5772,7 +5849,7 @@
     </row>
     <row r="123" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B123" s="25" t="s">
         <v>10</v>
@@ -5781,27 +5858,27 @@
         <v>24</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E123" s="46" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I123" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B124" s="25" t="s">
         <v>10</v>
@@ -5810,27 +5887,27 @@
         <v>60</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B125" s="25" t="s">
         <v>10</v>
@@ -5839,56 +5916,56 @@
         <v>60</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B127" s="25" t="s">
         <v>10</v>
@@ -5897,27 +5974,27 @@
         <v>35</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E127" s="46" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
@@ -5926,19 +6003,19 @@
         <v>60</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I128" s="4">
         <v>43927</v>
@@ -5946,28 +6023,28 @@
     </row>
     <row r="129" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I129" s="4">
         <v>43927</v>
@@ -5975,28 +6052,28 @@
     </row>
     <row r="130" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I130" s="4">
         <v>43927</v>
@@ -6004,28 +6081,28 @@
     </row>
     <row r="131" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E131" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I131" s="4">
         <v>43927</v>
@@ -6033,28 +6110,28 @@
     </row>
     <row r="132" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I132" s="4">
         <v>43927</v>
@@ -6062,28 +6139,28 @@
     </row>
     <row r="133" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I133" s="4">
         <v>43927</v>
@@ -6091,7 +6168,7 @@
     </row>
     <row r="134" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>10</v>
@@ -6100,19 +6177,19 @@
         <v>74</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I134" s="4">
         <v>43927</v>
@@ -6120,28 +6197,28 @@
     </row>
     <row r="135" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I135" s="4">
         <v>43927</v>
@@ -6149,7 +6226,7 @@
     </row>
     <row r="136" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
@@ -6158,19 +6235,19 @@
         <v>35</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I136" s="4">
         <v>43927</v>
@@ -6178,7 +6255,7 @@
     </row>
     <row r="137" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
@@ -6187,19 +6264,19 @@
         <v>11</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I137" s="4">
         <v>43927</v>
@@ -6207,7 +6284,7 @@
     </row>
     <row r="138" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>10</v>
@@ -6216,19 +6293,19 @@
         <v>60</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I138" s="4">
         <v>43927</v>
@@ -6236,7 +6313,7 @@
     </row>
     <row r="139" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>10</v>
@@ -6245,19 +6322,19 @@
         <v>60</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I139" s="4">
         <v>43927</v>
@@ -6265,7 +6342,7 @@
     </row>
     <row r="140" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
@@ -6275,16 +6352,16 @@
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I140" s="7">
         <v>43913</v>
@@ -6292,7 +6369,7 @@
     </row>
     <row r="141" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>10</v>
@@ -6302,16 +6379,16 @@
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I141" s="7">
         <v>43913</v>
@@ -6319,7 +6396,7 @@
     </row>
     <row r="142" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>10</v>
@@ -6329,16 +6406,16 @@
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I142" s="7">
         <v>43913</v>
@@ -6346,26 +6423,26 @@
     </row>
     <row r="143" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I143" s="7">
         <v>43913</v>
@@ -6373,26 +6450,26 @@
     </row>
     <row r="144" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I144" s="7">
         <v>43913</v>
@@ -6400,7 +6477,7 @@
     </row>
     <row r="145" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>10</v>
@@ -6410,16 +6487,16 @@
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I145" s="7">
         <v>43913</v>
@@ -6427,28 +6504,28 @@
     </row>
     <row r="146" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I146" s="7">
         <v>43913</v>
@@ -6456,7 +6533,7 @@
     </row>
     <row r="147" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>10</v>
@@ -6465,19 +6542,19 @@
         <v>35</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I147" s="7">
         <v>43913</v>
@@ -6485,7 +6562,7 @@
     </row>
     <row r="148" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>10</v>
@@ -6494,19 +6571,19 @@
         <v>35</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I148" s="7">
         <v>43913</v>
@@ -6514,28 +6591,28 @@
     </row>
     <row r="149" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I149" s="7">
         <v>43913</v>
@@ -6543,7 +6620,7 @@
     </row>
     <row r="150" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>10</v>
@@ -6552,19 +6629,19 @@
         <v>35</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I150" s="7">
         <v>43913</v>
@@ -6572,7 +6649,7 @@
     </row>
     <row r="151" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>10</v>
@@ -6581,19 +6658,19 @@
         <v>42</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I151" s="7">
         <v>43913</v>
@@ -6601,7 +6678,7 @@
     </row>
     <row r="152" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>10</v>
@@ -6610,19 +6687,19 @@
         <v>35</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I152" s="7">
         <v>43920</v>
@@ -6630,7 +6707,7 @@
     </row>
     <row r="153" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>10</v>
@@ -6639,19 +6716,19 @@
         <v>58</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I153" s="7">
         <v>43920</v>
@@ -6659,7 +6736,7 @@
     </row>
     <row r="154" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>10</v>
@@ -6668,19 +6745,19 @@
         <v>24</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I154" s="7">
         <v>43920</v>
@@ -6688,7 +6765,7 @@
     </row>
     <row r="155" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>10</v>
@@ -6697,19 +6774,19 @@
         <v>27</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I155" s="7">
         <v>43920</v>
@@ -6717,7 +6794,7 @@
     </row>
     <row r="156" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>10</v>
@@ -6726,19 +6803,19 @@
         <v>56</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I156" s="7">
         <v>43920</v>
@@ -6746,7 +6823,7 @@
     </row>
     <row r="157" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
@@ -6755,19 +6832,19 @@
         <v>11</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I157" s="7">
         <v>43920</v>
@@ -6775,7 +6852,7 @@
     </row>
     <row r="158" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>10</v>
@@ -6784,19 +6861,19 @@
         <v>11</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I158" s="7">
         <v>43920</v>
@@ -6804,28 +6881,28 @@
     </row>
     <row r="159" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E159" s="21" t="s">
         <v>313</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>317</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I159" s="7">
         <v>43920</v>
@@ -6833,7 +6910,7 @@
     </row>
     <row r="160" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>10</v>
@@ -6842,19 +6919,19 @@
         <v>56</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I160" s="10">
         <v>43919</v>
@@ -6862,7 +6939,7 @@
     </row>
     <row r="161" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>10</v>
@@ -6871,19 +6948,19 @@
         <v>56</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E161" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E161" s="21" t="s">
-        <v>323</v>
-      </c>
       <c r="F161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I161" s="10">
         <v>43919</v>
@@ -6891,7 +6968,7 @@
     </row>
     <row r="162" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>10</v>
@@ -6900,19 +6977,19 @@
         <v>56</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I162" s="10">
         <v>43919</v>
@@ -6920,7 +6997,7 @@
     </row>
     <row r="163" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>10</v>
@@ -6929,19 +7006,19 @@
         <v>56</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I163" s="10">
         <v>43919</v>
@@ -6949,7 +7026,7 @@
     </row>
     <row r="164" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>10</v>
@@ -6958,19 +7035,19 @@
         <v>56</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I164" s="10">
         <v>43919</v>
@@ -6978,7 +7055,7 @@
     </row>
     <row r="165" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>10</v>
@@ -6987,19 +7064,19 @@
         <v>56</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I165" s="4">
         <v>43932</v>
@@ -7007,7 +7084,7 @@
     </row>
     <row r="166" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>10</v>
@@ -7016,19 +7093,19 @@
         <v>11</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I166" s="7">
         <v>43915</v>
@@ -7036,7 +7113,7 @@
     </row>
     <row r="167" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>10</v>
@@ -7045,19 +7122,19 @@
         <v>58</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I167" s="7">
         <v>43915</v>
@@ -7065,28 +7142,28 @@
     </row>
     <row r="168" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="F168" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I168" s="7">
         <v>43915</v>
@@ -7094,7 +7171,7 @@
     </row>
     <row r="169" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>10</v>
@@ -7103,19 +7180,19 @@
         <v>60</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I169" s="7">
         <v>43915</v>
@@ -7123,28 +7200,28 @@
     </row>
     <row r="170" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I170" s="7">
         <v>43915</v>
@@ -7152,28 +7229,28 @@
     </row>
     <row r="171" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I171" s="7">
         <v>43915</v>
@@ -7181,28 +7258,28 @@
     </row>
     <row r="172" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I172" s="7">
         <v>43915</v>
@@ -7210,7 +7287,7 @@
     </row>
     <row r="173" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>10</v>
@@ -7219,19 +7296,19 @@
         <v>149</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I173" s="7">
         <v>43915</v>
@@ -7239,7 +7316,7 @@
     </row>
     <row r="174" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>10</v>
@@ -7248,25 +7325,25 @@
         <v>60</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I174" s="7">
         <v>43915</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>113</v>
       </c>
@@ -7277,25 +7354,25 @@
         <v>88</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I175" s="4">
         <v>43928</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>113</v>
       </c>
@@ -7303,28 +7380,28 @@
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I176" s="4">
         <v>43928</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>113</v>
       </c>
@@ -7332,22 +7409,22 @@
         <v>10</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I177" s="4">
         <v>43928</v>
@@ -7355,28 +7432,28 @@
     </row>
     <row r="178" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I178" s="4">
         <v>43925</v>
@@ -7384,7 +7461,7 @@
     </row>
     <row r="179" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>10</v>
@@ -7393,19 +7470,19 @@
         <v>56</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I179" s="4">
         <v>43925</v>
@@ -7413,7 +7490,7 @@
     </row>
     <row r="180" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>10</v>
@@ -7422,19 +7499,19 @@
         <v>56</v>
       </c>
       <c r="D180" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="F180" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I180" s="4">
         <v>43925</v>
@@ -7442,28 +7519,28 @@
     </row>
     <row r="181" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I181" s="4">
         <v>43925</v>
@@ -7471,7 +7548,7 @@
     </row>
     <row r="182" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>10</v>
@@ -7480,19 +7557,19 @@
         <v>110</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I182" s="4">
         <v>43925</v>
@@ -7500,7 +7577,7 @@
     </row>
     <row r="183" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>10</v>
@@ -7509,19 +7586,19 @@
         <v>35</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I183" s="4">
         <v>43925</v>
@@ -7529,7 +7606,7 @@
     </row>
     <row r="184" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>10</v>
@@ -7538,19 +7615,19 @@
         <v>35</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I184" s="4">
         <v>43925</v>
@@ -7558,7 +7635,7 @@
     </row>
     <row r="185" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>10</v>
@@ -7567,19 +7644,19 @@
         <v>35</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I185" s="4">
         <v>43925</v>
@@ -7587,7 +7664,7 @@
     </row>
     <row r="186" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>10</v>
@@ -7596,19 +7673,19 @@
         <v>24</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I186" s="4">
         <v>43925</v>
@@ -7616,7 +7693,7 @@
     </row>
     <row r="187" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
@@ -7625,19 +7702,19 @@
         <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I187" s="4">
         <v>43925</v>
@@ -7645,7 +7722,7 @@
     </row>
     <row r="188" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>10</v>
@@ -7654,19 +7731,19 @@
         <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I188" s="4">
         <v>43925</v>
@@ -7674,7 +7751,7 @@
     </row>
     <row r="189" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
@@ -7683,19 +7760,19 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I189" s="4">
         <v>43925</v>
@@ -7703,7 +7780,7 @@
     </row>
     <row r="190" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>10</v>
@@ -7712,19 +7789,19 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I190" s="4">
         <v>43925</v>
@@ -7732,7 +7809,7 @@
     </row>
     <row r="191" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>10</v>
@@ -7741,19 +7818,19 @@
         <v>11</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I191" s="4">
         <v>43925</v>
@@ -7761,7 +7838,7 @@
     </row>
     <row r="192" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>10</v>
@@ -7770,19 +7847,19 @@
         <v>11</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I192" s="4">
         <v>43925</v>
@@ -7790,28 +7867,28 @@
     </row>
     <row r="193" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I193" s="4">
         <v>43925</v>
@@ -7819,7 +7896,7 @@
     </row>
     <row r="194" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B194" s="11" t="s">
         <v>10</v>
@@ -7828,19 +7905,19 @@
         <v>11</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I194" s="13">
         <v>43918</v>
@@ -7848,7 +7925,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>10</v>
@@ -7857,19 +7934,19 @@
         <v>60</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I195" s="13">
         <v>43918</v>
@@ -7877,7 +7954,7 @@
     </row>
     <row r="196" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>10</v>
@@ -7886,19 +7963,19 @@
         <v>35</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I196" s="13">
         <v>43918</v>
@@ -7906,7 +7983,7 @@
     </row>
     <row r="197" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>10</v>
@@ -7915,19 +7992,19 @@
         <v>11</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I197" s="13">
         <v>43918</v>
@@ -7935,7 +8012,7 @@
     </row>
     <row r="198" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>10</v>
@@ -7944,19 +8021,19 @@
         <v>17</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H198" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I198" s="13">
         <v>43918</v>
@@ -7964,7 +8041,7 @@
     </row>
     <row r="199" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>10</v>
@@ -7973,19 +8050,19 @@
         <v>11</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I199" s="13">
         <v>43918</v>
@@ -7993,7 +8070,7 @@
     </row>
     <row r="200" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>10</v>
@@ -8002,19 +8079,19 @@
         <v>58</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I200" s="13">
         <v>43918</v>
@@ -8022,7 +8099,7 @@
     </row>
     <row r="201" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>10</v>
@@ -8031,19 +8108,19 @@
         <v>35</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I201" s="13">
         <v>43918</v>
@@ -8051,7 +8128,7 @@
     </row>
     <row r="202" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>10</v>
@@ -8060,19 +8137,19 @@
         <v>24</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I202" s="13">
         <v>43918</v>
@@ -8080,7 +8157,7 @@
     </row>
     <row r="203" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>10</v>
@@ -8089,19 +8166,19 @@
         <v>27</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I203" s="13">
         <v>43918</v>
@@ -8109,7 +8186,7 @@
     </row>
     <row r="204" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
@@ -8118,19 +8195,19 @@
         <v>56</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I204" s="13">
         <v>43918</v>
@@ -8138,7 +8215,7 @@
     </row>
     <row r="205" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>10</v>
@@ -8147,19 +8224,19 @@
         <v>27</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I205" s="4">
         <v>43928</v>
@@ -8167,7 +8244,7 @@
     </row>
     <row r="206" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>10</v>
@@ -8176,19 +8253,19 @@
         <v>58</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E206" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I206" s="4">
         <v>43924</v>
@@ -8196,7 +8273,7 @@
     </row>
     <row r="207" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>10</v>
@@ -8205,19 +8282,19 @@
         <v>56</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E207" s="15" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I207" s="4">
         <v>43927</v>
@@ -8225,7 +8302,7 @@
     </row>
     <row r="208" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>10</v>
@@ -8234,19 +8311,19 @@
         <v>35</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E208" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I208" s="4">
         <v>43923</v>
@@ -8254,7 +8331,7 @@
     </row>
     <row r="209" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>10</v>
@@ -8264,24 +8341,24 @@
       </c>
       <c r="D209" s="11"/>
       <c r="E209" s="12" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>10</v>
@@ -8291,16 +8368,16 @@
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I210" s="4">
         <v>43929</v>
@@ -8308,7 +8385,7 @@
     </row>
     <row r="211" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>10</v>
@@ -8318,16 +8395,16 @@
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I211" s="4">
         <v>43929</v>
@@ -8335,7 +8412,7 @@
     </row>
     <row r="212" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>10</v>
@@ -8345,16 +8422,16 @@
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I212" s="4">
         <v>43929</v>
@@ -8362,7 +8439,7 @@
     </row>
     <row r="213" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>10</v>
@@ -8372,16 +8449,16 @@
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I213" s="4">
         <v>43929</v>
@@ -8389,7 +8466,7 @@
     </row>
     <row r="214" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B214" s="26" t="s">
         <v>10</v>
@@ -8399,16 +8476,16 @@
       </c>
       <c r="D214" s="25"/>
       <c r="E214" s="28" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F214" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G214" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H214" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I214" s="30">
         <v>43929</v>
@@ -8416,26 +8493,26 @@
     </row>
     <row r="215" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B215" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D215" s="32"/>
       <c r="E215" s="28" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F215" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G215" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H215" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I215" s="30">
         <v>43929</v>
@@ -8443,7 +8520,7 @@
     </row>
     <row r="216" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B216" s="26" t="s">
         <v>10</v>
@@ -8453,16 +8530,16 @@
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G216" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H216" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I216" s="30">
         <v>43929</v>
@@ -8470,26 +8547,26 @@
     </row>
     <row r="217" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D217" s="25"/>
       <c r="E217" s="28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F217" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G217" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H217" s="29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I217" s="30">
         <v>43929</v>
@@ -8497,34 +8574,34 @@
     </row>
     <row r="218" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B218" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="28" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F218" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G218" s="26" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H218" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I218" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>10</v>
@@ -8534,24 +8611,24 @@
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F219" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G219" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H219" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I219" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B220" s="26" t="s">
         <v>10</v>
@@ -8561,24 +8638,24 @@
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F220" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G220" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H220" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I220" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B221" s="26" t="s">
         <v>10</v>
@@ -8588,24 +8665,24 @@
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="28" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F221" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H221" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I221" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B222" s="26" t="s">
         <v>10</v>
@@ -8615,24 +8692,24 @@
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F222" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H222" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I222" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B223" s="26" t="s">
         <v>10</v>
@@ -8642,24 +8719,24 @@
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="28" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H223" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I223" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B224" s="26" t="s">
         <v>10</v>
@@ -8669,78 +8746,78 @@
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H224" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I224" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="28" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F225" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I225" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B226" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="35" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F226" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H226" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I226" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B227" s="26" t="s">
         <v>10</v>
@@ -8750,24 +8827,24 @@
       </c>
       <c r="D227" s="25"/>
       <c r="E227" s="35" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F227" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G227" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I227" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="228" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B228" s="26" t="s">
         <v>10</v>
@@ -8776,24 +8853,24 @@
         <v>110</v>
       </c>
       <c r="E228" s="35" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F228" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H228" s="29" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I228" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>10</v>
@@ -8803,16 +8880,16 @@
       </c>
       <c r="D229" s="16"/>
       <c r="E229" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I229" s="4">
         <v>43929</v>
@@ -8820,7 +8897,7 @@
     </row>
     <row r="230" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B230" s="11" t="s">
         <v>10</v>
@@ -8829,19 +8906,19 @@
         <v>88</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I230" s="7">
         <v>43915</v>
@@ -8849,7 +8926,7 @@
     </row>
     <row r="231" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>10</v>
@@ -8858,19 +8935,19 @@
         <v>11</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I231" s="7">
         <v>43915</v>
@@ -8878,7 +8955,7 @@
     </row>
     <row r="232" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>10</v>
@@ -8887,19 +8964,19 @@
         <v>11</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I232" s="7">
         <v>43915</v>
@@ -8907,7 +8984,7 @@
     </row>
     <row r="233" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>10</v>
@@ -8916,19 +8993,19 @@
         <v>88</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E233" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E233" s="17" t="s">
-        <v>422</v>
-      </c>
       <c r="F233" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I233" s="7">
         <v>43915</v>
@@ -8936,7 +9013,7 @@
     </row>
     <row r="234" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>10</v>
@@ -8945,19 +9022,19 @@
         <v>35</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I234" s="7">
         <v>43917</v>
@@ -8965,7 +9042,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>10</v>
@@ -8974,19 +9051,19 @@
         <v>53</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E235" s="17" t="s">
         <v>424</v>
-      </c>
-      <c r="E235" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I235" s="7">
         <v>43917</v>
@@ -8994,28 +9071,28 @@
     </row>
     <row r="236" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I236" s="7">
         <v>43917</v>
@@ -9023,7 +9100,7 @@
     </row>
     <row r="237" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>10</v>
@@ -9032,19 +9109,19 @@
         <v>35</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I237" s="7">
         <v>43917</v>
@@ -9052,7 +9129,7 @@
     </row>
     <row r="238" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B238" s="11" t="s">
         <v>10</v>
@@ -9061,19 +9138,19 @@
         <v>60</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F238" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I238" s="7">
         <v>43917</v>
@@ -9081,7 +9158,7 @@
     </row>
     <row r="239" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>10</v>
@@ -9090,19 +9167,19 @@
         <v>58</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I239" s="7">
         <v>43917</v>
@@ -9110,7 +9187,7 @@
     </row>
     <row r="240" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>10</v>
@@ -9119,19 +9196,19 @@
         <v>58</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I240" s="7">
         <v>43917</v>
@@ -9139,553 +9216,553 @@
     </row>
     <row r="241" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B241" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C241" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="F241" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C241" s="39" t="s">
+      <c r="H241" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="D241" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E241" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="F241" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="H241" s="18" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B242" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E242" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="F242" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C242" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="D242" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E242" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="F242" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="H242" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B243" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C243" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D243" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C243" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D243" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E243" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="F243" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="H243" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B244" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="F244" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C244" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="D244" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E244" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="F244" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="H244" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B245" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C245" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D245" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="F245" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C245" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D245" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E245" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="F245" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="H245" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B246" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D246" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="F246" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C246" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D246" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E246" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="F246" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="H246" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B247" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C247" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D247" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="F247" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="G247" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="C247" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="D247" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="E247" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="F247" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="G247" s="39" t="s">
-        <v>455</v>
-      </c>
       <c r="H247" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F248" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F249" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G249" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F250" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C251" s="39" t="s">
-        <v>473</v>
+        <v>447</v>
+      </c>
+      <c r="C251" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F251" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C252" s="39" t="s">
-        <v>475</v>
+        <v>447</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F252" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F253" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D254" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F255" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G255" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H255" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H255" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G256" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H256" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H256" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G257" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H257" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H257" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G258" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H258" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H258" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C259" s="39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F259" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G259" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H259" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H259" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C260" s="39" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D260" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F260" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G260" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H260" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H260" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="38" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="C261" s="39" t="s">
-        <v>493</v>
+        <v>447</v>
+      </c>
+      <c r="C261" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F261" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G261" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="H261" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="H261" s="18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B262" s="36" t="s">
         <v>10</v>
@@ -9694,27 +9771,27 @@
         <v>88</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F262" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G262" s="36" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H262" s="37" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I262" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B263" s="36" t="s">
         <v>10</v>
@@ -9723,27 +9800,27 @@
         <v>11</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E263" s="42" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F263" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G263" s="36" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H263" s="37" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I263" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B264" s="36" t="s">
         <v>10</v>
@@ -9752,27 +9829,27 @@
         <v>11</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F264" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G264" s="36" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H264" s="37" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I264" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B265" s="36" t="s">
         <v>10</v>
@@ -9781,27 +9858,27 @@
         <v>11</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F265" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G265" s="36" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H265" s="37" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="I265" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B266" s="36" t="s">
         <v>10</v>
@@ -9810,56 +9887,56 @@
         <v>11</v>
       </c>
       <c r="D266" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E266" s="42" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F266" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G266" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H266" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I266" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B267" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D267" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F267" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G267" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H267" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I267" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B268" s="36" t="s">
         <v>10</v>
@@ -9868,27 +9945,27 @@
         <v>35</v>
       </c>
       <c r="D268" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F268" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G268" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H268" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I268" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B269" s="36" t="s">
         <v>10</v>
@@ -9897,27 +9974,27 @@
         <v>35</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F269" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G269" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H269" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I269" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B270" s="36" t="s">
         <v>10</v>
@@ -9926,27 +10003,27 @@
         <v>35</v>
       </c>
       <c r="D270" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F270" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G270" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H270" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I270" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B271" s="36" t="s">
         <v>10</v>
@@ -9955,56 +10032,56 @@
         <v>21</v>
       </c>
       <c r="D271" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E271" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="F271" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="F271" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" s="36" t="s">
-        <v>523</v>
-      </c>
       <c r="H271" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I271" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B272" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C272" s="36" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D272" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E272" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="H272" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="F272" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>524</v>
-      </c>
       <c r="I272" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B273" s="36" t="s">
         <v>10</v>
@@ -10013,27 +10090,27 @@
         <v>21</v>
       </c>
       <c r="D273" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="E273" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="E273" s="42" t="s">
+      <c r="F273" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="H273" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="I273" s="36" t="s">
         <v>518</v>
-      </c>
-      <c r="F273" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="H273" s="37" t="s">
-        <v>524</v>
-      </c>
-      <c r="I273" s="36" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B274" s="36" t="s">
         <v>10</v>
@@ -10042,27 +10119,27 @@
         <v>60</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E274" s="42" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F274" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G274" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H274" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I274" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B275" s="36" t="s">
         <v>10</v>
@@ -10071,27 +10148,27 @@
         <v>35</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E275" s="42" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F275" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G275" s="36" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H275" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="I275" s="36" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B276" s="36" t="s">
         <v>10</v>
@@ -10100,27 +10177,27 @@
         <v>58</v>
       </c>
       <c r="D276" s="44" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E276" s="42" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F276" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G276" s="36" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H276" s="37" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B277" s="36" t="s">
         <v>10</v>
@@ -10130,16 +10207,16 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="42" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F277" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G277" s="36" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="H277" s="37" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="I277" s="45">
         <v>44078</v>
@@ -10147,7 +10224,7 @@
     </row>
     <row r="278" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B278" s="36" t="s">
         <v>10</v>
@@ -10157,80 +10234,80 @@
       </c>
       <c r="D278"/>
       <c r="E278" s="42" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F278" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G278" s="36" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H278" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="I278" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B279" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="42" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F279" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G279" s="36" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H279" s="37" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I279" s="43" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="280" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B280" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E280" s="46" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F280" s="47" t="s">
         <v>14</v>
       </c>
       <c r="G280" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H280" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I280" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B281" s="25" t="s">
         <v>10</v>
@@ -10239,27 +10316,27 @@
         <v>11</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E281" s="49" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F281" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G281" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H281" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I281" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B282" s="25" t="s">
         <v>10</v>
@@ -10268,27 +10345,27 @@
         <v>11</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E282" s="49" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F282" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G282" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H282" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I282" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B283" s="25" t="s">
         <v>10</v>
@@ -10297,27 +10374,27 @@
         <v>11</v>
       </c>
       <c r="D283" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E283" s="49" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G283" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H283" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B284" s="25" t="s">
         <v>10</v>
@@ -10326,85 +10403,85 @@
         <v>11</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E284" s="49" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G284" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H284" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B285" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E285" s="49" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G285" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H285" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B286" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E286" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="F286" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" s="47" t="s">
         <v>551</v>
       </c>
-      <c r="F286" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G286" s="47" t="s">
-        <v>558</v>
-      </c>
       <c r="H286" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I286" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B287" s="25" t="s">
         <v>10</v>
@@ -10413,87 +10490,251 @@
         <v>88</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F287" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G287" s="47" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H287" s="31" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I287" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B288" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E288" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="F288" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G288" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="H288" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="F288" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G288" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="H288" s="31" t="s">
-        <v>560</v>
-      </c>
       <c r="I288" s="30" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="50" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B289" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C289" s="50" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D289" s="50" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E289" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="F289" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="H289" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="I289" s="43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="B290" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="52" t="s">
         <v>564</v>
       </c>
-      <c r="F289" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G289" s="50" t="s">
-        <v>565</v>
-      </c>
-      <c r="H289" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="I289" s="43" t="s">
+      <c r="E290" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="F290" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="H290" s="53" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B291" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E291" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="F291" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" s="52" t="s">
         <v>567</v>
       </c>
+      <c r="H291" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B292" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E292" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="F292" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="H292" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B293" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="E293" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="F293" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G293" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B294" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E294" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="F294" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G294" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B295" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="E295" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="F295" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G295" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B296" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="E296" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="F296" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G296" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="H296" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="I296" s="43" t="s">
+        <v>560</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I289" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I295" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Jalisco"/>
+        <filter val="Tlaxcala"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10567,181 +10808,182 @@
     <hyperlink ref="H66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="H67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="H68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="H92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="H94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="H103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="H110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="H113" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="H114" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H115" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="H116" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="H117" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H118" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H119" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="H120" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="H121" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="H122" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H129" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="H130" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="H131" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="H132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="H133" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="H134" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="H135" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="H136" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="H137" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="H138" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="H139" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="H140" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="H141" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="H142" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="H143" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="H144" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="H145" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H146" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="H147" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H148" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H149" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H150" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H151" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H158" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="H159" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="H160" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="H161" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="H162" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="H163" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="H164" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="H165" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="H166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="H167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="H168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="H169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="H170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="H171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="H172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="H174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="H175" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H176" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="H177" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="H178" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="H179" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="H180" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="H181" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="H182" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="H183" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="H184" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="H185" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="H186" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="H187" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="H188" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H189" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="H190" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="H191" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="H192" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="H193" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="H194" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="H195" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="H196" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="H197" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="H198" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="H199" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="H200" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="H201" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="H202" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="H203" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="H204" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="H205" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E206" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="H206" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H207" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="H208" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="H210" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="H211" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H212" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="H213" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H214" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="H215" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="H216" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H217" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H229" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="H230" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H231" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="H232" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="H233" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="H234" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="H235" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="H236" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="H237" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="H238" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H239" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="H240" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="H241" r:id="rId214" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
-    <hyperlink ref="H242" r:id="rId215" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
-    <hyperlink ref="H243" r:id="rId216" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
-    <hyperlink ref="H244" r:id="rId217" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
-    <hyperlink ref="H245" r:id="rId218" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
-    <hyperlink ref="H246" r:id="rId219" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
-    <hyperlink ref="H247" r:id="rId220" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
-    <hyperlink ref="H248" r:id="rId221" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
-    <hyperlink ref="H249" r:id="rId222" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
-    <hyperlink ref="H250" r:id="rId223" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
-    <hyperlink ref="H251" r:id="rId224" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
-    <hyperlink ref="H252" r:id="rId225" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
-    <hyperlink ref="H253" r:id="rId226" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
-    <hyperlink ref="H254" r:id="rId227" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
-    <hyperlink ref="H255" r:id="rId228" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
-    <hyperlink ref="H256" r:id="rId229" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
-    <hyperlink ref="H257" r:id="rId230" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
-    <hyperlink ref="H258" r:id="rId231" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
-    <hyperlink ref="H259" r:id="rId232" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
-    <hyperlink ref="H260" r:id="rId233" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
-    <hyperlink ref="H261" r:id="rId234" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
-    <hyperlink ref="H157" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="H156" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H155" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H154" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H153" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H152" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H128" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="H70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H75" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H77" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H78" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H79" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H80" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H81" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H82" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H83" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H84" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H85" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H86" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H87" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="H88" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H89" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H90" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="H91" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="H92" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H93" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="H94" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H95" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H96" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H97" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H98" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H99" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="H100" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="H101" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H102" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="H103" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H104" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H105" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="H106" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="H107" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H108" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="H109" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H110" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H111" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="H113" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="H114" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H115" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="H116" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="H117" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H118" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="H119" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="H120" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H121" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="H122" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="H131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H137" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H138" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H139" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H140" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H141" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="H142" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="H143" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="H144" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H145" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H146" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H147" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H148" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H149" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H150" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H151" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H158" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="H159" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="H160" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H161" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="H162" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="H163" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="H164" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H165" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="H166" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="H167" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="H168" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="H169" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="H170" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="H171" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="H172" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H173" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="H174" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="H175" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="H176" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="H177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="H178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="H179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="H180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="H181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="H184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="H185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="H186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="H187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="H188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="H190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="H192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="H194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="H197" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="H198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="H199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="H200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="H201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="H202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="H203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="H204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="H205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="H206" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H207" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="H208" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="H210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H212" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H213" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H214" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H215" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H216" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H217" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H229" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H230" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H231" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H232" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H233" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H234" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H235" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H236" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H237" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H238" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H239" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H240" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H241" r:id="rId213" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
+    <hyperlink ref="H242" r:id="rId214" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
+    <hyperlink ref="H243" r:id="rId215" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
+    <hyperlink ref="H244" r:id="rId216" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
+    <hyperlink ref="H245" r:id="rId217" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
+    <hyperlink ref="H246" r:id="rId218" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
+    <hyperlink ref="H247" r:id="rId219" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
+    <hyperlink ref="H248" r:id="rId220" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
+    <hyperlink ref="H249" r:id="rId221" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
+    <hyperlink ref="H250" r:id="rId222" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
+    <hyperlink ref="H251" r:id="rId223" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
+    <hyperlink ref="H252" r:id="rId224" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
+    <hyperlink ref="H253" r:id="rId225" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
+    <hyperlink ref="H254" r:id="rId226" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
+    <hyperlink ref="H255" r:id="rId227" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
+    <hyperlink ref="H256" r:id="rId228" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
+    <hyperlink ref="H257" r:id="rId229" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
+    <hyperlink ref="H258" r:id="rId230" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
+    <hyperlink ref="H259" r:id="rId231" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
+    <hyperlink ref="H260" r:id="rId232" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
+    <hyperlink ref="H261" r:id="rId233" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
+    <hyperlink ref="H157" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H156" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H155" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H154" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H153" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H152" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H128" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E69" r:id="rId241" display="https://twitter.com/hashtag/MiBecaParaEmoezar?src=hashtag_click" xr:uid="{E4C03695-50A6-3C4B-8EE4-656CCD3761A1}"/>
+    <hyperlink ref="E70" r:id="rId242" display="https://twitter.com/s" xr:uid="{0038EB1C-31CD-884B-B646-5CDC2AF8E9F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A5FF0A-176A-3D46-9678-BE0DCD49DC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C59201-4E07-4542-ADD2-EF3CBA9616FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$296</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1822,9 +1822,6 @@
   </si>
   <si>
     <t>17/4/2020</t>
-  </si>
-  <si>
-    <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. ( Total 500 millones de pesos)</t>
   </si>
   <si>
     <t>Apoyo contingente a 35 mil personas a través del seguro de desempleo de 1500 pesos mensuales por dos meses (105 millones)</t>
@@ -1874,6 +1871,9 @@
   </si>
   <si>
     <t>Elaboración del  "Acuerdo para la Defensa del Empleo y del Sector Productivo", en el cual se darán a conocer medidas económicas y un plan de obra pública para reactivar la economía. (15/4/2020)</t>
+  </si>
+  <si>
+    <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. (Total 500 millones de pesos). Para acceder a estos préstamos, los interesados deberán acudir a la oficina de la alcaldía y localizar el módulo correspondiente al programa, donde deberán entregar identificación oficial vigente con fotografía, constancia de la CURP, comprobante de domicilio vigente de la Ciudad de México, comprobante de capacitación con vigencia máxima de un año y solicitud de crédito.</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2376,8 @@
   </sheetPr>
   <dimension ref="A1:I296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E296" sqref="E296"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3887,7 +3887,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>150</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
@@ -7343,7 +7343,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>113</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>113</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>113</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="52" t="s">
         <v>145</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>35</v>
       </c>
       <c r="E291" s="52" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="F291" s="52" t="s">
         <v>14</v>
@@ -10612,7 +10612,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="52" t="s">
         <v>145</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>230</v>
       </c>
       <c r="E292" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F292" s="52" t="s">
         <v>14</v>
@@ -10635,7 +10635,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="52" t="s">
         <v>145</v>
       </c>
@@ -10643,10 +10643,10 @@
         <v>10</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E293" s="52" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F293" s="52" t="s">
         <v>14</v>
@@ -10658,7 +10658,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="52" t="s">
         <v>145</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>56</v>
       </c>
       <c r="E294" s="52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F294" s="52" t="s">
         <v>14</v>
@@ -10681,7 +10681,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="52" t="s">
         <v>145</v>
       </c>
@@ -10689,10 +10689,10 @@
         <v>10</v>
       </c>
       <c r="C295" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E295" s="52" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F295" s="52" t="s">
         <v>14</v>
@@ -10704,7 +10704,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="52" t="s">
         <v>113</v>
       </c>
@@ -10715,26 +10715,26 @@
         <v>446</v>
       </c>
       <c r="E296" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F296" s="52" t="s">
         <v>23</v>
       </c>
       <c r="G296" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="H296" s="53" t="s">
         <v>577</v>
-      </c>
-      <c r="H296" s="53" t="s">
-        <v>578</v>
       </c>
       <c r="I296" s="43" t="s">
         <v>560</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I295" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I296" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Tlaxcala"/>
+        <filter val="Ciudad de México"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C59201-4E07-4542-ADD2-EF3CBA9616FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C29D9-C2BB-FF42-A7BA-6577BDFAD06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$300</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="598">
   <si>
     <t>Entidad</t>
   </si>
@@ -1874,6 +1874,60 @@
   </si>
   <si>
     <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. (Total 500 millones de pesos). Para acceder a estos préstamos, los interesados deberán acudir a la oficina de la alcaldía y localizar el módulo correspondiente al programa, donde deberán entregar identificación oficial vigente con fotografía, constancia de la CURP, comprobante de domicilio vigente de la Ciudad de México, comprobante de capacitación con vigencia máxima de un año y solicitud de crédito.</t>
+  </si>
+  <si>
+    <t>Plan de Austeridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de austeridad: Ahorros de 600 MDP procedentes de 1) Restricción en los gastos de operación tales como: viáticos, papelería, eventos ceremoniales, gasolina y gastos de representación. 2) Restricción de contratación de nuevo personal, excepto en plazas para las labores de salud, seguridad y educación. 3) Se postergan los proyectos no prioritarios, sin que éstos tengan un impacto en los servicios esenciales de atención a la ciudadanía. 4) Eliminación de nuevos proyectos que están en preparación para su posterior realización. 5) Economías generadas en los procesos de adquisiciones que realiza el gobierno. </t>
+  </si>
+  <si>
+    <t>Comunicación oficial de la cuenta de Twitter del Gobernador Diego Sinhue Rodríguez Vallejo el 20 de abril del 2020</t>
+  </si>
+  <si>
+    <t>20/4/2020</t>
+  </si>
+  <si>
+    <t>Plan alimentario para Proteger a los mas Vulnerables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de apoyos alimentarios "gignos y suficientes" a quienes más lo necesiten a través de las instituciones estatales de seguridad, bajo el mando de la Policía Michoacán. Las familias los recibirán directamente en sus domicilios, beneficiando a personas enfermas diagnosticadas de COVID-19 y a grupos vulnerables, tales como adultos mayores, mujeres embaradas y lactantes, personas con discapacidad o con enfermedades crónico-degenerativas o que por su condición laboral hayan perdido sus ingresos, como meseros, choferes sin concesión, cocineras, jardineros, zapateros, músicos, ayudantes, etc. El apoyo se puede solicitar vía telefónica, por internet y en los centros integrales de servicios. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/Silvano_A/status/1252301658693959686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensaje del Gobernador el 20 de abril del 2020. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de despensas a población vulnerable, con mercancía comprada a comerciantes locales del mercado de Cuernavaca. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/cuauhtemocb10/status/1247970461276831749</t>
+  </si>
+  <si>
+    <t>Comunicación oficial del Gobernador Cuauhtemoc Blanco, el 8 de abril del 2020. Esta entrega se realizó a partir del 18 de abril del 2020.</t>
+  </si>
+  <si>
+    <t>Donación de parte del sueldo de los trabajadores del Estado de Chiapas para llevar alimento a los más vulnerables durante la contingencia</t>
+  </si>
+  <si>
+    <t>Anuncio del gobernador en Twitter el 19 de abril del 2020.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RutilioEscandon/status/1251898216561496065</t>
+  </si>
+  <si>
+    <t>19/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo de 300 MDP para el otorgamiento de créditos accesibles con tasas de interés mínimas para micro, pequeñas y medianas empresas. </t>
+  </si>
+  <si>
+    <t>https://www.tamaulipas.gob.mx/2020/04/gobierno-y-empresarios-de-tamaulipas-buscan-proteger-empleo-y-economia-familiar-ante-covid-19/</t>
+  </si>
+  <si>
+    <t>Gobierno y empresarios de Tamaulipas buscan proteger empleo y economía familiar ante Covid-19</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2151,6 +2205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2374,10 +2432,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E299" sqref="E299"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4318,7 +4376,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -4345,7 +4403,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
@@ -5248,10 +5306,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C101" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="57"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="2" t="s">
         <v>213</v>
       </c>
@@ -5295,7 +5353,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
@@ -5322,7 +5380,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>219</v>
       </c>
@@ -5349,7 +5407,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>219</v>
       </c>
@@ -5376,7 +5434,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>219</v>
       </c>
@@ -5403,7 +5461,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>219</v>
       </c>
@@ -5430,7 +5488,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5457,7 +5515,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>219</v>
       </c>
@@ -5484,7 +5542,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -10589,7 +10647,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="52" t="s">
         <v>145</v>
       </c>
@@ -10612,7 +10670,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="52" t="s">
         <v>145</v>
       </c>
@@ -10635,7 +10693,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="52" t="s">
         <v>145</v>
       </c>
@@ -10658,7 +10716,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="52" t="s">
         <v>145</v>
       </c>
@@ -10681,7 +10739,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="52" t="s">
         <v>145</v>
       </c>
@@ -10730,11 +10788,144 @@
         <v>560</v>
       </c>
     </row>
+    <row r="297" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B297" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C297" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="D297" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="F297" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="56" t="s">
+        <v>582</v>
+      </c>
+      <c r="I297" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B298" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E298" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="F298" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="H298" s="57" t="s">
+        <v>586</v>
+      </c>
+      <c r="I298" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B299" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E299" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="F299" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="H299" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="I299" s="45">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300" t="s">
+        <v>446</v>
+      </c>
+      <c r="E300" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
+        <v>592</v>
+      </c>
+      <c r="H300" s="57" t="s">
+        <v>593</v>
+      </c>
+      <c r="I300" s="57" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B301" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E301" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="F301" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G301" s="56" t="s">
+        <v>597</v>
+      </c>
+      <c r="H301" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="I301" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I296" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I300" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Ciudad de México"/>
+        <filter val="Tamaulipas"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10984,6 +11175,7 @@
     <hyperlink ref="H128" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="E69" r:id="rId241" display="https://twitter.com/hashtag/MiBecaParaEmoezar?src=hashtag_click" xr:uid="{E4C03695-50A6-3C4B-8EE4-656CCD3761A1}"/>
     <hyperlink ref="E70" r:id="rId242" display="https://twitter.com/s" xr:uid="{0038EB1C-31CD-884B-B646-5CDC2AF8E9F8}"/>
+    <hyperlink ref="H301" r:id="rId243" xr:uid="{19F6246B-E4FC-7A46-8596-F38ECF542546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C29D9-C2BB-FF42-A7BA-6577BDFAD06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE30E9C-7163-0745-B03F-80B27CFE8698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$307</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="608">
   <si>
     <t>Entidad</t>
   </si>
@@ -1870,9 +1870,6 @@
     <t>https://twitter.com/MarcoAMena/status/1250510465433772035</t>
   </si>
   <si>
-    <t>Elaboración del  "Acuerdo para la Defensa del Empleo y del Sector Productivo", en el cual se darán a conocer medidas económicas y un plan de obra pública para reactivar la economía. (15/4/2020)</t>
-  </si>
-  <si>
     <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. (Total 500 millones de pesos). Para acceder a estos préstamos, los interesados deberán acudir a la oficina de la alcaldía y localizar el módulo correspondiente al programa, donde deberán entregar identificación oficial vigente con fotografía, constancia de la CURP, comprobante de domicilio vigente de la Ciudad de México, comprobante de capacitación con vigencia máxima de un año y solicitud de crédito.</t>
   </si>
   <si>
@@ -1928,6 +1925,39 @@
   </si>
   <si>
     <t>Gobierno y empresarios de Tamaulipas buscan proteger empleo y economía familiar ante Covid-19</t>
+  </si>
+  <si>
+    <t>Acuerdo para la Defensa del Empleo y del Sector Productivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo de 50 MDP para la protección del empleo y del ingreso a MIPYMES. Por parte del Fondo Macro para el Desarrollo Integral de Tlaxcala (FOMTLAX), se otorgarán créditos de hasta 50,000 pesos, y para los créditos actualmente abiertos, se pospondrán los pagos de adeudos existentes hasta el mes de marzo. </t>
+  </si>
+  <si>
+    <t>Creación de un fondo de 10 MDP de apoyo emergente al sector turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de un fondo del gobierno del gobierno de Tlaxcala con NAFIN para negocios y comercios de  hasta 200 MDP para créditos en bancos con garantía de NAFIN. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciativa de la Ley Estatal de Mejora Regulatoria para reducir tiempos y costos a las empresas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampliación de dictámenes de protección civil a dos años, en vez de uno, para empresas que no manejen resíduos peligrosos, para que reduzcan costos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboración del  "Acuerdo para la Defensa del Empleo y del Sector Productivo", en el cual se darán a conocer medidas económicas y un plan de obra pública para reactivar la economía. (15/4/2020). Difundido el 22 de abril, y contando con un presupuesto de 275 millones de pesos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicar el apoyo de paquetes de aves de traspatio para pasar de 12,000 a 25,000 familias beneficiadas, con un presupuesto de 25 MDP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLAXCALA. 275 millones de pesos para respaldar el empleo y sectores productivos. Programa Emergente de Apoyo a la Economía Estatal. Comuncación oficial del gobernador de Tlaxcala, el 22 de abril del 2020. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/MarcoAMena/status/1252766107879870464</t>
+  </si>
+  <si>
+    <t>22/4/2020</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2205,6 +2235,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2432,10 +2470,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="E176" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F307" sqref="F307:I307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3945,7 +3983,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -3956,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3972,7 +4010,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -3983,7 +4021,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="21" t="s">
         <v>117</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -5306,10 +5344,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="59"/>
+      <c r="D101" s="63"/>
       <c r="E101" s="2" t="s">
         <v>213</v>
       </c>
@@ -5353,7 +5391,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>219</v>
       </c>
@@ -5380,7 +5418,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>219</v>
       </c>
@@ -5407,7 +5445,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>219</v>
       </c>
@@ -5434,7 +5472,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>219</v>
       </c>
@@ -5461,7 +5499,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>219</v>
       </c>
@@ -5488,7 +5526,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>219</v>
       </c>
@@ -5515,7 +5553,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>219</v>
       </c>
@@ -5542,7 +5580,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -7401,7 +7439,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>113</v>
       </c>
@@ -7414,7 +7452,7 @@
       <c r="D175" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="21" t="s">
         <v>341</v>
       </c>
       <c r="F175" s="1" t="s">
@@ -7430,7 +7468,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>113</v>
       </c>
@@ -7443,7 +7481,7 @@
       <c r="D176" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="21" t="s">
         <v>344</v>
       </c>
       <c r="F176" s="1" t="s">
@@ -7459,7 +7497,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>113</v>
       </c>
@@ -7472,7 +7510,7 @@
       <c r="D177" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="21" t="s">
         <v>346</v>
       </c>
       <c r="F177" s="1" t="s">
@@ -10658,7 +10696,7 @@
         <v>35</v>
       </c>
       <c r="E291" s="52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F291" s="52" t="s">
         <v>14</v>
@@ -10762,7 +10800,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="52" t="s">
         <v>113</v>
       </c>
@@ -10772,8 +10810,11 @@
       <c r="C296" s="52" t="s">
         <v>446</v>
       </c>
+      <c r="D296" s="23" t="s">
+        <v>597</v>
+      </c>
       <c r="E296" s="42" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="F296" s="52" t="s">
         <v>23</v>
@@ -10799,19 +10840,19 @@
         <v>446</v>
       </c>
       <c r="D297" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E297" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="E297" s="23" t="s">
+      <c r="F297" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="56" t="s">
         <v>581</v>
       </c>
-      <c r="F297" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" s="56" t="s">
+      <c r="I297" t="s">
         <v>582</v>
-      </c>
-      <c r="I297" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10825,22 +10866,22 @@
         <v>56</v>
       </c>
       <c r="D298" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E298" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="E298" s="23" t="s">
+      <c r="F298" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="H298" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="F298" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" s="56" t="s">
-        <v>587</v>
-      </c>
-      <c r="H298" s="57" t="s">
-        <v>586</v>
-      </c>
       <c r="I298" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10854,16 +10895,16 @@
         <v>56</v>
       </c>
       <c r="E299" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="F299" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="H299" s="57" t="s">
         <v>588</v>
-      </c>
-      <c r="F299" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" s="56" t="s">
-        <v>590</v>
-      </c>
-      <c r="H299" s="57" t="s">
-        <v>589</v>
       </c>
       <c r="I299" s="45">
         <v>44047</v>
@@ -10880,22 +10921,22 @@
         <v>446</v>
       </c>
       <c r="E300" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
         <v>591</v>
       </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="H300" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="H300" s="57" t="s">
+      <c r="I300" s="57" t="s">
         <v>593</v>
       </c>
-      <c r="I300" s="57" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="56" t="s">
         <v>219</v>
       </c>
@@ -10906,26 +10947,200 @@
         <v>35</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F301" s="56" t="s">
         <v>23</v>
       </c>
       <c r="G301" s="56" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H301" s="55" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I301" t="s">
         <v>493</v>
       </c>
     </row>
+    <row r="302" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B302" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E302" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="F302" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G302" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="H302" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="I302" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B303" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E303" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="F303" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="H303" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="I303" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B304" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D304" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E304" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="F304" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G304" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="H304" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="I304" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B305" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E305" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="F305" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="H305" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="I305" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B306" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D306" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E306" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="F306" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G306" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="H306" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="I306" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B307" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D307" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E307" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="F307" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G307" s="60" t="s">
+        <v>605</v>
+      </c>
+      <c r="H307" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="I307" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I300" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I307" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Tamaulipas"/>
+        <filter val="Tlaxcala"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE30E9C-7163-0745-B03F-80B27CFE8698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A9BFD4-8104-6D4B-AE0B-2D9723B3BC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$313</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="631">
   <si>
     <t>Entidad</t>
   </si>
@@ -1839,6 +1839,102 @@
     <t>Población Vulnerable</t>
   </si>
   <si>
+    <t>Mensaje del gobernador en su cuenta de Twitter, el 15 de abril del 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MarcoAMena/status/1250510465433772035</t>
+  </si>
+  <si>
+    <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. (Total 500 millones de pesos). Para acceder a estos préstamos, los interesados deberán acudir a la oficina de la alcaldía y localizar el módulo correspondiente al programa, donde deberán entregar identificación oficial vigente con fotografía, constancia de la CURP, comprobante de domicilio vigente de la Ciudad de México, comprobante de capacitación con vigencia máxima de un año y solicitud de crédito.</t>
+  </si>
+  <si>
+    <t>Plan de Austeridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan de austeridad: Ahorros de 600 MDP procedentes de 1) Restricción en los gastos de operación tales como: viáticos, papelería, eventos ceremoniales, gasolina y gastos de representación. 2) Restricción de contratación de nuevo personal, excepto en plazas para las labores de salud, seguridad y educación. 3) Se postergan los proyectos no prioritarios, sin que éstos tengan un impacto en los servicios esenciales de atención a la ciudadanía. 4) Eliminación de nuevos proyectos que están en preparación para su posterior realización. 5) Economías generadas en los procesos de adquisiciones que realiza el gobierno. </t>
+  </si>
+  <si>
+    <t>Comunicación oficial de la cuenta de Twitter del Gobernador Diego Sinhue Rodríguez Vallejo el 20 de abril del 2020</t>
+  </si>
+  <si>
+    <t>20/4/2020</t>
+  </si>
+  <si>
+    <t>Plan alimentario para Proteger a los mas Vulnerables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de apoyos alimentarios "gignos y suficientes" a quienes más lo necesiten a través de las instituciones estatales de seguridad, bajo el mando de la Policía Michoacán. Las familias los recibirán directamente en sus domicilios, beneficiando a personas enfermas diagnosticadas de COVID-19 y a grupos vulnerables, tales como adultos mayores, mujeres embaradas y lactantes, personas con discapacidad o con enfermedades crónico-degenerativas o que por su condición laboral hayan perdido sus ingresos, como meseros, choferes sin concesión, cocineras, jardineros, zapateros, músicos, ayudantes, etc. El apoyo se puede solicitar vía telefónica, por internet y en los centros integrales de servicios. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/Silvano_A/status/1252301658693959686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensaje del Gobernador el 20 de abril del 2020. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de despensas a población vulnerable, con mercancía comprada a comerciantes locales del mercado de Cuernavaca. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/cuauhtemocb10/status/1247970461276831749</t>
+  </si>
+  <si>
+    <t>Comunicación oficial del Gobernador Cuauhtemoc Blanco, el 8 de abril del 2020. Esta entrega se realizó a partir del 18 de abril del 2020.</t>
+  </si>
+  <si>
+    <t>Donación de parte del sueldo de los trabajadores del Estado de Chiapas para llevar alimento a los más vulnerables durante la contingencia</t>
+  </si>
+  <si>
+    <t>Anuncio del gobernador en Twitter el 19 de abril del 2020.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RutilioEscandon/status/1251898216561496065</t>
+  </si>
+  <si>
+    <t>19/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo de 300 MDP para el otorgamiento de créditos accesibles con tasas de interés mínimas para micro, pequeñas y medianas empresas. </t>
+  </si>
+  <si>
+    <t>https://www.tamaulipas.gob.mx/2020/04/gobierno-y-empresarios-de-tamaulipas-buscan-proteger-empleo-y-economia-familiar-ante-covid-19/</t>
+  </si>
+  <si>
+    <t>Gobierno y empresarios de Tamaulipas buscan proteger empleo y economía familiar ante Covid-19</t>
+  </si>
+  <si>
+    <t>Acuerdo para la Defensa del Empleo y del Sector Productivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo de 50 MDP para la protección del empleo y del ingreso a MIPYMES. Por parte del Fondo Macro para el Desarrollo Integral de Tlaxcala (FOMTLAX), se otorgarán créditos de hasta 50,000 pesos, y para los créditos actualmente abiertos, se pospondrán los pagos de adeudos existentes hasta el mes de marzo. </t>
+  </si>
+  <si>
+    <t>Creación de un fondo de 10 MDP de apoyo emergente al sector turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de un fondo del gobierno del gobierno de Tlaxcala con NAFIN para negocios y comercios de  hasta 200 MDP para créditos en bancos con garantía de NAFIN. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciativa de la Ley Estatal de Mejora Regulatoria para reducir tiempos y costos a las empresas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampliación de dictámenes de protección civil a dos años, en vez de uno, para empresas que no manejen resíduos peligrosos, para que reduzcan costos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboración del  "Acuerdo para la Defensa del Empleo y del Sector Productivo", en el cual se darán a conocer medidas económicas y un plan de obra pública para reactivar la economía. (15/4/2020). Difundido el 22 de abril, y contando con un presupuesto de 275 millones de pesos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicar el apoyo de paquetes de aves de traspatio para pasar de 12,000 a 25,000 familias beneficiadas, con un presupuesto de 25 MDP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLAXCALA. 275 millones de pesos para respaldar el empleo y sectores productivos. Programa Emergente de Apoyo a la Economía Estatal. Comuncación oficial del gobernador de Tlaxcala, el 22 de abril del 2020. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/MarcoAMena/status/1252766107879870464</t>
+  </si>
+  <si>
+    <t>22/4/2020</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Apoyo mensual de 500 adicionales a </t>
     </r>
@@ -1850,114 +1946,77 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>#MiBecaParaEmpezar ( un total de entre 800 y 900 pesos dependiendo del nivel educativo) a 1 millón 200 mil niñ</t>
+      <t>#MiBecaParaEmpezar (un total de entre 800 y 900 pesos dependiendo del nivel educativo) a 1 millón 200 mil niños y niñas de escuela pública de preescolar a secundaria. El primer apoyo será en abril, el segundo apoyo será en marzo. (Total, $1,200 MDP)</t>
     </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>os y niñas de escuela pública de preescolar a secundaria. El primer apoyo será en abril, el segundo apoyo será en marzo. (Total, $1,200 MDP)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mensaje del gobernador en su cuenta de Twitter, el 15 de abril del 2020</t>
-  </si>
-  <si>
-    <t>https://twitter.com/MarcoAMena/status/1250510465433772035</t>
-  </si>
-  <si>
-    <t>Entrega de 50 mil créditos de 10 mil pesos a micro empresas. 0% de interés, primer pago en el quinto mes, a pagar en 2 años. (Total 500 millones de pesos). Para acceder a estos préstamos, los interesados deberán acudir a la oficina de la alcaldía y localizar el módulo correspondiente al programa, donde deberán entregar identificación oficial vigente con fotografía, constancia de la CURP, comprobante de domicilio vigente de la Ciudad de México, comprobante de capacitación con vigencia máxima de un año y solicitud de crédito.</t>
-  </si>
-  <si>
-    <t>Plan de Austeridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan de austeridad: Ahorros de 600 MDP procedentes de 1) Restricción en los gastos de operación tales como: viáticos, papelería, eventos ceremoniales, gasolina y gastos de representación. 2) Restricción de contratación de nuevo personal, excepto en plazas para las labores de salud, seguridad y educación. 3) Se postergan los proyectos no prioritarios, sin que éstos tengan un impacto en los servicios esenciales de atención a la ciudadanía. 4) Eliminación de nuevos proyectos que están en preparación para su posterior realización. 5) Economías generadas en los procesos de adquisiciones que realiza el gobierno. </t>
-  </si>
-  <si>
-    <t>Comunicación oficial de la cuenta de Twitter del Gobernador Diego Sinhue Rodríguez Vallejo el 20 de abril del 2020</t>
-  </si>
-  <si>
-    <t>20/4/2020</t>
-  </si>
-  <si>
-    <t>Plan alimentario para Proteger a los mas Vulnerables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de apoyos alimentarios "gignos y suficientes" a quienes más lo necesiten a través de las instituciones estatales de seguridad, bajo el mando de la Policía Michoacán. Las familias los recibirán directamente en sus domicilios, beneficiando a personas enfermas diagnosticadas de COVID-19 y a grupos vulnerables, tales como adultos mayores, mujeres embaradas y lactantes, personas con discapacidad o con enfermedades crónico-degenerativas o que por su condición laboral hayan perdido sus ingresos, como meseros, choferes sin concesión, cocineras, jardineros, zapateros, músicos, ayudantes, etc. El apoyo se puede solicitar vía telefónica, por internet y en los centros integrales de servicios. </t>
-  </si>
-  <si>
-    <t>https://twitter.com/Silvano_A/status/1252301658693959686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensaje del Gobernador el 20 de abril del 2020. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de despensas a población vulnerable, con mercancía comprada a comerciantes locales del mercado de Cuernavaca. </t>
-  </si>
-  <si>
-    <t>https://twitter.com/cuauhtemocb10/status/1247970461276831749</t>
-  </si>
-  <si>
-    <t>Comunicación oficial del Gobernador Cuauhtemoc Blanco, el 8 de abril del 2020. Esta entrega se realizó a partir del 18 de abril del 2020.</t>
-  </si>
-  <si>
-    <t>Donación de parte del sueldo de los trabajadores del Estado de Chiapas para llevar alimento a los más vulnerables durante la contingencia</t>
-  </si>
-  <si>
-    <t>Anuncio del gobernador en Twitter el 19 de abril del 2020.</t>
-  </si>
-  <si>
-    <t>https://twitter.com/RutilioEscandon/status/1251898216561496065</t>
-  </si>
-  <si>
-    <t>19/4/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo de 300 MDP para el otorgamiento de créditos accesibles con tasas de interés mínimas para micro, pequeñas y medianas empresas. </t>
-  </si>
-  <si>
-    <t>https://www.tamaulipas.gob.mx/2020/04/gobierno-y-empresarios-de-tamaulipas-buscan-proteger-empleo-y-economia-familiar-ante-covid-19/</t>
-  </si>
-  <si>
-    <t>Gobierno y empresarios de Tamaulipas buscan proteger empleo y economía familiar ante Covid-19</t>
-  </si>
-  <si>
-    <t>Acuerdo para la Defensa del Empleo y del Sector Productivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo de 50 MDP para la protección del empleo y del ingreso a MIPYMES. Por parte del Fondo Macro para el Desarrollo Integral de Tlaxcala (FOMTLAX), se otorgarán créditos de hasta 50,000 pesos, y para los créditos actualmente abiertos, se pospondrán los pagos de adeudos existentes hasta el mes de marzo. </t>
-  </si>
-  <si>
-    <t>Creación de un fondo de 10 MDP de apoyo emergente al sector turismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación de un fondo del gobierno del gobierno de Tlaxcala con NAFIN para negocios y comercios de  hasta 200 MDP para créditos en bancos con garantía de NAFIN. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciativa de la Ley Estatal de Mejora Regulatoria para reducir tiempos y costos a las empresas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampliación de dictámenes de protección civil a dos años, en vez de uno, para empresas que no manejen resíduos peligrosos, para que reduzcan costos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboración del  "Acuerdo para la Defensa del Empleo y del Sector Productivo", en el cual se darán a conocer medidas económicas y un plan de obra pública para reactivar la economía. (15/4/2020). Difundido el 22 de abril, y contando con un presupuesto de 275 millones de pesos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicar el apoyo de paquetes de aves de traspatio para pasar de 12,000 a 25,000 familias beneficiadas, con un presupuesto de 25 MDP. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLAXCALA. 275 millones de pesos para respaldar el empleo y sectores productivos. Programa Emergente de Apoyo a la Economía Estatal. Comuncación oficial del gobernador de Tlaxcala, el 22 de abril del 2020. </t>
-  </si>
-  <si>
-    <t>https://twitter.com/MarcoAMena/status/1252766107879870464</t>
-  </si>
-  <si>
-    <t>22/4/2020</t>
+  </si>
+  <si>
+    <t>Transporte público</t>
+  </si>
+  <si>
+    <t>Programa de Bonos mensuales de combustible para el transporte público</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota de Noticieros Televisa (Televisa.NEWS) el 25 de Abril del 2020. </t>
+  </si>
+  <si>
+    <t>La Secretaría de Movilidad de la CDMX anuncia programa de apoyo de bono mensual a concesionarios de ruta (4 mil pesos por unidad) y a los corredores de transporte (6 mil pesos por unidad) para la compra de combustible, diseñados de tal manera que se pueda monitorear y cancelar en caso de mal uso de los apoyos. Monto total: 400 MDP</t>
+  </si>
+  <si>
+    <t>https://noticieros.televisa.com/ultimas-noticias/gobierno-cdmx-otorgara-bonos-mensuales-transporte-publico/</t>
+  </si>
+  <si>
+    <t>Obra Pública</t>
+  </si>
+  <si>
+    <t>https://twitter.com/fgcabezadevaca/status/1253809515054739456</t>
+  </si>
+  <si>
+    <t>24/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación oficial del gobernador Fco. Cabeza de Vaca haciendo referencia al comité Técnico del Fideicomiso Maestro para el Desarrollo Económico de Tamaulipas, el 24 de abril del 2020. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Fideicomiso Maestro para el Desarrollo Económico de Tamaulipas para impulsar proyectos de infraestructura carretera, portuaria y de energía que impulsan la Secretaría de Energía de Tamaulipas, la Secretaría de Obras de Tamaulipas, la Secretaría de Desarrollo Económico y demás oficinas del gobierno estatal (API Tamaulipas y PRODETAM). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participación en la Reunión Estratégica entre Gobernadores y Empresarios, en la cual participaron los gobernadores de Durango, Coahuila, Nuevo León, Tamaulipas y Michoacán con empresarios del ramo de la construcción, vivienda, manufactura, producción agrícola, comercio, servicios, industria automotríz, energética e insitituciones financieras para la creación de mesas de trabajo y solicitar al Gobierno Federal la revisión de la Ley de Coordinación Fiscal, la Homologación de la operación de industrias esenciales con Estados Unidos y Canadá, flexibilizar y agilizar la Política Fiscal Federal y la cancelación de proyectos no prioritarios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación a través de la cuenta oficial de Twitter del Gobernador Fc. Cabeza de Vaca el 24/abril/2020 referente a la Reunión Estratégica entre Gobernadores y Empresarios. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/fgcabezadevaca/status/1253777551652278274</t>
+  </si>
+  <si>
+    <t>Tamaulipas (Municipios)</t>
+  </si>
+  <si>
+    <t>Puesta en operación de dos portales en internet para que la gente pueda adquirir paquetes con descuentos en el sector turistico y restaurantero, así como adquirir bienes y servicios con descuentos y entregas a domicilio: http://ahorraydisfruta.hidalgo.gob.mx/ http://sits.hidalgo.gob.mx/consume_hidalgo/ http://coronavirus.hidalgo.gob.mx/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de 4 meses de Becas Miguel Hidalgo a cerca de 15 mil 500 estudiantes, para apoyar la economía de los estudiantes de Hidalgo y sus familias, por un monto total de 63 millones de pesos. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/omarfayad/status/1254169579112280072</t>
+  </si>
+  <si>
+    <t>https://twitter.com/omarfayad/status/1254130580607942658</t>
+  </si>
+  <si>
+    <t>Comunicación oficial en Twitter del Gobernador el 25 de Abril del 2020, haciendo mención a las dos páginas de internet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación oficial en Twitter del Gobernador el 25 de Abril del 2020, haciendo referencia a las Becas Miguel Hidalgo. </t>
+  </si>
+  <si>
+    <t>Entrega de manera inmediata de semillas de cebada, avena, alfalfa, frijol, pasto forrajero, fertilizante, así como apoyos pecuarios, equipo y herramientas a  productores del campo para mantener su economia.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/omarfayad/status/1254090310851977222</t>
+  </si>
+  <si>
+    <t>Comunicación oficial a través de la cuenta de Twitter haciendo referencia a los productores agrícolas de Hidalgo.</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2243,6 +2302,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2470,10 +2538,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E176" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F307" sqref="F307:I307"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3983,7 +4051,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -4010,7 +4078,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -4414,7 +4482,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -4425,7 +4493,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="21" t="s">
         <v>146</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -4441,7 +4509,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
@@ -4454,8 +4522,8 @@
       <c r="D69" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="52" t="s">
-        <v>575</v>
+      <c r="E69" s="21" t="s">
+        <v>607</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
@@ -5344,10 +5412,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="63"/>
+      <c r="D101" s="68"/>
       <c r="E101" s="2" t="s">
         <v>213</v>
       </c>
@@ -5393,7 +5461,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>219</v>
+        <v>621</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -5419,8 +5487,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>219</v>
+      <c r="A104" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5446,8 +5514,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>219</v>
+      <c r="A105" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
@@ -5473,8 +5541,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>219</v>
+      <c r="A106" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
@@ -5500,8 +5568,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>219</v>
+      <c r="A107" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5527,8 +5595,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>219</v>
+      <c r="A108" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
@@ -5554,8 +5622,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>219</v>
+      <c r="A109" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
@@ -5581,8 +5649,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>219</v>
+      <c r="A110" s="62" t="s">
+        <v>621</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
@@ -5914,7 +5982,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>244</v>
       </c>
@@ -7439,7 +7507,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>113</v>
       </c>
@@ -7468,7 +7536,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>113</v>
       </c>
@@ -7497,7 +7565,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>113</v>
       </c>
@@ -10695,8 +10763,8 @@
       <c r="C291" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E291" s="52" t="s">
-        <v>578</v>
+      <c r="E291" s="21" t="s">
+        <v>577</v>
       </c>
       <c r="F291" s="52" t="s">
         <v>14</v>
@@ -10718,7 +10786,7 @@
       <c r="C292" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="E292" s="52" t="s">
+      <c r="E292" s="21" t="s">
         <v>570</v>
       </c>
       <c r="F292" s="52" t="s">
@@ -10741,7 +10809,7 @@
       <c r="C293" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="E293" s="52" t="s">
+      <c r="E293" s="21" t="s">
         <v>571</v>
       </c>
       <c r="F293" s="52" t="s">
@@ -10764,7 +10832,7 @@
       <c r="C294" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="E294" s="52" t="s">
+      <c r="E294" s="21" t="s">
         <v>572</v>
       </c>
       <c r="F294" s="52" t="s">
@@ -10787,7 +10855,7 @@
       <c r="C295" s="43" t="s">
         <v>574</v>
       </c>
-      <c r="E295" s="52" t="s">
+      <c r="E295" s="21" t="s">
         <v>573</v>
       </c>
       <c r="F295" s="52" t="s">
@@ -10800,7 +10868,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="52" t="s">
         <v>113</v>
       </c>
@@ -10811,19 +10879,19 @@
         <v>446</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E296" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F296" s="52" t="s">
         <v>23</v>
       </c>
       <c r="G296" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="H296" s="53" t="s">
         <v>576</v>
-      </c>
-      <c r="H296" s="53" t="s">
-        <v>577</v>
       </c>
       <c r="I296" s="43" t="s">
         <v>560</v>
@@ -10840,19 +10908,19 @@
         <v>446</v>
       </c>
       <c r="D297" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E297" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="E297" s="23" t="s">
+      <c r="F297" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="56" t="s">
         <v>580</v>
       </c>
-      <c r="F297" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" s="56" t="s">
+      <c r="I297" t="s">
         <v>581</v>
-      </c>
-      <c r="I297" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10866,22 +10934,22 @@
         <v>56</v>
       </c>
       <c r="D298" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="E298" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E298" s="23" t="s">
+      <c r="F298" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" s="56" t="s">
+        <v>585</v>
+      </c>
+      <c r="H298" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="F298" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" s="56" t="s">
-        <v>586</v>
-      </c>
-      <c r="H298" s="57" t="s">
-        <v>585</v>
-      </c>
       <c r="I298" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10895,16 +10963,16 @@
         <v>56</v>
       </c>
       <c r="E299" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="F299" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="H299" s="57" t="s">
         <v>587</v>
-      </c>
-      <c r="F299" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" s="56" t="s">
-        <v>589</v>
-      </c>
-      <c r="H299" s="57" t="s">
-        <v>588</v>
       </c>
       <c r="I299" s="45">
         <v>44047</v>
@@ -10921,22 +10989,22 @@
         <v>446</v>
       </c>
       <c r="E300" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
         <v>590</v>
       </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="H300" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="H300" s="57" t="s">
+      <c r="I300" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="I300" s="57" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="56" t="s">
         <v>219</v>
       </c>
@@ -10947,22 +11015,22 @@
         <v>35</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F301" s="56" t="s">
         <v>23</v>
       </c>
       <c r="G301" s="56" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H301" s="55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I301" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="58" t="s">
         <v>113</v>
       </c>
@@ -10973,25 +11041,25 @@
         <v>35</v>
       </c>
       <c r="D302" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="E302" s="42" t="s">
         <v>597</v>
-      </c>
-      <c r="E302" s="42" t="s">
-        <v>598</v>
       </c>
       <c r="F302" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G302" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H302" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="H302" s="59" t="s">
+      <c r="I302" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="I302" s="43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="58" t="s">
         <v>113</v>
       </c>
@@ -11002,25 +11070,25 @@
         <v>456</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E303" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F303" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G303" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H303" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="H303" s="59" t="s">
+      <c r="I303" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="I303" s="43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="58" t="s">
         <v>113</v>
       </c>
@@ -11031,25 +11099,25 @@
         <v>58</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F304" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G304" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H304" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="H304" s="59" t="s">
+      <c r="I304" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="I304" s="43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="58" t="s">
         <v>113</v>
       </c>
@@ -11060,25 +11128,25 @@
         <v>446</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G305" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H305" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="H305" s="59" t="s">
+      <c r="I305" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="I305" s="43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="58" t="s">
         <v>113</v>
       </c>
@@ -11089,25 +11157,25 @@
         <v>264</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G306" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H306" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="H306" s="59" t="s">
+      <c r="I306" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="I306" s="43" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="58" t="s">
         <v>113</v>
       </c>
@@ -11118,29 +11186,298 @@
         <v>264</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E307" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F307" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G307" s="60" t="s">
+        <v>604</v>
+      </c>
+      <c r="H307" s="61" t="s">
         <v>605</v>
       </c>
-      <c r="H307" s="61" t="s">
+      <c r="I307" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="I307" s="43" t="s">
-        <v>607</v>
+    </row>
+    <row r="308" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B308" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="44" t="s">
+        <v>608</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="E308" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="F308" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" s="62" t="s">
+        <v>610</v>
+      </c>
+      <c r="H308" s="63" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B309" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="62" t="s">
+        <v>613</v>
+      </c>
+      <c r="E309" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="F309" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G309" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="H309" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="I309" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B310" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="E310" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F310" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G310" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="H310" s="63" t="s">
+        <v>620</v>
+      </c>
+      <c r="I310" s="63" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B311" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D311" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E311" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="F311" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G311" s="62" t="s">
+        <v>626</v>
+      </c>
+      <c r="H311" s="64" t="s">
+        <v>624</v>
+      </c>
+      <c r="I311" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B312" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D312" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E312" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="F312" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="H312" s="64" t="s">
+        <v>625</v>
+      </c>
+      <c r="I312" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B313" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E313" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="F313" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G313" s="62" t="s">
+        <v>630</v>
+      </c>
+      <c r="H313" s="64" t="s">
+        <v>629</v>
+      </c>
+      <c r="I313" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B314" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E314" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F314" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G314" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="H314" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="I314" s="66" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="B315" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E315" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F315" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G315" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="H315" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="I315" s="66" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B316" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E316" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F316" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G316" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="H316" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="I316" s="66" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B317" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E317" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F317" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G317" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="H317" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="I317" s="66" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I307" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I313" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Tlaxcala"/>
+        <filter val="Tamaulipas"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A9BFD4-8104-6D4B-AE0B-2D9723B3BC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AC966C-21A3-F746-B308-FF9F88F0DC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$329</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="664">
   <si>
     <t>Entidad</t>
   </si>
@@ -1358,13 +1358,7 @@
     <t>Facilidades administrativas en materia fiscal</t>
   </si>
   <si>
-    <t>Diferir el plazo de la renovación de la tarjeta de circulación (revista vehicular)</t>
-  </si>
-  <si>
     <t>https://twitter.com/SECTURBCS/status/1242998145224605696</t>
-  </si>
-  <si>
-    <t>Prórroga en el cobro del Impuesto sobre Nómina</t>
   </si>
   <si>
     <t>Diferir los pagos de adeudos al Instituto de Vivienda</t>
@@ -1992,9 +1986,6 @@
     <t>Tamaulipas (Municipios)</t>
   </si>
   <si>
-    <t>Puesta en operación de dos portales en internet para que la gente pueda adquirir paquetes con descuentos en el sector turistico y restaurantero, así como adquirir bienes y servicios con descuentos y entregas a domicilio: http://ahorraydisfruta.hidalgo.gob.mx/ http://sits.hidalgo.gob.mx/consume_hidalgo/ http://coronavirus.hidalgo.gob.mx/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entrega de 4 meses de Becas Miguel Hidalgo a cerca de 15 mil 500 estudiantes, para apoyar la economía de los estudiantes de Hidalgo y sus familias, por un monto total de 63 millones de pesos. </t>
   </si>
   <si>
@@ -2017,6 +2008,172 @@
   </si>
   <si>
     <t>Comunicación oficial a través de la cuenta de Twitter haciendo referencia a los productores agrícolas de Hidalgo.</t>
+  </si>
+  <si>
+    <t>Diferir los pagos del Impuesto sobre Nómina</t>
+  </si>
+  <si>
+    <t>Otorgamiento de Créditos a la palabra a mujeres emprendedoras</t>
+  </si>
+  <si>
+    <t>Fomento al consumo de productos locales a través de los programas de Proveeduría Interna y de la campaña de BCS consume local</t>
+  </si>
+  <si>
+    <t>Programa de apoyos y acciones emergente frente a COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa de Impulso Productivo Familiar. Apoyos de $10,000 pesos para que pequeños negocios puedan reestablecer sus operaciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyos especiales para agricultores y pescadores, para fomentar el autoempleo y la producción </t>
+  </si>
+  <si>
+    <t>Acceso a créditos a través de la Banca Nacional de Desarrollo, con el aval del Gobierno del Estado.</t>
+  </si>
+  <si>
+    <t>Se pondran en marchas programas de auto-empleo y empleo temporal para la población (en reparación de embarcaciones, mejoramiento de viviendas, así como cursos de capacitación para el trabajo).</t>
+  </si>
+  <si>
+    <r>
+      <t>Diferimiento del pago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF444444"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>del Derecho por la expedición de tarjeta de circulación </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF444444"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(revista vehicular), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF444444"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>que debe efectuarse los primeros cuatro meses del año y que podrá pagarse a más tardar el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF444444"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>30 de junio de 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF444444"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://setuesbcs.gob.mx/programas-y-apoyos/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas de apoyo tras la emergencia sanitaria, mencionados en Youtube. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaña #GTO si late unido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campañad #GTO sí late unido para ayudar a quienes más lo necesitan a través de donaciones económicas, donación de alimentos no perecederos y artículos de limpieza, así como aportaciones de trabajo y mano de obra como Socios Humanitarios y mediante la donación de servicios de comedor comunitario. Los apoyos son deducibles de impuestos. </t>
+  </si>
+  <si>
+    <t>https://unidos.guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página de #GTO si late unido </t>
+  </si>
+  <si>
+    <t>https://twitter.com/diegosinhue/status/1252323641880125440</t>
+  </si>
+  <si>
+    <t>Creación de paquetes con descuentos en el sector turístico y restaurantero a través del portal "hidalgo, ahorra hoy y disfruta mañana", los cuales se pueden consultar en http://ahorrayviaja.hidalgo.gob.mx</t>
+  </si>
+  <si>
+    <t>https://twitter.com/omarfayad/status/1256672967049850881</t>
+  </si>
+  <si>
+    <t>Tweet del gobernador Omar Fayad el 2 de mayo del 2020, así como consulta en la página del programa http://ahorrayviaja.hidalgo.gob.mx</t>
+  </si>
+  <si>
+    <t>Puesta en operación un portal en internet para que la gente pueda adquirir bienes y servicios con descuentos y entregas a domicilio: http://sits.hidalgo.gob.mx/consume_hidalgo/ http://coronavirus.hidalgo.gob.mx/</t>
+  </si>
+  <si>
+    <t>Querétaro Fuerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolsa de 240 MDP de recursos públicos estatales para la entrega de apoyos a ciudadanos. </t>
+  </si>
+  <si>
+    <t>Ayuda social directa y única por un monto de $4,000 MXN otorgado a beneficiarios que hayan perdido su fuente de ingresos en el periodo comprendido entre el 15 de marzo y el 30 de abril del 2020, y que desempeñaban alguna actividad económica por cuenta propia, que acrediten su registro o empadronamiento por alguna dependencia pública Federal, Estatal o Municipal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo social directo y por única ocasión por un monto de $4,000 MXN otorgado a las personas que acrediten que hayan perdido su empleo formal por motivo de la emergencia sanitaria a causa de la pandemia del COVID-19 en el Estado de Querétaro. </t>
+  </si>
+  <si>
+    <t>https://www.queretaro.gob.mx/covid19/assets/base/pdf/CONVOCATORIA_TF.pdf</t>
+  </si>
+  <si>
+    <t>https://www.queretaro.gob.mx/covid19/assets/base/pdf/CONVOCATORIA_TCP.pdf</t>
+  </si>
+  <si>
+    <t>https://twitter.com/PanchDominguez/status/1255610711453184001</t>
+  </si>
+  <si>
+    <t>Anuncio de la puesta en marcha del programa "Querétaro Fuerte" a través de la cuenta de Twitter del Gobernador Pancho Domínguez el 29 de abril del 2020</t>
+  </si>
+  <si>
+    <t>29/4/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convocatoria del apoyo social a trabajadores del sector privado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convocatoria del apoyo social a trabajadores del sector público. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/CuitlahuacGJ/status/1254964615601098752</t>
+  </si>
+  <si>
+    <t>Plan de estímulo al consumo de productos "Hecho en Veracruz" a través de la creación de una tienda en línea para la compra de artesanías y productos alimenticios locales: https://tienda.hechoenveracruz.gob.mx/?v=97c7d9830adf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación oficial de la cuenta del gobernador Cuitláhuac García, el 27 de abril del 2020. </t>
+  </si>
+  <si>
+    <t>27/4/2020</t>
+  </si>
+  <si>
+    <t>Hecho en Veracruz</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2185,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2118,6 +2275,25 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2155,7 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2311,6 +2487,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2538,17 +2718,17 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B317" sqref="B317"/>
+    <sheetView tabSelected="1" topLeftCell="D128" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="23"/>
-    <col min="5" max="5" width="75.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="73.83203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -3719,7 +3899,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>94</v>
@@ -4523,19 +4703,19 @@
         <v>150</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,7 +4732,7 @@
         <v>152</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
@@ -4581,7 +4761,7 @@
         <v>152</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -4923,7 +5103,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>164</v>
@@ -5412,10 +5592,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="67" t="s">
+      <c r="C101" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="68"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="2" t="s">
         <v>213</v>
       </c>
@@ -5461,7 +5641,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -5488,7 +5668,7 @@
     </row>
     <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5515,7 +5695,7 @@
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
@@ -5542,7 +5722,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
@@ -5569,7 +5749,7 @@
     </row>
     <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5596,7 +5776,7 @@
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
@@ -5623,7 +5803,7 @@
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
@@ -5650,7 +5830,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="62" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
@@ -5837,7 +6017,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>244</v>
       </c>
@@ -5866,7 +6046,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>244</v>
       </c>
@@ -5880,7 +6060,7 @@
         <v>249</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>14</v>
@@ -5895,7 +6075,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>244</v>
       </c>
@@ -5924,7 +6104,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>244</v>
       </c>
@@ -5953,7 +6133,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>244</v>
       </c>
@@ -5982,7 +6162,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>244</v>
       </c>
@@ -5996,7 +6176,7 @@
         <v>258</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
@@ -6011,7 +6191,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="31" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>244</v>
       </c>
@@ -6022,25 +6202,25 @@
         <v>24</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E123" s="46" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G123" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H123" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="H123" s="48" t="s">
-        <v>553</v>
-      </c>
       <c r="I123" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="31" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>244</v>
       </c>
@@ -6051,25 +6231,25 @@
         <v>60</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G124" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H124" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="H124" s="48" t="s">
-        <v>553</v>
-      </c>
       <c r="I124" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>244</v>
       </c>
@@ -6080,25 +6260,25 @@
         <v>60</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G125" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H125" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="H125" s="48" t="s">
-        <v>553</v>
-      </c>
       <c r="I125" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="31" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>244</v>
       </c>
@@ -6109,25 +6289,25 @@
         <v>261</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G126" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H126" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="H126" s="48" t="s">
-        <v>553</v>
-      </c>
       <c r="I126" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="31" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>244</v>
       </c>
@@ -6138,25 +6318,25 @@
         <v>35</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E127" s="46" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H127" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="H127" s="48" t="s">
-        <v>553</v>
-      </c>
       <c r="I127" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>244</v>
       </c>
@@ -6185,7 +6365,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>244</v>
       </c>
@@ -6214,7 +6394,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>244</v>
       </c>
@@ -6243,7 +6423,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>244</v>
       </c>
@@ -6272,7 +6452,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>244</v>
       </c>
@@ -6286,7 +6466,7 @@
         <v>270</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>14</v>
@@ -6301,7 +6481,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>244</v>
       </c>
@@ -6309,13 +6489,13 @@
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>271</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>23</v>
@@ -6330,7 +6510,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>244</v>
       </c>
@@ -6359,7 +6539,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>244</v>
       </c>
@@ -6367,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>274</v>
@@ -6388,7 +6568,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>244</v>
       </c>
@@ -6417,7 +6597,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>244</v>
       </c>
@@ -6446,7 +6626,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>244</v>
       </c>
@@ -6475,7 +6655,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>244</v>
       </c>
@@ -6593,7 +6773,7 @@
         <v>10</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="2" t="s">
@@ -6854,7 +7034,7 @@
         <v>310</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>23</v>
@@ -6883,7 +7063,7 @@
         <v>310</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>14</v>
@@ -6912,7 +7092,7 @@
         <v>310</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>23</v>
@@ -6941,7 +7121,7 @@
         <v>310</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>23</v>
@@ -6970,7 +7150,7 @@
         <v>310</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>14</v>
@@ -6999,7 +7179,7 @@
         <v>310</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>14</v>
@@ -7028,7 +7208,7 @@
         <v>310</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>14</v>
@@ -7246,7 +7426,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
@@ -7259,7 +7439,7 @@
       <c r="D166" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="21" t="s">
         <v>330</v>
       </c>
       <c r="F166" s="1" t="s">
@@ -7275,7 +7455,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>328</v>
       </c>
@@ -7288,7 +7468,7 @@
       <c r="D167" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="21" t="s">
         <v>332</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -7304,7 +7484,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>328</v>
       </c>
@@ -7317,7 +7497,7 @@
       <c r="D168" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="21" t="s">
         <v>333</v>
       </c>
       <c r="F168" s="1" t="s">
@@ -7333,7 +7513,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>328</v>
       </c>
@@ -7346,7 +7526,7 @@
       <c r="D169" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="21" t="s">
         <v>334</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -7362,7 +7542,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>328</v>
       </c>
@@ -7375,7 +7555,7 @@
       <c r="D170" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="21" t="s">
         <v>335</v>
       </c>
       <c r="F170" s="1" t="s">
@@ -7391,7 +7571,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>328</v>
       </c>
@@ -7404,7 +7584,7 @@
       <c r="D171" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="21" t="s">
         <v>336</v>
       </c>
       <c r="F171" s="1" t="s">
@@ -7420,7 +7600,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>328</v>
       </c>
@@ -7433,7 +7613,7 @@
       <c r="D172" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="21" t="s">
         <v>337</v>
       </c>
       <c r="F172" s="1" t="s">
@@ -7449,7 +7629,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>328</v>
       </c>
@@ -7462,7 +7642,7 @@
       <c r="D173" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="21" t="s">
         <v>338</v>
       </c>
       <c r="F173" s="1" t="s">
@@ -7478,7 +7658,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>328</v>
       </c>
@@ -7491,7 +7671,7 @@
       <c r="D174" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="21" t="s">
         <v>339</v>
       </c>
       <c r="F174" s="1" t="s">
@@ -7602,7 +7782,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>348</v>
@@ -8505,19 +8685,19 @@
       </c>
       <c r="D209" s="11"/>
       <c r="E209" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -8559,7 +8739,7 @@
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>14</v>
@@ -8667,7 +8847,7 @@
       </c>
       <c r="D215" s="32"/>
       <c r="E215" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F215" s="26" t="s">
         <v>14</v>
@@ -8717,7 +8897,7 @@
         <v>10</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D217" s="25"/>
       <c r="E217" s="28" t="s">
@@ -8748,19 +8928,19 @@
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F218" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G218" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H218" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I218" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -8775,19 +8955,19 @@
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F219" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G219" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H219" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I219" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="220" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -8802,19 +8982,19 @@
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F220" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G220" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H220" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I220" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -8829,19 +9009,19 @@
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F221" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H221" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I221" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="222" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -8856,19 +9036,19 @@
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F222" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H222" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I222" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -8883,19 +9063,19 @@
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H223" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I223" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -8910,19 +9090,19 @@
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H224" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I224" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -8937,19 +9117,19 @@
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F225" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I225" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -8960,23 +9140,23 @@
         <v>10</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H226" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I226" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="227" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
@@ -8991,19 +9171,19 @@
       </c>
       <c r="D227" s="25"/>
       <c r="E227" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F227" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G227" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I227" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
@@ -9017,19 +9197,19 @@
         <v>110</v>
       </c>
       <c r="E228" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="F228" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="F228" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G228" s="33" t="s">
-        <v>445</v>
-      </c>
       <c r="H228" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I228" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
@@ -9044,7 +9224,7 @@
       </c>
       <c r="D229" s="16"/>
       <c r="E229" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>14</v>
@@ -9059,7 +9239,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>413</v>
       </c>
@@ -9072,8 +9252,8 @@
       <c r="D230" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E230" s="17" t="s">
-        <v>415</v>
+      <c r="E230" s="19" t="s">
+        <v>636</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>14</v>
@@ -9082,7 +9262,7 @@
         <v>317</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I230" s="7">
         <v>43915</v>
@@ -9102,7 +9282,7 @@
         <v>414</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>417</v>
+        <v>628</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>14</v>
@@ -9111,7 +9291,7 @@
         <v>317</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I231" s="7">
         <v>43915</v>
@@ -9131,7 +9311,7 @@
         <v>414</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>14</v>
@@ -9140,7 +9320,7 @@
         <v>317</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I232" s="7">
         <v>43915</v>
@@ -9160,7 +9340,7 @@
         <v>414</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>14</v>
@@ -9169,7 +9349,7 @@
         <v>317</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I233" s="7">
         <v>43915</v>
@@ -9177,7 +9357,7 @@
     </row>
     <row r="234" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>10</v>
@@ -9186,19 +9366,19 @@
         <v>35</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I234" s="7">
         <v>43917</v>
@@ -9206,7 +9386,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>10</v>
@@ -9215,19 +9395,19 @@
         <v>53</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I235" s="7">
         <v>43917</v>
@@ -9235,7 +9415,7 @@
     </row>
     <row r="236" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>10</v>
@@ -9244,19 +9424,19 @@
         <v>174</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I236" s="7">
         <v>43917</v>
@@ -9264,7 +9444,7 @@
     </row>
     <row r="237" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>10</v>
@@ -9273,19 +9453,19 @@
         <v>35</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I237" s="7">
         <v>43917</v>
@@ -9293,7 +9473,7 @@
     </row>
     <row r="238" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B238" s="11" t="s">
         <v>10</v>
@@ -9302,19 +9482,19 @@
         <v>60</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="E238" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" s="12" t="s">
-        <v>422</v>
-      </c>
       <c r="H238" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I238" s="7">
         <v>43917</v>
@@ -9322,7 +9502,7 @@
     </row>
     <row r="239" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>10</v>
@@ -9331,19 +9511,19 @@
         <v>58</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I239" s="7">
         <v>43917</v>
@@ -9351,7 +9531,7 @@
     </row>
     <row r="240" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>10</v>
@@ -9360,19 +9540,19 @@
         <v>58</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I240" s="7">
         <v>43917</v>
@@ -9383,25 +9563,25 @@
         <v>327</v>
       </c>
       <c r="B241" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C241" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D241" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C241" s="39" t="s">
+      <c r="E241" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="D241" s="39" t="s">
+      <c r="F241" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E241" s="40" t="s">
+      <c r="H241" s="18" t="s">
         <v>450</v>
-      </c>
-      <c r="F241" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="H241" s="18" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9409,25 +9589,25 @@
         <v>327</v>
       </c>
       <c r="B242" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="D242" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C242" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="D242" s="39" t="s">
+      <c r="E242" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="F242" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E242" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="F242" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H242" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9435,25 +9615,25 @@
         <v>327</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C243" s="39" t="s">
         <v>264</v>
       </c>
       <c r="D243" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E243" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="F243" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H243" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9461,25 +9641,25 @@
         <v>327</v>
       </c>
       <c r="B244" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D244" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C244" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="D244" s="39" t="s">
+      <c r="E244" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="F244" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E244" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="F244" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H244" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9487,25 +9667,25 @@
         <v>327</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D245" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="F245" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E245" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="F245" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H245" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9513,25 +9693,25 @@
         <v>327</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C246" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D246" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="F246" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E246" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="F246" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H246" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9539,25 +9719,25 @@
         <v>327</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D247" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="F247" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G247" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="E247" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="F247" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="G247" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H247" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9565,25 +9745,25 @@
         <v>327</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E248" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="F248" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G248" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="H248" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="F248" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="G248" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="H248" s="18" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9591,25 +9771,25 @@
         <v>327</v>
       </c>
       <c r="B249" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C249" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D249" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C249" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="D249" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E249" s="40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F249" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G249" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="G249" s="39" t="s">
-        <v>463</v>
-      </c>
       <c r="H249" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9617,25 +9797,25 @@
         <v>327</v>
       </c>
       <c r="B250" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C250" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="D250" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C250" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="D250" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E250" s="40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F250" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G250" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="G250" s="39" t="s">
-        <v>463</v>
-      </c>
       <c r="H250" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9643,25 +9823,25 @@
         <v>327</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C251" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F251" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G251" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="G251" s="39" t="s">
-        <v>463</v>
-      </c>
       <c r="H251" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9669,25 +9849,25 @@
         <v>327</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C252" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F252" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G252" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="G252" s="39" t="s">
-        <v>463</v>
-      </c>
       <c r="H252" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9695,25 +9875,25 @@
         <v>327</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C253" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E253" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="F253" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G253" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="H253" s="18" t="s">
         <v>471</v>
-      </c>
-      <c r="F253" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="G253" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="H253" s="18" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9721,25 +9901,25 @@
         <v>327</v>
       </c>
       <c r="B254" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C254" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="D254" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C254" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="D254" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E254" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9747,25 +9927,25 @@
         <v>327</v>
       </c>
       <c r="B255" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C255" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="D255" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C255" s="39" t="s">
+      <c r="E255" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="F255" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G255" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="H255" s="18" t="s">
         <v>476</v>
-      </c>
-      <c r="D255" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="E255" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="F255" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="G255" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="H255" s="18" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9773,25 +9953,25 @@
         <v>327</v>
       </c>
       <c r="B256" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C256" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="D256" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C256" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="D256" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E256" s="40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9799,25 +9979,25 @@
         <v>327</v>
       </c>
       <c r="B257" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C257" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="D257" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C257" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="D257" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E257" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9825,25 +10005,25 @@
         <v>327</v>
       </c>
       <c r="B258" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C258" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="D258" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C258" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="D258" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E258" s="40" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9851,25 +10031,25 @@
         <v>327</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C259" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F259" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9877,25 +10057,25 @@
         <v>327</v>
       </c>
       <c r="B260" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C260" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="D260" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C260" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="D260" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="E260" s="40" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F260" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G260" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9903,25 +10083,25 @@
         <v>327</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C261" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F261" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G261" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9935,22 +10115,22 @@
         <v>88</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E262" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="H262" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="F262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="H262" s="37" t="s">
-        <v>492</v>
-      </c>
       <c r="I262" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9964,22 +10144,22 @@
         <v>11</v>
       </c>
       <c r="D263" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E263" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="E263" s="42" t="s">
+      <c r="F263" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="H263" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="I263" s="43" t="s">
         <v>491</v>
-      </c>
-      <c r="F263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="H263" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="I263" s="43" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9993,22 +10173,22 @@
         <v>11</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F264" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G264" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H264" s="37" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I264" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10022,22 +10202,22 @@
         <v>11</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F265" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G265" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H265" s="37" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I265" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10051,22 +10231,22 @@
         <v>11</v>
       </c>
       <c r="D266" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E266" s="42" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F266" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G266" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H266" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I266" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H266" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I266" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10077,25 +10257,25 @@
         <v>10</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D267" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="E267" s="42" t="s">
         <v>504</v>
-      </c>
-      <c r="E267" s="42" t="s">
-        <v>506</v>
       </c>
       <c r="F267" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G267" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H267" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I267" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H267" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I267" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10109,22 +10289,22 @@
         <v>35</v>
       </c>
       <c r="D268" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F268" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G268" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H268" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I268" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H268" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I268" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10138,22 +10318,22 @@
         <v>35</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E269" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="F269" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H269" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="F269" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" s="36" t="s">
+      <c r="I269" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H269" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I269" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10167,22 +10347,22 @@
         <v>35</v>
       </c>
       <c r="D270" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F270" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G270" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H270" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I270" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H270" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I270" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10196,22 +10376,22 @@
         <v>21</v>
       </c>
       <c r="D271" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F271" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G271" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H271" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I271" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H271" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I271" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10222,25 +10402,25 @@
         <v>10</v>
       </c>
       <c r="C272" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="E272" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="D272" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="E272" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="F272" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" s="36" t="s">
+      <c r="H272" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I272" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I272" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10254,22 +10434,22 @@
         <v>21</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F273" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G273" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H273" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I273" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H273" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I273" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10283,22 +10463,22 @@
         <v>60</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E274" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F274" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G274" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H274" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I274" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H274" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I274" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10312,22 +10492,22 @@
         <v>35</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E275" s="42" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F275" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G275" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H275" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="I275" s="36" t="s">
         <v>516</v>
-      </c>
-      <c r="H275" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I275" s="36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10341,22 +10521,22 @@
         <v>58</v>
       </c>
       <c r="D276" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="E276" s="42" t="s">
         <v>519</v>
-      </c>
-      <c r="E276" s="42" t="s">
-        <v>521</v>
       </c>
       <c r="F276" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G276" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H276" s="37" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10371,16 +10551,16 @@
       </c>
       <c r="D277"/>
       <c r="E277" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="F277" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="F277" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" s="36" t="s">
-        <v>524</v>
-      </c>
       <c r="H277" s="37" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I277" s="45">
         <v>44078</v>
@@ -10398,19 +10578,19 @@
       </c>
       <c r="D278"/>
       <c r="E278" s="42" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F278" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G278" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="H278" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="H278" s="37" t="s">
-        <v>527</v>
-      </c>
       <c r="I278" s="43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10421,26 +10601,26 @@
         <v>10</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="42" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F279" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G279" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H279" s="37" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I279" s="43" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="25" t="s">
         <v>244</v>
       </c>
@@ -10448,28 +10628,28 @@
         <v>10</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E280" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="F280" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="F280" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" s="47" t="s">
+      <c r="H280" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H280" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I280" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" s="31" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="25" t="s">
         <v>244</v>
       </c>
@@ -10480,25 +10660,25 @@
         <v>11</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E281" s="49" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F281" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G281" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H281" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H281" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I281" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" s="31" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="25" t="s">
         <v>244</v>
       </c>
@@ -10509,25 +10689,25 @@
         <v>11</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E282" s="49" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F282" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G282" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H282" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H282" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I282" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="31" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="25" t="s">
         <v>244</v>
       </c>
@@ -10538,25 +10718,25 @@
         <v>11</v>
       </c>
       <c r="D283" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E283" s="49" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G283" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H283" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H283" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I283" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="31" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="25" t="s">
         <v>244</v>
       </c>
@@ -10567,25 +10747,25 @@
         <v>11</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E284" s="49" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G284" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H284" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H284" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I284" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="25" t="s">
         <v>244</v>
       </c>
@@ -10596,25 +10776,25 @@
         <v>264</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E285" s="49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G285" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H285" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H285" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I285" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="25" t="s">
         <v>244</v>
       </c>
@@ -10622,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E286" s="49" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G286" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H286" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H286" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I286" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="25" t="s">
         <v>244</v>
       </c>
@@ -10654,25 +10834,25 @@
         <v>88</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E287" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="F287" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H287" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="I287" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="F287" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="H287" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="I287" s="30" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="25" t="s">
         <v>244</v>
       </c>
@@ -10680,25 +10860,25 @@
         <v>10</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E288" s="49" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G288" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="H288" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="H288" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="I288" s="30" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10709,25 +10889,25 @@
         <v>10</v>
       </c>
       <c r="C289" s="50" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D289" s="50" t="s">
         <v>348</v>
       </c>
       <c r="E289" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="F289" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="H289" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="F289" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G289" s="50" t="s">
+      <c r="I289" s="43" t="s">
         <v>558</v>
-      </c>
-      <c r="H289" s="51" t="s">
-        <v>559</v>
-      </c>
-      <c r="I289" s="43" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10738,19 +10918,19 @@
         <v>10</v>
       </c>
       <c r="C290" s="52" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E290" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="F290" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="H290" s="53" t="s">
         <v>561</v>
-      </c>
-      <c r="F290" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G290" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="H290" s="53" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10764,16 +10944,16 @@
         <v>35</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F291" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G291" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H291" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10787,16 +10967,16 @@
         <v>230</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F292" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G292" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H292" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10807,19 +10987,19 @@
         <v>10</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F293" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G293" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10833,16 +11013,16 @@
         <v>56</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F294" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G294" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H294" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10853,19 +11033,19 @@
         <v>10</v>
       </c>
       <c r="C295" s="43" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F295" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G295" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10876,25 +11056,25 @@
         <v>10</v>
       </c>
       <c r="C296" s="52" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E296" s="42" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F296" s="52" t="s">
         <v>23</v>
       </c>
       <c r="G296" s="52" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H296" s="53" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I296" s="43" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10905,22 +11085,25 @@
         <v>10</v>
       </c>
       <c r="C297" s="56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D297" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="F297" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="56" t="s">
         <v>578</v>
       </c>
-      <c r="E297" s="23" t="s">
+      <c r="H297" s="68" t="s">
+        <v>643</v>
+      </c>
+      <c r="I297" t="s">
         <v>579</v>
-      </c>
-      <c r="F297" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="I297" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10934,22 +11117,22 @@
         <v>56</v>
       </c>
       <c r="D298" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E298" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="F298" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="H298" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="E298" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="F298" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" s="56" t="s">
-        <v>585</v>
-      </c>
-      <c r="H298" s="57" t="s">
-        <v>584</v>
-      </c>
       <c r="I298" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10963,16 +11146,16 @@
         <v>56</v>
       </c>
       <c r="E299" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F299" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" s="56" t="s">
         <v>586</v>
       </c>
-      <c r="F299" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" s="56" t="s">
-        <v>588</v>
-      </c>
       <c r="H299" s="57" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I299" s="45">
         <v>44047</v>
@@ -10986,25 +11169,25 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E300" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
+        <v>588</v>
+      </c>
+      <c r="H300" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="I300" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="H300" s="57" t="s">
-        <v>591</v>
-      </c>
-      <c r="I300" s="57" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="56" t="s">
         <v>219</v>
       </c>
@@ -11015,19 +11198,19 @@
         <v>35</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F301" s="56" t="s">
         <v>23</v>
       </c>
       <c r="G301" s="56" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H301" s="55" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I301" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11041,22 +11224,22 @@
         <v>35</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E302" s="42" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F302" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G302" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="H302" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="I302" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="H302" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="I302" s="43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11067,25 +11250,25 @@
         <v>10</v>
       </c>
       <c r="C303" s="58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D303" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="E303" s="42" t="s">
         <v>596</v>
-      </c>
-      <c r="E303" s="42" t="s">
-        <v>598</v>
       </c>
       <c r="F303" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G303" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="H303" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="I303" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="H303" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="I303" s="43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11099,22 +11282,22 @@
         <v>58</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F304" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G304" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="H304" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="I304" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="H304" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="I304" s="43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11125,25 +11308,25 @@
         <v>10</v>
       </c>
       <c r="C305" s="58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G305" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="H305" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="I305" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="H305" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="I305" s="43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11157,22 +11340,22 @@
         <v>264</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G306" s="58" t="s">
+        <v>602</v>
+      </c>
+      <c r="H306" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="I306" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="H306" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="I306" s="43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11186,22 +11369,22 @@
         <v>264</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E307" s="42" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F307" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G307" s="60" t="s">
+        <v>602</v>
+      </c>
+      <c r="H307" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="I307" s="43" t="s">
         <v>604</v>
-      </c>
-      <c r="H307" s="61" t="s">
-        <v>605</v>
-      </c>
-      <c r="I307" s="43" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11212,25 +11395,25 @@
         <v>10</v>
       </c>
       <c r="C308" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="D308" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="E308" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="F308" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" s="62" t="s">
         <v>608</v>
       </c>
-      <c r="D308" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="E308" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="F308" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G308" s="62" t="s">
+      <c r="H308" s="63" t="s">
         <v>610</v>
       </c>
-      <c r="H308" s="63" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="62" t="s">
         <v>219</v>
       </c>
@@ -11238,25 +11421,25 @@
         <v>10</v>
       </c>
       <c r="C309" s="62" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F309" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G309" s="62" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H309" s="63" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I309" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="62" t="s">
         <v>219</v>
       </c>
@@ -11264,22 +11447,22 @@
         <v>10</v>
       </c>
       <c r="C310" s="62" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F310" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G310" s="62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H310" s="63" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I310" s="63" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11295,17 +11478,17 @@
       <c r="D311" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E311" s="23" t="s">
-        <v>622</v>
+      <c r="E311" s="42" t="s">
+        <v>647</v>
       </c>
       <c r="F311" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G311" s="62" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H311" s="64" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I311" s="4">
         <v>43946</v>
@@ -11325,16 +11508,16 @@
         <v>128</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F312" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G312" s="62" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H312" s="64" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I312" s="4">
         <v>43946</v>
@@ -11354,22 +11537,22 @@
         <v>128</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F313" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G313" s="62" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H313" s="64" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I313" s="4">
         <v>43946</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="65" t="s">
         <v>181</v>
       </c>
@@ -11377,51 +11560,51 @@
         <v>10</v>
       </c>
       <c r="C314" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F314" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G314" s="65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H314" s="66" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I314" s="66" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B315" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C315" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F315" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G315" s="65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H315" s="66" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I315" s="66" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="65" t="s">
         <v>198</v>
       </c>
@@ -11429,25 +11612,25 @@
         <v>10</v>
       </c>
       <c r="C316" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F316" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G316" s="65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I316" s="66" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="65" t="s">
         <v>44</v>
       </c>
@@ -11455,29 +11638,356 @@
         <v>10</v>
       </c>
       <c r="C317" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F317" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G317" s="65" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I317" s="66" t="s">
-        <v>615</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D318" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E318" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="F318" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G318" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H318" s="68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D319" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E319" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="F319" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G319" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H319" s="68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D320" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E320" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="F320" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G320" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H320" s="68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D321" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E321" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="F321" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G321" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H321" s="68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D322" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E322" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F322" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H322" s="68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="E323" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F323" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G323" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="H323" s="68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" s="67" t="s">
+        <v>444</v>
+      </c>
+      <c r="D324" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="E324" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="F324" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" s="67" t="s">
+        <v>642</v>
+      </c>
+      <c r="H324" s="68" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B325" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D325" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E325" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="F325" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G325" s="67" t="s">
+        <v>646</v>
+      </c>
+      <c r="H325" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="I325" s="45">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B326" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D326" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="E326" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="F326" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="H326" s="68" t="s">
+        <v>654</v>
+      </c>
+      <c r="I326" s="43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B327" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D327" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="E327" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="F327" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="H327" s="68" t="s">
+        <v>653</v>
+      </c>
+      <c r="I327" s="43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B328" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D328" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="E328" s="42" t="s">
+        <v>651</v>
+      </c>
+      <c r="F328" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="H328" s="68" t="s">
+        <v>652</v>
+      </c>
+      <c r="I328" s="43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B329" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D329" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="E329" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="F329" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G329" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="H329" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="I329" s="43" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I313" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I329" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Tamaulipas"/>
+        <filter val="Yucatan"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB4C105-46C3-334A-BED4-854097C63FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93517530-E7DB-3048-B42A-10760454A8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="14200" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$339</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2811,7 +2811,7 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="142" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
       <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
@@ -4753,7 +4753,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>143</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="59" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="59" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>143</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="52" t="s">
         <v>143</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="52" t="s">
         <v>143</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="52" t="s">
         <v>143</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="52" t="s">
         <v>143</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="52" t="s">
         <v>143</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="62" t="s">
         <v>143</v>
       </c>
@@ -12348,9 +12348,10 @@
       <c r="E340" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I336" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I339" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
+        <filter val="Ciudad de México"/>
         <filter val="Guanajuato"/>
       </filters>
     </filterColumn>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93517530-E7DB-3048-B42A-10760454A8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1463188-528F-4842-971D-EFAD1F86E163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="14200" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$345</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="721">
   <si>
     <t>Entidad</t>
   </si>
@@ -1137,9 +1137,6 @@
     <t>Transferencias monetarias</t>
   </si>
   <si>
-    <t>En una segunda etapa, generaremos una bolsa de $170 millones de pesos, para dar apoyos económicos directos mediante una tarjeta de débito a 100 mil personas, que habrán quedado en vulnerabilidad por los efectos de esta crisis.</t>
-  </si>
-  <si>
     <t>Apoyos de ocupación temporal, que se darán a través de proyectos propuestos y ejecutados por instituciones públicas, privadas o de la sociedad civil organizada. Se apoyará a personas de 18 años o más con $150 pesos por día ($180 pesos en la zona fronteriza) y hasta por 3 meses. En la primera etapa se priorizarán proyectos que apoyen la atención de la emergencia.</t>
   </si>
   <si>
@@ -1165,23 +1162,6 @@
   </si>
   <si>
     <t>Créditos al sector turístico: a) Créditos de hasta $25,000 pesos para microempresarios y prestadores de servicios turísticos, con 0% de interés e inicio de pagos en octubre de 2020.</t>
-  </si>
-  <si>
-    <t>Estímulo fiscal del Impuesto Sobre Nóminas a los contribuyentes que mantengan al menos 70% de la plantilla laboral registrada al cierre de febrero:
- • Condonación del 100%, abril y mayo, a empresas con menos de 50 empleados.
- • Condonación del 50%, abril y mayo, a empresas de entre 51 y 90 empleados.
- • Prórroga del 50%, abril y mayo, a empresas de más de 90 empleados; que serán pagados en noviembre y diciembre de 2020.</t>
-  </si>
-  <si>
-    <t>Descuentos en trámites
- • Se extiende el descuento de derechos vehicular hasta junio de 2020.
- • 50% descuento en actas registro civil de abril a junio de 2020
- • 25% descuento en licencias de conducir de abril a junio de 2020, que podrán hacer el pago en estos meses, pero les pedimos que la vayan a
- recoger una vez pasada la contingencia para no tener filas.
- • 50% descuento en renovación de permisos para restaurantes con aforo de menos de 40 personas.</t>
-  </si>
-  <si>
-    <t>Capacitación en línea para finanzas y administración en un contexto de contingencia en los siguientes temas: a) Contabilidad y finanzas. b) Marketing digital.c) Manejo de inventarios.d) Mejora de procesos.e) Esquemas de trabajo para afrontar contingencias.f) Herramientas web.g) Información en general para la toma de decisiones en etapas de contingencia.</t>
   </si>
   <si>
     <t>San Luis Potosi</t>
@@ -2258,6 +2238,112 @@
   </si>
   <si>
     <t>"Conserva tu Empleo": Tiene como objetivo facilitar financiamiento a la nómina de las empresas y negocios (personas físicas o morales) a fin de que el sector productivo mantenga la plantilla laboral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyos para dueños de negocios catalogados como de "actividades no escenciales" disponibles al contactar con los Centros de Atención y Desarrollo empresarial para créditos ante la contingencia sanitaria ubicados en cada municipio del estado. </t>
+  </si>
+  <si>
+    <t>Publicación en cuenta oficial de Twitter del Gobernador el 14 de mayo del 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Jaime_BonillaV/status/1261057394550824960</t>
+  </si>
+  <si>
+    <t>14/5/2020</t>
+  </si>
+  <si>
+    <t>En una segunda etapa, se generará una bolsa de $170 millones de pesos, para dar apoyos económicos directos mediante una tarjeta de débito a 100 mil personas, que habrán quedado en vulnerabilidad por los efectos de esta crisis.</t>
+  </si>
+  <si>
+    <t>Estímulo fiscal del Impuesto Sobre Nóminas a los contribuyentes que mantengan al menos 70% de la plantilla laboral registrada al cierre de febrero:
+ &lt;ul&gt;&lt;li&gt;Condonación del 100%, abril y mayo, a empresas con menos de 50 empleados.&lt;/li&gt;
+ &lt;li&gt;Condonación del 50%, abril y mayo, a empresas de entre 51 y 90 empleados.&lt;/li&gt;
+ &lt;li&gt;Prórroga del 50%, abril y mayo, a empresas de más de 90 empleados; que serán pagados en noviembre y diciembre de 2020.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Descuentos en trámites:
+ &lt;ul&gt;&lt;li&gt;Se extiende el descuento de derechos vehicular hasta junio de 2020.&lt;/li&gt;
+ &lt;li&gt;50% descuento en actas registro civil de abril a junio de 2020&lt;/li&gt;
+ &lt;li&gt;25% descuento en licencias de conducir de abril a junio de 2020, que podrán hacer el pago en estos meses, pero les pedimos que la vayan a recoger una vez pasada la contingencia para no tener filas.&lt;/li&gt;
+ &lt;li&gt;50% descuento en renovación de permisos para restaurantes con aforo de menos de 40 personas.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Capacitación en línea para finanzas y administración en un contexto de contingencia en los siguientes temas: a) Contabilidad y finanzas. b) Marketing digital.c) Manejo de inventarios.d) Mejora de procesos.e) Esquemas de trabajo para afrontar contingencias. f) Herramientas web.g) Información en general para la toma de decisiones en etapas de contingencia.</t>
+  </si>
+  <si>
+    <t>TAnto Contingencia como Dia D</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?time_continue=9&amp;v=jt1Nw3i4QkI&amp;feature=emb_logo</t>
+  </si>
+  <si>
+    <t>Mensaje semanal del Gobernador Javier Corral a través de la cuenta de Youtube de la Comunicación Social Chihuahua el 15 de mayo del 2020</t>
+  </si>
+  <si>
+    <t>15/5/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anuncio de fondo final de $3,400 Millones de pesos como bolsa final de apoyos para sobrellevar la contingencia económica el 15 de mayo del 2020. El gobernador afirma que, con este monto, son el estado con mayor monto de apoyos en todo el país. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de apoyos alimentarios por COVID-19 en la región de La Laguna, apoyando a los beneficiarios del programa de #DesayunosEscolares para que las familias puedan seguir contando con este sustento para sus hijos. </t>
+  </si>
+  <si>
+    <t>Comunicación oficial a través de la cuenta de Twitter el 13 de mayo del 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AispuroDurango/status/1260609213023358979</t>
+  </si>
+  <si>
+    <t>13/5/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integración a los planes económicos emergentes y alimentarios al sector de los artistas que han perdido sus ingresos durante la presente contingencia. </t>
+  </si>
+  <si>
+    <t>Mensaje del gobernador de Michoacán el 13 de mayo del 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Silvano_A/status/1260383683837669382</t>
+  </si>
+  <si>
+    <t>Creación de la plataforma "Conecta Quintana Roo" para apoyar a los comercios locales, disponible en &lt;a href = "https://comercio-local.qroo.gob.mx"&gt;https://comercio-local.qroo.gob.mx&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mensaje en cuenta de Twitter del Gobernador el 11 de mayo del 2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CarlosJoaquin/status/1259967732436647937</t>
+  </si>
+  <si>
+    <t>Entrega de apoyos econ'omicos que van desde insumos y materiales hasta por $36,000 pesos para respaldar a más de $1,050 emprendedores y artesanos yucatecos para que sigan con su negocio y puedan garantizar pagos a proveedores y trabajadores.</t>
+  </si>
+  <si>
+    <t>Mensaje del gobernador de Yucatán el 13/5/2020</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MauVila/status/1260647467013427200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyos alimentarios a personas que lo requieran (personas en situación de calle, familiares de hospitalizados, y gente con necesidad de alimentos) durante el tiempo que dure la contingencia por la pandemia de COVID-19 a través de la reorientación del gasto público del programa "Recrea, Escuela para la vida" en su vertiente de componente alimentario. Igualmente, se brindan apoyos a Organizaciones de la Sociedad Civil cuyos rubros de acción consisten en apoyar al albergue y manutención de personas vulnerables durante la pandemia. </t>
+  </si>
+  <si>
+    <t>Base de medidas regulatorias CONAMER</t>
+  </si>
+  <si>
+    <t>https://conamer.gob.mx/respuestas-regulatorias-covid-19/DetalleEstadoMunicipio/Index?id=14</t>
+  </si>
+  <si>
+    <t>Plan Jalisco para la Reactivación Económica</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7t5bH87xMv0&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Canal de Youtube del gobernador Enrique Alfaro el 14 de mayo del 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicación de los protocolos de la Fase 0 del &lt;a href = "https://coronavirus.jalisco.gob.mx/reactivacion-economica/"&gt;Plan de Reactivación Económica&lt;/a&gt; el cual cuenta con medidas y lineamientos para la Industria, los Comercios y los Servicios para empezar a trabajar en la reactivación económica estatal. El regreso gradual a la reactivación entraría en marcha el 18 de mayo del 2020. </t>
   </si>
 </sst>
 </file>
@@ -2415,7 +2501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2586,6 +2672,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2809,10 +2899,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3141,7 +3231,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3149,12 +3239,12 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3164,13 +3254,13 @@
         <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I12" s="5">
         <v>43920</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -3183,11 +3273,11 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
+      <c r="E13" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>38</v>
@@ -3199,7 +3289,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -3212,11 +3302,11 @@
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
+      <c r="F14" s="72" t="s">
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>38</v>
@@ -3228,7 +3318,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -3241,11 +3331,11 @@
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>38</v>
@@ -3561,7 +3651,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
@@ -3990,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>92</v>
@@ -4753,7 +4843,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>143</v>
       </c>
@@ -4780,7 +4870,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="59" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>143</v>
       </c>
@@ -4794,19 +4884,19 @@
         <v>148</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4823,7 +4913,7 @@
         <v>150</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
@@ -4852,7 +4942,7 @@
         <v>150</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -5171,7 +5261,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>14</v>
@@ -5194,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>162</v>
@@ -5244,7 +5334,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>178</v>
       </c>
@@ -5255,7 +5345,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="6"/>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="21" t="s">
         <v>179</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -5271,7 +5361,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>178</v>
       </c>
@@ -5282,7 +5372,7 @@
         <v>35</v>
       </c>
       <c r="D86" s="6"/>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="21" t="s">
         <v>182</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -5298,7 +5388,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
@@ -5309,7 +5399,7 @@
         <v>11</v>
       </c>
       <c r="D87" s="6"/>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="21" t="s">
         <v>183</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -5325,7 +5415,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>178</v>
       </c>
@@ -5336,7 +5426,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="6"/>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -5352,7 +5442,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>178</v>
       </c>
@@ -5363,7 +5453,7 @@
         <v>35</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="21" t="s">
         <v>185</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -5379,7 +5469,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -5390,7 +5480,7 @@
         <v>35</v>
       </c>
       <c r="D90" s="6"/>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -5683,10 +5773,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="72" t="s">
+      <c r="C101" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="D101" s="73"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="2" t="s">
         <v>210</v>
       </c>
@@ -5732,7 +5822,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -5759,7 +5849,7 @@
     </row>
     <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5786,7 +5876,7 @@
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
@@ -5813,7 +5903,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
@@ -5840,7 +5930,7 @@
     </row>
     <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5867,7 +5957,7 @@
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
@@ -5894,7 +5984,7 @@
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
@@ -5921,7 +6011,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
@@ -6151,7 +6241,7 @@
         <v>246</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>14</v>
@@ -6267,7 +6357,7 @@
         <v>255</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
@@ -6293,22 +6383,22 @@
         <v>24</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E123" s="46" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I123" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -6322,22 +6412,22 @@
         <v>59</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -6351,22 +6441,22 @@
         <v>59</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -6380,22 +6470,22 @@
         <v>258</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -6409,22 +6499,22 @@
         <v>35</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E127" s="46" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -6514,36 +6604,36 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:9" s="73" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>261</v>
+      <c r="B131" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="72" t="s">
+        <v>299</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>264</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F131" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F131" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>247</v>
+      <c r="G131" s="72" t="s">
+        <v>712</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I131" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>241</v>
       </c>
@@ -6551,16 +6641,16 @@
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>524</v>
+        <v>265</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>247</v>
@@ -6572,7 +6662,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>241</v>
       </c>
@@ -6580,16 +6670,16 @@
         <v>10</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>538</v>
+        <v>266</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>247</v>
@@ -6601,7 +6691,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>241</v>
       </c>
@@ -6609,16 +6699,16 @@
         <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>72</v>
+        <v>534</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>270</v>
+        <v>515</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>247</v>
@@ -6630,21 +6720,21 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C135" s="25" t="s">
-        <v>444</v>
+      <c r="C135" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>14</v>
@@ -6659,24 +6749,24 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>35</v>
+      <c r="C136" s="25" t="s">
+        <v>440</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>247</v>
@@ -6688,21 +6778,21 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="41" t="s">
-        <v>11</v>
+      <c r="C137" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>23</v>
@@ -6717,21 +6807,21 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>59</v>
+      <c r="C138" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>23</v>
@@ -6746,7 +6836,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>241</v>
       </c>
@@ -6757,13 +6847,13 @@
         <v>59</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>247</v>
@@ -6775,31 +6865,33 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="2" t="s">
-        <v>282</v>
+        <v>59</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>280</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="I140" s="7">
-        <v>43913</v>
+        <v>248</v>
+      </c>
+      <c r="I140" s="4">
+        <v>43927</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
@@ -6810,11 +6902,11 @@
         <v>10</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>14</v>
@@ -6837,11 +6929,11 @@
         <v>10</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>14</v>
@@ -6863,12 +6955,12 @@
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C143" s="20" t="s">
-        <v>434</v>
+      <c r="C143" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>14</v>
@@ -6890,12 +6982,12 @@
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>238</v>
+      <c r="C144" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>14</v>
@@ -6918,11 +7010,11 @@
         <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>14</v>
@@ -6945,22 +7037,20 @@
         <v>10</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D146" s="6"/>
       <c r="E146" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I146" s="7">
         <v>43913</v>
@@ -6974,13 +7064,13 @@
         <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>23</v>
@@ -7006,10 +7096,10 @@
         <v>35</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>23</v>
@@ -7032,16 +7122,16 @@
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>293</v>
@@ -7061,16 +7151,16 @@
         <v>10</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>293</v>
@@ -7090,16 +7180,16 @@
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>293</v>
@@ -7111,33 +7201,33 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>483</v>
+        <v>304</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="I152" s="7">
-        <v>43920</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -7148,16 +7238,16 @@
         <v>10</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>308</v>
@@ -7169,7 +7259,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>306</v>
       </c>
@@ -7177,16 +7267,16 @@
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>308</v>
@@ -7206,13 +7296,13 @@
         <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>23</v>
@@ -7227,7 +7317,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>306</v>
       </c>
@@ -7235,16 +7325,16 @@
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>308</v>
@@ -7256,21 +7346,21 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="41" t="s">
-        <v>11</v>
+      <c r="C157" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>14</v>
@@ -7285,7 +7375,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>306</v>
       </c>
@@ -7299,7 +7389,7 @@
         <v>307</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>14</v>
@@ -7314,24 +7404,24 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>172</v>
+      <c r="C159" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>310</v>
+        <v>484</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>308</v>
@@ -7343,36 +7433,36 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I160" s="10">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="I160" s="7">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>311</v>
       </c>
@@ -7386,7 +7476,7 @@
         <v>312</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>14</v>
@@ -7415,7 +7505,7 @@
         <v>312</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>14</v>
@@ -7430,7 +7520,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>311</v>
       </c>
@@ -7444,7 +7534,7 @@
         <v>312</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>14</v>
@@ -7459,7 +7549,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>311</v>
       </c>
@@ -7473,7 +7563,7 @@
         <v>312</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>14</v>
@@ -7488,7 +7578,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>311</v>
       </c>
@@ -7499,68 +7589,68 @@
         <v>55</v>
       </c>
       <c r="D165" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I165" s="10">
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E166" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="F166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H166" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I166" s="4">
         <v>43932</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>659</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I166" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>57</v>
+      <c r="C167" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>14</v>
@@ -7575,7 +7665,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>325</v>
       </c>
@@ -7583,13 +7673,13 @@
         <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>688</v>
+        <v>328</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>14</v>
@@ -7604,7 +7694,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>325</v>
       </c>
@@ -7612,13 +7702,13 @@
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>14</v>
@@ -7633,7 +7723,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>325</v>
       </c>
@@ -7641,13 +7731,13 @@
         <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>14</v>
@@ -7662,7 +7752,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>325</v>
       </c>
@@ -7676,7 +7766,7 @@
         <v>326</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>14</v>
@@ -7691,7 +7781,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>325</v>
       </c>
@@ -7699,13 +7789,13 @@
         <v>10</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>14</v>
@@ -7720,7 +7810,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>325</v>
       </c>
@@ -7728,13 +7818,13 @@
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>14</v>
@@ -7749,7 +7839,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>325</v>
       </c>
@@ -7757,16 +7847,16 @@
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>326</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>329</v>
+        <v>654</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>314</v>
@@ -7780,34 +7870,34 @@
     </row>
     <row r="175" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="I175" s="4">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="I175" s="7">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>111</v>
       </c>
@@ -7815,16 +7905,16 @@
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>332</v>
@@ -7836,7 +7926,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>111</v>
       </c>
@@ -7844,16 +7934,16 @@
         <v>10</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>332</v>
@@ -7865,79 +7955,79 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I178" s="4">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="73" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="B179" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="D179" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I178" s="4">
-        <v>43925</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>338</v>
+      <c r="E179" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="F179" s="72" t="s">
+        <v>696</v>
+      </c>
+      <c r="G179" s="72" t="s">
+        <v>698</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I179" s="4">
-        <v>43925</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>55</v>
+      <c r="C180" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>342</v>
+      <c r="E180" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>14</v>
@@ -7952,7 +8042,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>337</v>
       </c>
@@ -7960,13 +8050,13 @@
         <v>10</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>343</v>
+        <v>55</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>344</v>
+      <c r="E181" s="21" t="s">
+        <v>341</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>14</v>
@@ -7981,7 +8071,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>337</v>
       </c>
@@ -7989,13 +8079,13 @@
         <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>345</v>
+      <c r="E182" s="21" t="s">
+        <v>342</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>14</v>
@@ -8010,7 +8100,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>337</v>
       </c>
@@ -8018,13 +8108,13 @@
         <v>10</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>346</v>
+      <c r="E183" s="21" t="s">
+        <v>692</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>14</v>
@@ -8039,7 +8129,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>337</v>
       </c>
@@ -8047,13 +8137,13 @@
         <v>10</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>347</v>
+      <c r="E184" s="21" t="s">
+        <v>344</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>14</v>
@@ -8068,7 +8158,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>337</v>
       </c>
@@ -8081,8 +8171,8 @@
       <c r="D185" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>348</v>
+      <c r="E185" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>14</v>
@@ -8097,7 +8187,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>337</v>
       </c>
@@ -8105,13 +8195,13 @@
         <v>10</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>349</v>
+      <c r="E186" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>14</v>
@@ -8126,7 +8216,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>337</v>
       </c>
@@ -8134,13 +8224,13 @@
         <v>10</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>350</v>
+      <c r="E187" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>14</v>
@@ -8155,7 +8245,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>337</v>
       </c>
@@ -8163,13 +8253,13 @@
         <v>10</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>351</v>
+      <c r="E188" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>14</v>
@@ -8184,7 +8274,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>337</v>
       </c>
@@ -8197,8 +8287,8 @@
       <c r="D189" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>352</v>
+      <c r="E189" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>14</v>
@@ -8213,7 +8303,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>337</v>
       </c>
@@ -8226,11 +8316,11 @@
       <c r="D190" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>353</v>
+      <c r="E190" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>338</v>
@@ -8242,21 +8332,21 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C191" s="41" t="s">
-        <v>11</v>
+      <c r="C191" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>354</v>
+      <c r="E191" s="21" t="s">
+        <v>351</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>14</v>
@@ -8271,24 +8361,24 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C192" s="41" t="s">
-        <v>11</v>
+      <c r="C192" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>355</v>
+      <c r="E192" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>338</v>
@@ -8300,21 +8390,21 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>238</v>
+      <c r="C193" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>356</v>
+      <c r="E193" s="21" t="s">
+        <v>693</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>14</v>
@@ -8329,88 +8419,88 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B194" s="11" t="s">
+    <row r="194" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>359</v>
+      <c r="D194" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>694</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="H194" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I194" s="13">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B195" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I194" s="4">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E195" s="12" t="s">
-        <v>363</v>
+        <v>238</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="H195" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="I195" s="13">
-        <v>43918</v>
+        <v>14</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I195" s="4">
+        <v>43925</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="11" t="s">
-        <v>35</v>
+      <c r="C196" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I196" s="13">
         <v>43918</v>
@@ -8418,28 +8508,28 @@
     </row>
     <row r="197" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="41" t="s">
-        <v>11</v>
+      <c r="C197" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D197" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>365</v>
+      <c r="E197" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I197" s="13">
         <v>43918</v>
@@ -8447,28 +8537,28 @@
     </row>
     <row r="198" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H198" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I198" s="13">
         <v>43918</v>
@@ -8476,7 +8566,7 @@
     </row>
     <row r="199" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>10</v>
@@ -8485,19 +8575,19 @@
         <v>11</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="E199" s="12" t="s">
-        <v>367</v>
+        <v>354</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I199" s="13">
         <v>43918</v>
@@ -8505,28 +8595,28 @@
     </row>
     <row r="200" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D200" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I200" s="13">
         <v>43918</v>
@@ -8534,28 +8624,28 @@
     </row>
     <row r="201" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>35</v>
+      <c r="C201" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>369</v>
+        <v>354</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I201" s="13">
         <v>43918</v>
@@ -8563,28 +8653,28 @@
     </row>
     <row r="202" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>24</v>
+      <c r="C202" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E202" s="12" t="s">
-        <v>371</v>
+        <v>358</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I202" s="13">
         <v>43918</v>
@@ -8592,28 +8682,28 @@
     </row>
     <row r="203" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C203" s="11" t="s">
-        <v>27</v>
+      <c r="C203" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>373</v>
+        <v>358</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I203" s="13">
         <v>43918</v>
@@ -8621,28 +8711,28 @@
     </row>
     <row r="204" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I204" s="13">
         <v>43918</v>
@@ -8650,7 +8740,7 @@
     </row>
     <row r="205" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>10</v>
@@ -8659,205 +8749,209 @@
         <v>27</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I205" s="4">
-        <v>43928</v>
+        <v>356</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="I205" s="13">
+        <v>43918</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C206" s="11" t="s">
-        <v>57</v>
+      <c r="C206" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E206" s="14" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I206" s="4">
-        <v>43924</v>
+        <v>356</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="I206" s="13">
+        <v>43918</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E207" s="15" t="s">
-        <v>387</v>
+      <c r="C207" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I207" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>378</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I208" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I209" s="4">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D209" s="11"/>
-      <c r="E209" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="F209" s="1" t="s">
+      <c r="D210" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I210" s="4">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D211" s="11"/>
+      <c r="E211" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G209" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="H209" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="I209" s="13" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="G211" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D210" s="16"/>
-      <c r="E210" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="F210" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H210" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="I210" s="4">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C211" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D211" s="16"/>
-      <c r="E211" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="F211" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H211" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="I211" s="4">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="22" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>14</v>
@@ -8866,25 +8960,25 @@
         <v>314</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I212" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D213" s="16"/>
-      <c r="E213" s="22" t="s">
-        <v>399</v>
+      <c r="E213" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>14</v>
@@ -8893,79 +8987,79 @@
         <v>314</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I213" s="4">
         <v>43929</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="25" t="s">
+    <row r="214" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214" s="16"/>
+      <c r="E214" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="I214" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="16"/>
+      <c r="E215" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B214" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C214" s="27" t="s">
+      <c r="F215" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="I215" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="D214" s="25"/>
-      <c r="E214" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F214" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="H214" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="I214" s="30">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="B215" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C215" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="D215" s="32"/>
-      <c r="E215" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="H215" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="I215" s="30">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="B216" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C216" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="28" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>14</v>
@@ -8974,25 +9068,25 @@
         <v>314</v>
       </c>
       <c r="H216" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I216" s="30">
         <v>43929</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C217" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D217" s="25"/>
+      <c r="C217" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D217" s="32"/>
       <c r="E217" s="28" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F217" s="26" t="s">
         <v>14</v>
@@ -9001,96 +9095,96 @@
         <v>314</v>
       </c>
       <c r="H217" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I217" s="30">
         <v>43929</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B218" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="28" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="F218" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G218" s="26" t="s">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="H218" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="I218" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="I218" s="30">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C219" s="27" t="s">
-        <v>57</v>
+      <c r="C219" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="F219" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G219" s="33" t="s">
-        <v>433</v>
+        <v>398</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="H219" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="I219" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="I219" s="30">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B220" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="F220" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" s="33" t="s">
-        <v>433</v>
+        <v>414</v>
+      </c>
+      <c r="F220" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" s="26" t="s">
+        <v>415</v>
       </c>
       <c r="H220" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I220" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B221" s="26" t="s">
         <v>10</v>
@@ -9100,24 +9194,24 @@
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="28" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F221" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H221" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I221" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B222" s="26" t="s">
         <v>10</v>
@@ -9127,24 +9221,24 @@
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="28" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F222" s="33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H222" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I222" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B223" s="26" t="s">
         <v>10</v>
@@ -9154,226 +9248,222 @@
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="28" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H223" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I223" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B224" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C224" s="34" t="s">
-        <v>35</v>
+      <c r="C224" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="28" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F224" s="33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H224" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I224" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C225" s="34" t="s">
-        <v>193</v>
+      <c r="C225" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="28" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F225" s="33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I225" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B226" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C226" s="27" t="s">
-        <v>434</v>
+      <c r="C226" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="D226" s="25"/>
-      <c r="E226" s="35" t="s">
+      <c r="E226" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="F226" s="33" t="s">
+      <c r="H226" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="I226" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B227" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D227" s="25"/>
+      <c r="E227" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="F227" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H227" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="I227" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B228" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D228" s="25"/>
+      <c r="E228" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="F228" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G226" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H226" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="I226" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="B227" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C227" s="34" t="s">
+      <c r="G228" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H228" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="I228" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D227" s="25"/>
-      <c r="E227" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="F227" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H227" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="I227" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="B228" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C228" s="34" t="s">
+      <c r="D229" s="25"/>
+      <c r="E229" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="F229" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H229" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="I229" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B230" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E228" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="F228" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G228" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H228" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="I228" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C229" s="19" t="s">
+      <c r="E230" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="F230" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H230" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="I230" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D229" s="16"/>
-      <c r="E229" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H229" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="I229" s="4">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E230" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G230" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H230" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="I230" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C231" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E231" s="17" t="s">
-        <v>618</v>
+      <c r="D231" s="16"/>
+      <c r="E231" s="22" t="s">
+        <v>416</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>14</v>
@@ -9382,27 +9472,27 @@
         <v>314</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="I231" s="7">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="I231" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="41" t="s">
-        <v>11</v>
+      <c r="C232" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E232" s="17" t="s">
-        <v>476</v>
+        <v>400</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>622</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>14</v>
@@ -9411,7 +9501,7 @@
         <v>314</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I232" s="7">
         <v>43915</v>
@@ -9419,19 +9509,19 @@
     </row>
     <row r="233" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C233" s="19" t="s">
-        <v>86</v>
+      <c r="C233" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>406</v>
+        <v>614</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>14</v>
@@ -9440,94 +9530,94 @@
         <v>314</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I233" s="7">
         <v>43915</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="11" t="s">
-        <v>407</v>
+      <c r="A234" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>35</v>
+      <c r="C234" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>23</v>
+        <v>472</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="I234" s="7">
-        <v>43917</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="11" t="s">
-        <v>407</v>
+      <c r="A235" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>52</v>
+      <c r="C235" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>23</v>
+        <v>402</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="I235" s="7">
-        <v>43917</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I236" s="7">
         <v>43917</v>
@@ -9535,28 +9625,28 @@
     </row>
     <row r="237" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E237" s="17" t="s">
         <v>408</v>
-      </c>
-      <c r="E237" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I237" s="7">
         <v>43917</v>
@@ -9564,28 +9654,28 @@
     </row>
     <row r="238" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="H238" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E238" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="H238" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="I238" s="7">
         <v>43917</v>
@@ -9593,28 +9683,28 @@
     </row>
     <row r="239" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E239" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="H239" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E239" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="H239" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="I239" s="7">
         <v>43917</v>
@@ -9622,447 +9712,453 @@
     </row>
     <row r="240" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="H240" s="18" t="s">
         <v>407</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E240" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G240" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="H240" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="I240" s="7">
         <v>43917</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B241" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C241" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D241" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E241" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="F241" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" s="39" t="s">
-        <v>439</v>
+    <row r="241" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E241" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B242" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C242" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D242" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E242" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="F242" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" s="39" t="s">
-        <v>439</v>
+        <v>407</v>
+      </c>
+      <c r="I241" s="7">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="I242" s="7">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B243" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C243" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D243" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C243" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="D243" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E243" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="F243" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="39" t="s">
-        <v>439</v>
-      </c>
       <c r="H243" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B244" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="F244" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C244" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="D244" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E244" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="F244" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="39" t="s">
-        <v>439</v>
-      </c>
       <c r="H244" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B245" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C245" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D245" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="F245" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C245" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D245" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E245" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="F245" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" s="39" t="s">
-        <v>439</v>
-      </c>
       <c r="H245" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B246" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D246" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="F246" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C246" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D246" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E246" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="F246" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" s="39" t="s">
-        <v>439</v>
-      </c>
       <c r="H246" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F247" s="38" t="s">
-        <v>449</v>
+        <v>14</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F248" s="38" t="s">
-        <v>449</v>
+        <v>14</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B249" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C249" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D249" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E249" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="F249" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G249" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="C249" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="D249" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E249" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="F249" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="G249" s="39" t="s">
-        <v>451</v>
-      </c>
       <c r="H249" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>455</v>
+        <v>193</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F250" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C251" s="25" t="s">
-        <v>24</v>
+        <v>431</v>
+      </c>
+      <c r="C251" s="39" t="s">
+        <v>449</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F251" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>24</v>
+        <v>431</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>451</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F252" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C253" s="39" t="s">
-        <v>193</v>
+        <v>431</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F253" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C254" s="39" t="s">
-        <v>462</v>
+        <v>431</v>
+      </c>
+      <c r="C254" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D254" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>464</v>
+        <v>193</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F255" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G255" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="38" t="s">
         <v>324</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10070,25 +10166,25 @@
         <v>324</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10096,25 +10192,25 @@
         <v>324</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10122,25 +10218,25 @@
         <v>324</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C259" s="39" t="s">
-        <v>193</v>
+        <v>465</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F259" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10148,25 +10244,25 @@
         <v>324</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C260" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="D260" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E260" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="F260" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G260" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H260" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="D260" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E260" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="F260" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="G260" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="H260" s="18" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10174,115 +10270,109 @@
         <v>324</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="C261" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C261" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D261" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E261" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="F261" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G261" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H261" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B262" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C262" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="D262" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E262" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="F262" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G262" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H262" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B263" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C263" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D261" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="E261" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="F261" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="G261" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="H261" s="18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B262" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C262" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D262" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E262" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="F262" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H262" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="I262" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B263" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E263" s="42" t="s">
-        <v>479</v>
-      </c>
-      <c r="F263" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H263" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="I263" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D263" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E263" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="F263" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G263" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B264" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C264" s="41" t="s">
-        <v>11</v>
+      <c r="C264" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="D264" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E264" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="F264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="H264" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="I264" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="E264" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="F264" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H264" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="I264" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36" t="s">
         <v>306</v>
       </c>
@@ -10293,27 +10383,27 @@
         <v>11</v>
       </c>
       <c r="D265" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E265" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="F265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="H265" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="I265" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="E265" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="F265" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="H265" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="I265" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B266" s="36" t="s">
         <v>10</v>
@@ -10321,113 +10411,113 @@
       <c r="C266" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D266" s="36" t="s">
-        <v>492</v>
+      <c r="D266" s="21" t="s">
+        <v>473</v>
       </c>
       <c r="E266" s="42" t="s">
-        <v>493</v>
-      </c>
-      <c r="F266" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="F266" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G266" s="36" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="H266" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="I266" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="I266" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B267" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C267" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="D267" s="36" t="s">
-        <v>492</v>
+      <c r="C267" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>473</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="F267" s="36" t="s">
-        <v>23</v>
+        <v>486</v>
+      </c>
+      <c r="F267" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="G267" s="36" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="H267" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="I267" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="I267" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
         <v>311</v>
       </c>
       <c r="B268" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C268" s="36" t="s">
-        <v>35</v>
+      <c r="C268" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D268" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F268" s="36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G268" s="36" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H268" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I268" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
         <v>311</v>
       </c>
       <c r="B269" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C269" s="36" t="s">
-        <v>35</v>
+      <c r="C269" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F269" s="36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G269" s="36" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H269" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I269" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
         <v>311</v>
       </c>
@@ -10438,22 +10528,22 @@
         <v>35</v>
       </c>
       <c r="D270" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F270" s="36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G270" s="36" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H270" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I270" s="36" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10464,28 +10554,28 @@
         <v>10</v>
       </c>
       <c r="C271" s="36" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D271" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F271" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G271" s="36" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H271" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I271" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="36" t="s">
         <v>311</v>
       </c>
@@ -10493,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="C272" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="E272" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="F272" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="H272" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="I272" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="D272" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="E272" s="42" t="s">
-        <v>498</v>
-      </c>
-      <c r="F272" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="H272" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="I272" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="36" t="s">
         <v>311</v>
       </c>
@@ -10525,25 +10615,25 @@
         <v>21</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F273" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G273" s="36" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H273" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I273" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="36" t="s">
         <v>311</v>
       </c>
@@ -10551,28 +10641,28 @@
         <v>10</v>
       </c>
       <c r="C274" s="36" t="s">
-        <v>59</v>
+        <v>498</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E274" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="F274" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="F274" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" s="36" t="s">
-        <v>504</v>
-      </c>
       <c r="H274" s="37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I274" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="36" t="s">
         <v>311</v>
       </c>
@@ -10580,81 +10670,83 @@
         <v>10</v>
       </c>
       <c r="C275" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="E275" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="F275" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="H275" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="I275" s="36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B276" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D276" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="E276" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="F276" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="H276" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="I276" s="36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="B277" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D275" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="E275" s="42" t="s">
+      <c r="D277" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="E277" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="F277" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="H277" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="F275" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="H275" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="I275" s="36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B276" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C276" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D276" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="E276" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="F276" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G276" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="H276" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="I276" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B277" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C277" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D277"/>
-      <c r="E277" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="F277" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="H277" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="I277" s="45">
-        <v>44078</v>
+      <c r="I277" s="36" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10665,140 +10757,138 @@
         <v>10</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D278"/>
+        <v>57</v>
+      </c>
+      <c r="D278" s="44" t="s">
+        <v>503</v>
+      </c>
       <c r="E278" s="42" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F278" s="36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G278" s="36" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H278" s="37" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="I278" s="43" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B279" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>434</v>
+        <v>55</v>
       </c>
       <c r="D279"/>
       <c r="E279" s="42" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F279" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G279" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="H279" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="I279" s="45">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B280" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="F280" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H280" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="I280" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B281" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="F281" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="H281" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="H279" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I279" s="43" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="D280" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="E280" s="46" t="s">
-        <v>537</v>
-      </c>
-      <c r="F280" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" s="47" t="s">
-        <v>539</v>
-      </c>
-      <c r="H280" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I280" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B281" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C281" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D281" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="E281" s="49" t="s">
-        <v>520</v>
-      </c>
-      <c r="F281" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" s="47" t="s">
-        <v>539</v>
-      </c>
-      <c r="H281" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I281" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I281" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B282" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C282" s="41" t="s">
-        <v>11</v>
+      <c r="C282" s="25" t="s">
+        <v>440</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="E282" s="49" t="s">
-        <v>521</v>
-      </c>
-      <c r="F282" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E282" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="F282" s="47" t="s">
         <v>14</v>
       </c>
       <c r="G282" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H282" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I282" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="25" t="s">
         <v>241</v>
       </c>
@@ -10809,25 +10899,25 @@
         <v>11</v>
       </c>
       <c r="D283" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E283" s="49" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G283" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H283" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="25" t="s">
         <v>241</v>
       </c>
@@ -10838,80 +10928,80 @@
         <v>11</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E284" s="49" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G284" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H284" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B285" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C285" s="25" t="s">
-        <v>261</v>
+      <c r="C285" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E285" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="F285" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="H285" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="I285" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="F285" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G285" s="47" t="s">
-        <v>539</v>
-      </c>
-      <c r="H285" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I285" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B286" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C286" s="25" t="s">
-        <v>444</v>
+      <c r="C286" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E286" s="49" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G286" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H286" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I286" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10922,25 +11012,25 @@
         <v>10</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F287" s="25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G287" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H287" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I287" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10951,126 +11041,138 @@
         <v>10</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E288" s="49" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G288" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H288" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="I288" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B289" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D289" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E289" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="F289" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="H289" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="I289" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D290" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E290" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="F290" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="H290" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="I290" s="30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="46" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B291" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D291" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="E291" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="I288" s="30" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="B289" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C289" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="D289" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="E289" s="42" t="s">
+      <c r="F291" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="H291" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="I291" s="43" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B292" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="E292" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F289" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G289" s="50" t="s">
+      <c r="F292" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="H289" s="51" t="s">
+      <c r="H292" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="I289" s="43" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B290" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C290" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="E290" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="F290" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G290" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="H290" s="53" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B291" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C291" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E291" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="F291" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G291" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="H291" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B292" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C292" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E292" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="F292" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G292" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="H292" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="52" t="s">
         <v>143</v>
       </c>
@@ -11078,22 +11180,22 @@
         <v>10</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>562</v>
+        <v>35</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F293" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G293" s="52" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="52" t="s">
         <v>143</v>
       </c>
@@ -11101,268 +11203,256 @@
         <v>10</v>
       </c>
       <c r="C294" s="44" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F294" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G294" s="52" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H294" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="52" t="s">
         <v>143</v>
       </c>
       <c r="B295" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C295" s="43" t="s">
-        <v>562</v>
+      <c r="C295" s="44" t="s">
+        <v>558</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F295" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G295" s="52" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H295" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B296" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E296" s="21" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="52" t="s">
+      <c r="F296" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G296" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="H296" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B297" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C297" s="43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E297" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="F297" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B296" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C296" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="D296" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="E296" s="42" t="s">
-        <v>590</v>
-      </c>
-      <c r="F296" s="52" t="s">
+      <c r="B298" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E298" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="F298" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G296" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="H296" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="I296" s="43" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="B297" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C297" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="D297" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="E297" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="F297" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="H297" s="68" t="s">
-        <v>633</v>
-      </c>
-      <c r="I297" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B298" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C298" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D298" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="E298" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="F298" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" s="56" t="s">
-        <v>573</v>
-      </c>
-      <c r="H298" s="57" t="s">
-        <v>572</v>
-      </c>
-      <c r="I298" t="s">
-        <v>569</v>
+      <c r="G298" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="H298" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="I298" s="43" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="B299" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="E299" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="F299" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="H299" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="I299" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B300" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D300" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="E300" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="F300" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="H300" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="I300" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B299" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C299" s="44" t="s">
+      <c r="B301" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E299" s="23" t="s">
+      <c r="E301" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="F301" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G301" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="H301" s="57" t="s">
+        <v>571</v>
+      </c>
+      <c r="I301" s="45">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>430</v>
+      </c>
+      <c r="E302" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="F302" t="s">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s">
         <v>574</v>
       </c>
-      <c r="F299" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" s="56" t="s">
+      <c r="H302" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="I302" s="57" t="s">
         <v>576</v>
       </c>
-      <c r="H299" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="I299" s="45">
-        <v>44047</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C300" t="s">
-        <v>434</v>
-      </c>
-      <c r="E300" s="23" t="s">
+    </row>
+    <row r="303" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B303" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E303" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="F303" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" s="56" t="s">
+        <v>579</v>
+      </c>
+      <c r="H303" s="55" t="s">
         <v>578</v>
       </c>
-      <c r="H300" s="57" t="s">
-        <v>579</v>
-      </c>
-      <c r="I300" s="57" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B301" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C301" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E301" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="F301" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G301" s="56" t="s">
-        <v>583</v>
-      </c>
-      <c r="H301" s="55" t="s">
-        <v>582</v>
-      </c>
-      <c r="I301" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B302" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C302" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D302" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="E302" s="42" t="s">
-        <v>585</v>
-      </c>
-      <c r="F302" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G302" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="H302" s="59" t="s">
-        <v>593</v>
-      </c>
-      <c r="I302" s="43" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B303" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C303" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="D303" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="E303" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="F303" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G303" s="58" t="s">
-        <v>592</v>
-      </c>
-      <c r="H303" s="59" t="s">
-        <v>593</v>
-      </c>
-      <c r="I303" s="43" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I303" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="58" t="s">
         <v>111</v>
       </c>
@@ -11370,25 +11460,25 @@
         <v>10</v>
       </c>
       <c r="C304" s="58" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F304" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G304" s="58" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H304" s="59" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I304" s="43" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11399,25 +11489,25 @@
         <v>10</v>
       </c>
       <c r="C305" s="58" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G305" s="58" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H305" s="59" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I305" s="43" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11428,25 +11518,25 @@
         <v>10</v>
       </c>
       <c r="C306" s="58" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G306" s="58" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H306" s="59" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I306" s="43" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11457,161 +11547,161 @@
         <v>10</v>
       </c>
       <c r="C307" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="D307" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E307" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="F307" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G307" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="H307" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="I307" s="43" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B308" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D307" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="E307" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="F307" s="60" t="s">
+      <c r="D308" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E308" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="F308" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="G307" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="H307" s="61" t="s">
-        <v>593</v>
-      </c>
-      <c r="I307" s="43" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B308" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C308" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D308" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="E308" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="F308" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G308" s="62" t="s">
-        <v>598</v>
-      </c>
-      <c r="H308" s="63" t="s">
-        <v>600</v>
+      <c r="G308" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="H308" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="I308" s="43" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B309" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C309" s="62" t="s">
-        <v>601</v>
-      </c>
-      <c r="E309" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F309" s="62" t="s">
+      <c r="A309" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B309" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="D309" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E309" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="F309" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G309" s="62" t="s">
-        <v>604</v>
-      </c>
-      <c r="H309" s="63" t="s">
-        <v>602</v>
-      </c>
-      <c r="I309" t="s">
-        <v>603</v>
+      <c r="G309" s="60" t="s">
+        <v>588</v>
+      </c>
+      <c r="H309" s="61" t="s">
+        <v>589</v>
+      </c>
+      <c r="I309" s="43" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="62" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="B310" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C310" s="62" t="s">
-        <v>434</v>
+      <c r="C310" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="D310" s="23" t="s">
+        <v>593</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F310" s="62" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G310" s="62" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="H310" s="63" t="s">
-        <v>608</v>
-      </c>
-      <c r="I310" s="63" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="62" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="B311" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C311" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D311" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E311" s="42" t="s">
-        <v>637</v>
+      <c r="C311" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="E311" s="23" t="s">
+        <v>601</v>
       </c>
       <c r="F311" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G311" s="62" t="s">
-        <v>613</v>
-      </c>
-      <c r="H311" s="64" t="s">
-        <v>611</v>
-      </c>
-      <c r="I311" s="4">
-        <v>43946</v>
+        <v>600</v>
+      </c>
+      <c r="H311" s="63" t="s">
+        <v>598</v>
+      </c>
+      <c r="I311" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="62" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="B312" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C312" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D312" s="62" t="s">
-        <v>126</v>
+      <c r="C312" s="62" t="s">
+        <v>430</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F312" s="62" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G312" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="H312" s="64" t="s">
-        <v>612</v>
-      </c>
-      <c r="I312" s="4">
-        <v>43946</v>
+        <v>603</v>
+      </c>
+      <c r="H312" s="63" t="s">
+        <v>604</v>
+      </c>
+      <c r="I312" s="63" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11622,401 +11712,401 @@
         <v>10</v>
       </c>
       <c r="C313" s="44" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D313" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="E313" s="23" t="s">
-        <v>615</v>
+      <c r="E313" s="42" t="s">
+        <v>633</v>
       </c>
       <c r="F313" s="62" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G313" s="62" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H313" s="64" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="I313" s="4">
         <v>43946</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B314" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C314" s="65" t="s">
-        <v>434</v>
+      <c r="A314" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B314" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D314" s="62" t="s">
+        <v>126</v>
       </c>
       <c r="E314" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="F314" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G314" s="65" t="s">
-        <v>607</v>
-      </c>
-      <c r="H314" s="66" t="s">
+      <c r="F314" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G314" s="62" t="s">
+        <v>610</v>
+      </c>
+      <c r="H314" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="I314" s="66" t="s">
-        <v>603</v>
+      <c r="I314" s="4">
+        <v>43946</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="65" t="s">
-        <v>407</v>
-      </c>
-      <c r="B315" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C315" s="65" t="s">
-        <v>434</v>
+      <c r="A315" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B315" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D315" s="62" t="s">
+        <v>126</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="F315" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G315" s="65" t="s">
-        <v>607</v>
-      </c>
-      <c r="H315" s="66" t="s">
-        <v>608</v>
-      </c>
-      <c r="I315" s="66" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="F315" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" s="62" t="s">
+        <v>613</v>
+      </c>
+      <c r="H315" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="I315" s="4">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="65" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B316" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C316" s="65" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F316" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G316" s="65" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I316" s="66" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="65" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="B317" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C317" s="65" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F317" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G317" s="65" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I317" s="66" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B318" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="E318" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F318" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G318" s="65" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="B318" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C318" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D318" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E318" s="43" t="s">
-        <v>622</v>
-      </c>
-      <c r="F318" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G318" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H318" s="68" t="s">
-        <v>627</v>
+      <c r="H318" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="I318" s="66" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="B319" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C319" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="D319" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E319" s="68" t="s">
-        <v>619</v>
-      </c>
-      <c r="F319" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G319" s="12" t="s">
-        <v>628</v>
-      </c>
-      <c r="H319" s="68" t="s">
-        <v>627</v>
+      <c r="A319" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B319" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="E319" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F319" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G319" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="H319" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="I319" s="66" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="67" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B320" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D320" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E320" s="68" t="s">
-        <v>620</v>
+        <v>617</v>
+      </c>
+      <c r="E320" s="43" t="s">
+        <v>618</v>
       </c>
       <c r="F320" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H320" s="68" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="67" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B321" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="D321" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E321" s="43" t="s">
-        <v>623</v>
+        <v>617</v>
+      </c>
+      <c r="E321" s="68" t="s">
+        <v>615</v>
       </c>
       <c r="F321" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H321" s="68" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="67" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B322" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C322" s="43" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D322" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="E322" s="43" t="s">
-        <v>624</v>
+        <v>617</v>
+      </c>
+      <c r="E322" s="68" t="s">
+        <v>616</v>
       </c>
       <c r="F322" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H322" s="68" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="67" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B323" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C323" s="43" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D323" s="67" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E323" s="43" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F323" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H323" s="68" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="B324" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C324" s="67" t="s">
-        <v>434</v>
-      </c>
-      <c r="D324" s="42" t="s">
-        <v>629</v>
-      </c>
-      <c r="E324" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="F324" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G324" s="67" t="s">
-        <v>632</v>
+        <v>399</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D324" s="67" t="s">
+        <v>617</v>
+      </c>
+      <c r="E324" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="F324" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G324" s="12" t="s">
+        <v>624</v>
       </c>
       <c r="H324" s="68" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="B325" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C325" s="44" t="s">
-        <v>444</v>
+        <v>399</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="D325" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E325" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F325" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G325" s="67" t="s">
-        <v>636</v>
+        <v>617</v>
+      </c>
+      <c r="E325" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="F325" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G325" s="12" t="s">
+        <v>624</v>
       </c>
       <c r="H325" s="68" t="s">
-        <v>635</v>
-      </c>
-      <c r="I325" s="45">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="47" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="67" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="B326" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="44" t="s">
-        <v>434</v>
+      <c r="C326" s="67" t="s">
+        <v>430</v>
       </c>
       <c r="D326" s="42" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E326" s="42" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F326" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G326" s="67" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="H326" s="68" t="s">
-        <v>644</v>
-      </c>
-      <c r="I326" s="43" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="67" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B327" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="D327" s="42" t="s">
-        <v>638</v>
+        <v>440</v>
+      </c>
+      <c r="D327" s="67" t="s">
+        <v>126</v>
       </c>
       <c r="E327" s="42" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F327" s="67" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G327" s="67" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="H327" s="68" t="s">
-        <v>643</v>
-      </c>
-      <c r="I327" s="43" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+      <c r="I327" s="45">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="67" t="s">
         <v>103</v>
       </c>
@@ -12024,301 +12114,313 @@
         <v>10</v>
       </c>
       <c r="C328" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D328" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="E328" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="F328" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="H328" s="68" t="s">
+        <v>640</v>
+      </c>
+      <c r="I328" s="43" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B329" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="D328" s="42" t="s">
+      <c r="D329" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="E329" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="F329" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G329" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="H329" s="68" t="s">
+        <v>639</v>
+      </c>
+      <c r="I329" s="43" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B330" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D330" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="E330" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="F330" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="H330" s="68" t="s">
         <v>638</v>
       </c>
-      <c r="E328" s="42" t="s">
-        <v>641</v>
-      </c>
-      <c r="F328" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G328" s="67" t="s">
+      <c r="I330" s="43" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B331" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D331" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="E331" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="F331" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G331" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="H331" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="I331" s="43" t="s">
         <v>648</v>
       </c>
-      <c r="H328" s="68" t="s">
-        <v>642</v>
-      </c>
-      <c r="I328" s="43" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="B329" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C329" s="67" t="s">
+    </row>
+    <row r="332" spans="1:9" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B332" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D329" s="42" t="s">
+      <c r="D332" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="E332" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="E329" s="42" t="s">
-        <v>650</v>
-      </c>
-      <c r="F329" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G329" s="67" t="s">
+      <c r="F332" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" s="69" t="s">
         <v>651</v>
       </c>
-      <c r="H329" s="68" t="s">
-        <v>649</v>
-      </c>
-      <c r="I329" s="43" t="s">
+      <c r="H332" s="70" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="B330" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C330" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D330" s="42" t="s">
-        <v>654</v>
-      </c>
-      <c r="E330" s="42" t="s">
-        <v>657</v>
-      </c>
-      <c r="F330" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" s="69" t="s">
-        <v>655</v>
-      </c>
-      <c r="H330" s="70" t="s">
-        <v>656</v>
-      </c>
-      <c r="I330" s="45">
+      <c r="I332" s="45">
         <v>44017</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B331" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C331" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="D331" s="42"/>
-      <c r="E331" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="F331" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G331" s="69" t="s">
-        <v>662</v>
-      </c>
-      <c r="H331" s="70" t="s">
-        <v>663</v>
-      </c>
-      <c r="I331" s="45">
-        <v>43956</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B332" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C332" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="E332" s="42" t="s">
-        <v>665</v>
-      </c>
-      <c r="F332" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G332" s="69" t="s">
-        <v>662</v>
-      </c>
-      <c r="H332" s="70" t="s">
-        <v>664</v>
-      </c>
-      <c r="I332" s="45">
-        <v>43956</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="69" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="B333" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C333" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D333" s="69" t="s">
-        <v>36</v>
-      </c>
+      <c r="C333" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D333" s="42"/>
       <c r="E333" s="42" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F333" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G333" s="69" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="H333" s="70" t="s">
-        <v>669</v>
-      </c>
-      <c r="I333" s="5">
-        <v>43920</v>
+        <v>659</v>
+      </c>
+      <c r="I333" s="45">
+        <v>43956</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B334" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E334" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="F334" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G334" s="69" t="s">
+        <v>658</v>
+      </c>
+      <c r="H334" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="I334" s="45">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B335" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D335" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E335" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="F335" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G335" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="H335" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="I335" s="5">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B334" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C334" s="69" t="s">
+      <c r="B336" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D334" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="E334" s="42" t="s">
+      <c r="D336" s="42" t="s">
+        <v>669</v>
+      </c>
+      <c r="E336" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="F336" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="H336" s="70" t="s">
         <v>671</v>
       </c>
-      <c r="F334" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" s="69" t="s">
+      <c r="I336" s="45">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="23" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B337" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D337" s="42" t="s">
+        <v>669</v>
+      </c>
+      <c r="E337" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="F337" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="H337" s="70" t="s">
+        <v>671</v>
+      </c>
+      <c r="I337" s="45">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B338" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D338" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="E338" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="H334" s="70" t="s">
-        <v>675</v>
-      </c>
-      <c r="I334" s="45">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" ht="23" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B335" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C335" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D335" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="E335" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="F335" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" s="69" t="s">
-        <v>674</v>
-      </c>
-      <c r="H335" s="70" t="s">
-        <v>675</v>
-      </c>
-      <c r="I335" s="45">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B336" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C336" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="D336" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="E336" s="42" t="s">
-        <v>678</v>
-      </c>
-      <c r="F336" s="69" t="s">
+      <c r="F338" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G336" s="69" t="s">
-        <v>681</v>
-      </c>
-      <c r="H336" s="70" t="s">
-        <v>680</v>
-      </c>
-      <c r="I336" s="45">
+      <c r="G338" s="69" t="s">
+        <v>677</v>
+      </c>
+      <c r="H338" s="70" t="s">
+        <v>676</v>
+      </c>
+      <c r="I338" s="45">
         <v>43835</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="B337" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C337" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D337" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="E337" s="42" t="s">
-        <v>682</v>
-      </c>
-      <c r="F337" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" s="71" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="B338" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C338" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="D338" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="E338" s="42" t="s">
-        <v>685</v>
-      </c>
-      <c r="F338" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" s="71" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="71" t="s">
         <v>325</v>
       </c>
@@ -12326,33 +12428,237 @@
         <v>10</v>
       </c>
       <c r="C339" s="71" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="D339" s="71" t="s">
         <v>326</v>
       </c>
       <c r="E339" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="F339" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" s="71" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B340" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D340" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E340" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="F340" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" s="71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B341" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D341" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E341" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="F341" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" s="71" t="s">
         <v>683</v>
       </c>
-      <c r="F339" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" s="71" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="71"/>
-      <c r="B340" s="71"/>
-      <c r="C340" s="71"/>
-      <c r="E340" s="42"/>
+    </row>
+    <row r="342" spans="1:9" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B342" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D342" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="E342" s="42" t="s">
+        <v>688</v>
+      </c>
+      <c r="F342" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" s="72" t="s">
+        <v>689</v>
+      </c>
+      <c r="H342" s="73" t="s">
+        <v>690</v>
+      </c>
+      <c r="I342" s="72" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B343" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E343" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="F343" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" s="72" t="s">
+        <v>702</v>
+      </c>
+      <c r="H343" s="73" t="s">
+        <v>703</v>
+      </c>
+      <c r="I343" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="E344" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="F344" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" s="72" t="s">
+        <v>706</v>
+      </c>
+      <c r="H344" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="I344" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B345" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="F345" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G345" s="72" t="s">
+        <v>709</v>
+      </c>
+      <c r="H345" s="73" t="s">
+        <v>710</v>
+      </c>
+      <c r="I345" s="45">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B346" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E346" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="F346" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" s="72" t="s">
+        <v>715</v>
+      </c>
+      <c r="H346" s="73" t="s">
+        <v>716</v>
+      </c>
+      <c r="I346" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B347" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D347" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="E347" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F347" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G347" s="72" t="s">
+        <v>719</v>
+      </c>
+      <c r="H347" s="73" t="s">
+        <v>718</v>
+      </c>
+      <c r="I347" t="s">
+        <v>691</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I339" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I345" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Ciudad de México"/>
-        <filter val="Guanajuato"/>
+        <filter val="Jalisco"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12478,130 +12784,130 @@
     <hyperlink ref="H122" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
     <hyperlink ref="H129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
     <hyperlink ref="H130" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="H131" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="H132" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="H133" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="H134" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="H135" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="H136" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="H137" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="H138" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="H139" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="H140" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="H141" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="H142" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="H143" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="H144" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="H145" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="H146" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="H147" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H148" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="H149" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="H150" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="H151" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="H158" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="H159" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="H160" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="H161" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="H162" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="H163" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="H164" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="H165" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="H166" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="H167" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="H168" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="H169" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="H170" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="H171" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="H172" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="H173" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="H174" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="H175" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H176" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="H177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="H178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="H179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="H180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="H181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="H182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="H183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="H184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="H185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="H186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="H187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="H188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="H189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="H190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="H191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="H192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="H193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="H194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="H195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="H196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="H197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="H198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="H199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="H200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="H201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="H202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="H203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="H204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="H205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="H206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="H208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="H210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="H211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H212" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="H213" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H214" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="H215" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="H216" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H217" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H229" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="H230" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H231" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="H232" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="H233" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="H234" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="H235" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="H236" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="H237" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="H238" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H239" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="H240" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="H241" r:id="rId212" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
-    <hyperlink ref="H242" r:id="rId213" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
-    <hyperlink ref="H243" r:id="rId214" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
-    <hyperlink ref="H244" r:id="rId215" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
-    <hyperlink ref="H245" r:id="rId216" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
-    <hyperlink ref="H246" r:id="rId217" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
-    <hyperlink ref="H247" r:id="rId218" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
-    <hyperlink ref="H248" r:id="rId219" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
-    <hyperlink ref="H249" r:id="rId220" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
-    <hyperlink ref="H250" r:id="rId221" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
-    <hyperlink ref="H251" r:id="rId222" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
-    <hyperlink ref="H252" r:id="rId223" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
-    <hyperlink ref="H253" r:id="rId224" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
-    <hyperlink ref="H254" r:id="rId225" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
-    <hyperlink ref="H255" r:id="rId226" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
-    <hyperlink ref="H256" r:id="rId227" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
-    <hyperlink ref="H257" r:id="rId228" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
-    <hyperlink ref="H258" r:id="rId229" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
-    <hyperlink ref="H259" r:id="rId230" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
-    <hyperlink ref="H260" r:id="rId231" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
-    <hyperlink ref="H261" r:id="rId232" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
-    <hyperlink ref="H157" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="H156" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H155" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H154" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H153" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H152" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H132" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H133" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H134" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H135" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H136" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H137" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H138" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="H143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="H144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="H145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="H149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="H150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="H151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="H152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="H159" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="H160" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="H161" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="H162" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="H163" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="H164" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="H165" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="H166" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="H167" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="H168" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="H169" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="H170" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="H171" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="H172" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="H173" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="H174" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="H175" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="H176" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="H177" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="H178" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="H180" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="H181" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="H182" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="H183" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="H184" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="H185" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="H186" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="H187" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="H188" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="H189" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="H190" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="H191" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="H192" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="H193" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="H194" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="H195" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="H196" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="H197" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="H198" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="H199" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="H200" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="H201" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="H202" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="H203" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="H204" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="H205" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="H206" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="H207" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E208" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="H208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="H210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="H212" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H213" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H231" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H232" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H233" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H234" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H235" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H236" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H237" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H238" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H239" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H240" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H241" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H242" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H243" r:id="rId212" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
+    <hyperlink ref="H244" r:id="rId213" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
+    <hyperlink ref="H245" r:id="rId214" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
+    <hyperlink ref="H246" r:id="rId215" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
+    <hyperlink ref="H247" r:id="rId216" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
+    <hyperlink ref="H248" r:id="rId217" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
+    <hyperlink ref="H249" r:id="rId218" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
+    <hyperlink ref="H250" r:id="rId219" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
+    <hyperlink ref="H251" r:id="rId220" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
+    <hyperlink ref="H252" r:id="rId221" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
+    <hyperlink ref="H253" r:id="rId222" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
+    <hyperlink ref="H254" r:id="rId223" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
+    <hyperlink ref="H255" r:id="rId224" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
+    <hyperlink ref="H256" r:id="rId225" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
+    <hyperlink ref="H257" r:id="rId226" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
+    <hyperlink ref="H258" r:id="rId227" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
+    <hyperlink ref="H259" r:id="rId228" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
+    <hyperlink ref="H260" r:id="rId229" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
+    <hyperlink ref="H261" r:id="rId230" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
+    <hyperlink ref="H262" r:id="rId231" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
+    <hyperlink ref="H263" r:id="rId232" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
+    <hyperlink ref="H158" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H157" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H156" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H155" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H154" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H153" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="H128" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="E69" r:id="rId240" display="https://twitter.com/hashtag/MiBecaParaEmoezar?src=hashtag_click" xr:uid="{E4C03695-50A6-3C4B-8EE4-656CCD3761A1}"/>
     <hyperlink ref="E70" r:id="rId241" display="https://twitter.com/s" xr:uid="{0038EB1C-31CD-884B-B646-5CDC2AF8E9F8}"/>
-    <hyperlink ref="H301" r:id="rId242" xr:uid="{19F6246B-E4FC-7A46-8596-F38ECF542546}"/>
+    <hyperlink ref="H303" r:id="rId242" xr:uid="{19F6246B-E4FC-7A46-8596-F38ECF542546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1463188-528F-4842-971D-EFAD1F86E163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AA803-7404-D242-A8F9-0AA554C2B3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$I$354</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="745">
   <si>
     <t>Entidad</t>
   </si>
@@ -1089,9 +1089,6 @@
     <t>https://impulsoeconomico.guanajuato.gob.mx/</t>
   </si>
   <si>
-    <t>Comerciante unidos: tiene como objetivo beneficiar a personas pertenecientes a asociaciones de comercio y servicio. La estrategia es otorgar créditos de 10,000 hasta 40,000 pesos, con una tasa de 4.8 % anual.</t>
-  </si>
-  <si>
     <t>Programa de Proyectos productivos, que tiene como objetivo apoyar con paquetes productivos básicos e indispensables que permitan iniciar, consolidar y fortalecer alguna actividad económica ya sea industrial, comercial o de servicios.</t>
   </si>
   <si>
@@ -1252,15 +1249,6 @@
   </si>
   <si>
     <t>Programa Emergente de Atención Alimentaria</t>
-  </si>
-  <si>
-    <t>Se entregarán despensas a quienes dejaron de percibir ingresos por el Covid19</t>
-  </si>
-  <si>
-    <t>Pagina web del gobierno de Colima: Gobernador anuncia inicio de Programa Emergente de Atención Alimentaria</t>
-  </si>
-  <si>
-    <t>http://www.col.gob.mx/Portal/detalle_noticia/NDAxMjM=</t>
   </si>
   <si>
     <t>Medidas fiscales</t>
@@ -2210,9 +2198,6 @@
     <t>Mensaje en cuenta del Gobernador el 1 de mayo del 2020</t>
   </si>
   <si>
-    <t>Kit de contingencia sanitaria para mercados y tianguis del estado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Programa "Mi Nómina sigue", que facilita el financiamiento de hasta 3 meses de nómina, para que las empresas puedan mantener sus empleos. </t>
   </si>
   <si>
@@ -2226,18 +2211,6 @@
   </si>
   <si>
     <t>https://impulsoeconomico.guanajuato.gob.mx/nomina-sigue.php</t>
-  </si>
-  <si>
-    <t>"Adapta tu Negocio": es un crédito para facilitar la adquisición de equipo de transporte logístico o terminales y punto de venta para las empresas o negocios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Adelante con tu Negocio": programas de créditos para apoyar a los emprendedores, MIPYMES, medianas y grandes empresas para la adquisición de capital de trabajo, materia prima, mercancías e insumos. </t>
-  </si>
-  <si>
-    <t>"Guanajuato Contigo": tiene como objetivo otorgar un plazo de gracia para el pago de capital e intereses de los créditos en Fondos Guanajuato de Financiamiento.</t>
-  </si>
-  <si>
-    <t>"Conserva tu Empleo": Tiene como objetivo facilitar financiamiento a la nómina de las empresas y negocios (personas físicas o morales) a fin de que el sector productivo mantenga la plantilla laboral.</t>
   </si>
   <si>
     <t xml:space="preserve">Apoyos para dueños de negocios catalogados como de "actividades no escenciales" disponibles al contactar con los Centros de Atención y Desarrollo empresarial para créditos ante la contingencia sanitaria ubicados en cada municipio del estado. </t>
@@ -2344,6 +2317,105 @@
   </si>
   <si>
     <t xml:space="preserve">Publicación de los protocolos de la Fase 0 del &lt;a href = "https://coronavirus.jalisco.gob.mx/reactivacion-economica/"&gt;Plan de Reactivación Económica&lt;/a&gt; el cual cuenta con medidas y lineamientos para la Industria, los Comercios y los Servicios para empezar a trabajar en la reactivación económica estatal. El regreso gradual a la reactivación entraría en marcha el 18 de mayo del 2020. </t>
+  </si>
+  <si>
+    <t>https://www.eleconomista.com.mx/estados/Guanajuato-dara-3000-mdp-adicionales-a-mipymes-20200427-0175.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampliación de la bolsa de apoyo a micro, pequeñas y medianas empresas por 3,000 MDP, iniciando a partir del 4 de mayo con créditos para la industria, el comercio y los servicios. </t>
+  </si>
+  <si>
+    <t>Programa "Adapta tu Negocio": es un crédito para facilitar la adquisición de equipo de transporte logístico o terminales y punto de venta para las empresas o negocios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa "Adelante con tu Negocio": programas de créditos para apoyar a los emprendedores, MIPYMES, medianas y grandes empresas para la adquisición de capital de trabajo, materia prima, mercancías e insumos. </t>
+  </si>
+  <si>
+    <t>Programa "Conserva tu Empleo": Tiene como objetivo facilitar financiamiento a la nómina de las empresas y negocios (personas físicas o morales) a fin de que el sector productivo mantenga la plantilla laboral.</t>
+  </si>
+  <si>
+    <t>Programa "Guanajuato Contigo": tiene como objetivo otorgar un plazo de gracia para el pago de capital e intereses de los créditos en Fondos Guanajuato de Financiamiento.</t>
+  </si>
+  <si>
+    <t>Programa "Comerciante unidos": programa que tiene como objetivo beneficiar a personas pertenecientes a asociaciones de comercio y servicio. La estrategia es otorgar créditos de 10,000 hasta 40,000 pesos, con una tasa de 4.8 % anual.</t>
+  </si>
+  <si>
+    <t>Apoyos con kits de contingencia sanitaria para mercados y tianguis del estado</t>
+  </si>
+  <si>
+    <t>Apoyo mediante el otorgamiento de los &lt;i&gt;Vales Grandeza&lt;/i&gt; para adquirir productos alimenticios.</t>
+  </si>
+  <si>
+    <t>Vales Grandeza Guanajuato Está Contigo</t>
+  </si>
+  <si>
+    <t>https://impulsoeconomico.guanajuato.gob.mx/valesgrandeza.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa &lt;i&gt;Impulso Xporta Pyme&lt;/i&gt;, plataforma para atenuar el impacto del COVID-19 sobre las empresas de Guanajuato a través de asesorías a través de formación y asesorías. </t>
+  </si>
+  <si>
+    <t>Plataforma impulso xporta</t>
+  </si>
+  <si>
+    <t>https://impulsoxportapyme.guanajuato.gob.mx/seccion/apoyos</t>
+  </si>
+  <si>
+    <t>Entrega de 664 cilindros de gas de 15 kg a las familias más vulnerables del estado, a personas con discapacidad y personas que se quedaron sin ingresos por el Covid-19</t>
+  </si>
+  <si>
+    <t>Comunicado del gobierno de colima en Twitter el 19 de mayo del 2020.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/gobiernocolima/status/1262911025415884800</t>
+  </si>
+  <si>
+    <t>19/5/2020</t>
+  </si>
+  <si>
+    <t>http://www.col.gob.mx/Portal/detalle_noticia/NDA3MDg=</t>
+  </si>
+  <si>
+    <t>"Gobierno del estado entrega despensas a 10 mil colimenses". Comunicación Oficial del gobierno del estado el 16 de mayo del 2020.</t>
+  </si>
+  <si>
+    <t>16/5/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de 29,026 despensas.a 10 mil colimenses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa de Reactivación Económica Nafin + Colima, dirigido a micro, pequeñas y medianas empresas con montos desde 200 mil hasta 5 millones de pesos a plazos de 60 meses y tasas máximas del 13.9% anual fija, con una bolsa total de 157.4 millones de pesos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa de Financiamiento a la Pequeña y Mediana Empresa Agroalimentaria y Rural (PROEM)  que otorgan créditos a través del Sefidec y FIRA. Este programa ya estaba en marcha desde inicios de año y cuenta con recursos disponibles para dotar de liquidez a empresas del sector. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto total de apoyo a empresas de 370 millones de pesos, a través del Sistema Estatal de Financiamiento para el Desarrollo (Sefidec) y FIRA. </t>
+  </si>
+  <si>
+    <t>Página del SEFIDEC</t>
+  </si>
+  <si>
+    <t>http://www.col.gob.mx/sefidec</t>
+  </si>
+  <si>
+    <t>http://www.col.gob.mx/Portal/detalle_noticia/NDA2OTc=</t>
+  </si>
+  <si>
+    <t>Comunicación oficial del gobierno del estado sobre los apoyos crediticios a empresas colimenses.</t>
+  </si>
+  <si>
+    <t>Condonación del impuesto sobre nómina correspondiente a marzo, abril y mayo. Condonación del impuesto sobre hospedaje para los meses de abril, mayo y junio, así como la ampliación del pago de este impuesto en los meses de febrero y marzo. Ampliación del plazo para el pago del holograma vehícular hasta el 31 de julio del 2020. Igualmente, se crea un micrositio para consultar otros incentivos fiscales disponible en: &lt;a href = 'http://www.dgicolima.col.gob.mx/web/decreto/reglasdecreto256' &gt;http://www.dgicolima.col.gob.mx/web/decreto/reglasdecreto256&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seplafin orienta a contribuyentes para pagos y beneficios fiscales. Comunicación oficial del gobierno de Colima el 15 de mayo del 2020. </t>
+  </si>
+  <si>
+    <t>http://www.col.gob.mx/Portal/detalle_noticia/NDA2OTU=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otorgamiento de créditos: Crédito Directo Sefidec: Crédito dirigido a las micro y pequeñas empresas con montos de 50 a 250 mil pesos, tasas de interés preferenciales, tasas premio por pago puntual y reembolso de tasas para las empresas que mantengan empleos, plazo de crédito de hasta 42 meses con 3 meses de gracia total y 3 meses de gracia de capital. Bolsa presupuestaria inicial de 12 Millones de pesos. </t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2672,6 +2744,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2899,10 +2979,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3231,7 +3311,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3239,7 +3319,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
@@ -3254,13 +3334,13 @@
         <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I12" s="5">
         <v>43920</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -3274,7 +3354,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F13" s="72" t="s">
         <v>23</v>
@@ -3289,7 +3369,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -3318,7 +3398,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -3651,7 +3731,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
@@ -4080,7 +4160,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>92</v>
@@ -4884,19 +4964,19 @@
         <v>148</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4913,7 +4993,7 @@
         <v>150</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
@@ -4942,7 +5022,7 @@
         <v>150</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -5261,7 +5341,7 @@
         <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>14</v>
@@ -5284,7 +5364,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>162</v>
@@ -5773,10 +5853,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="74" t="s">
+      <c r="C101" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="D101" s="75"/>
+      <c r="D101" s="79"/>
       <c r="E101" s="2" t="s">
         <v>210</v>
       </c>
@@ -5822,7 +5902,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -5849,7 +5929,7 @@
     </row>
     <row r="104" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5876,7 +5956,7 @@
     </row>
     <row r="105" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>10</v>
@@ -5903,7 +5983,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>10</v>
@@ -5930,7 +6010,7 @@
     </row>
     <row r="107" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5957,7 +6037,7 @@
     </row>
     <row r="108" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>10</v>
@@ -5984,7 +6064,7 @@
     </row>
     <row r="109" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>10</v>
@@ -6011,7 +6091,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="62" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>10</v>
@@ -6241,7 +6321,7 @@
         <v>246</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>14</v>
@@ -6357,7 +6437,7 @@
         <v>255</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>14</v>
@@ -6383,22 +6463,22 @@
         <v>24</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E123" s="46" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I123" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -6412,22 +6492,22 @@
         <v>59</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="31" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -6441,22 +6521,22 @@
         <v>59</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E125" s="46" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="31" customFormat="1" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -6470,22 +6550,22 @@
         <v>258</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E126" s="46" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="31" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
@@ -6499,22 +6579,22 @@
         <v>35</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E127" s="46" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
@@ -6618,19 +6698,19 @@
         <v>264</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F131" s="72" t="s">
         <v>23</v>
       </c>
       <c r="G131" s="72" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
@@ -6676,7 +6756,7 @@
         <v>267</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>14</v>
@@ -6699,13 +6779,13 @@
         <v>10</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>268</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>23</v>
@@ -6757,7 +6837,7 @@
         <v>10</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>271</v>
@@ -6983,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="2" t="s">
@@ -7244,7 +7324,7 @@
         <v>307</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>23</v>
@@ -7273,7 +7353,7 @@
         <v>307</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>14</v>
@@ -7302,7 +7382,7 @@
         <v>307</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>23</v>
@@ -7331,7 +7411,7 @@
         <v>307</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>23</v>
@@ -7360,7 +7440,7 @@
         <v>307</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>14</v>
@@ -7389,7 +7469,7 @@
         <v>307</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>14</v>
@@ -7418,7 +7498,7 @@
         <v>307</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>14</v>
@@ -7650,7 +7730,7 @@
         <v>326</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>14</v>
@@ -7679,7 +7759,7 @@
         <v>326</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>328</v>
+        <v>718</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>14</v>
@@ -7708,7 +7788,7 @@
         <v>326</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>14</v>
@@ -7737,7 +7817,7 @@
         <v>326</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>14</v>
@@ -7766,7 +7846,7 @@
         <v>326</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>14</v>
@@ -7795,7 +7875,7 @@
         <v>326</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>14</v>
@@ -7824,7 +7904,7 @@
         <v>326</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>14</v>
@@ -7853,7 +7933,7 @@
         <v>326</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>14</v>
@@ -7882,7 +7962,7 @@
         <v>326</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>23</v>
@@ -7908,19 +7988,19 @@
         <v>86</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E176" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="F176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" s="2" t="s">
+      <c r="H176" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="I176" s="4">
         <v>43928</v>
@@ -7937,19 +8017,19 @@
         <v>258</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G177" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H177" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="I177" s="4">
         <v>43928</v>
@@ -7963,22 +8043,22 @@
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E178" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E178" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="F178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G178" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H178" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="I178" s="4">
         <v>43928</v>
@@ -7986,57 +8066,57 @@
     </row>
     <row r="179" spans="1:9" s="73" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="B179" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="D179" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="B179" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="D179" s="72" t="s">
-        <v>338</v>
-      </c>
       <c r="E179" s="21" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F179" s="72" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G179" s="72" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="F180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H180" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="I180" s="4">
         <v>43925</v>
@@ -8044,7 +8124,7 @@
     </row>
     <row r="181" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>10</v>
@@ -8053,19 +8133,19 @@
         <v>55</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I181" s="4">
         <v>43925</v>
@@ -8073,7 +8153,7 @@
     </row>
     <row r="182" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>10</v>
@@ -8082,19 +8162,19 @@
         <v>55</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I182" s="4">
         <v>43925</v>
@@ -8102,28 +8182,28 @@
     </row>
     <row r="183" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E183" s="21" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I183" s="4">
         <v>43925</v>
@@ -8131,7 +8211,7 @@
     </row>
     <row r="184" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>10</v>
@@ -8140,19 +8220,19 @@
         <v>108</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I184" s="4">
         <v>43925</v>
@@ -8160,7 +8240,7 @@
     </row>
     <row r="185" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>10</v>
@@ -8169,19 +8249,19 @@
         <v>35</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I185" s="4">
         <v>43925</v>
@@ -8189,7 +8269,7 @@
     </row>
     <row r="186" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>10</v>
@@ -8198,19 +8278,19 @@
         <v>35</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I186" s="4">
         <v>43925</v>
@@ -8218,7 +8298,7 @@
     </row>
     <row r="187" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
@@ -8227,19 +8307,19 @@
         <v>35</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I187" s="4">
         <v>43925</v>
@@ -8247,7 +8327,7 @@
     </row>
     <row r="188" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>10</v>
@@ -8256,19 +8336,19 @@
         <v>24</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I188" s="4">
         <v>43925</v>
@@ -8276,7 +8356,7 @@
     </row>
     <row r="189" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
@@ -8285,19 +8365,19 @@
         <v>17</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I189" s="4">
         <v>43925</v>
@@ -8305,7 +8385,7 @@
     </row>
     <row r="190" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>10</v>
@@ -8314,19 +8394,19 @@
         <v>17</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I190" s="4">
         <v>43925</v>
@@ -8334,7 +8414,7 @@
     </row>
     <row r="191" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>10</v>
@@ -8343,19 +8423,19 @@
         <v>17</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I191" s="4">
         <v>43925</v>
@@ -8363,7 +8443,7 @@
     </row>
     <row r="192" spans="1:9" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>10</v>
@@ -8372,19 +8452,19 @@
         <v>17</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I192" s="4">
         <v>43925</v>
@@ -8392,7 +8472,7 @@
     </row>
     <row r="193" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>10</v>
@@ -8401,19 +8481,19 @@
         <v>11</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I193" s="4">
         <v>43925</v>
@@ -8421,7 +8501,7 @@
     </row>
     <row r="194" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>10</v>
@@ -8430,19 +8510,19 @@
         <v>11</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I194" s="4">
         <v>43925</v>
@@ -8450,7 +8530,7 @@
     </row>
     <row r="195" spans="1:9" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>10</v>
@@ -8459,19 +8539,19 @@
         <v>238</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I195" s="4">
         <v>43925</v>
@@ -8479,7 +8559,7 @@
     </row>
     <row r="196" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>10</v>
@@ -8488,19 +8568,19 @@
         <v>11</v>
       </c>
       <c r="D196" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E196" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G196" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H196" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H196" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I196" s="13">
         <v>43918</v>
@@ -8508,7 +8588,7 @@
     </row>
     <row r="197" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>10</v>
@@ -8517,19 +8597,19 @@
         <v>59</v>
       </c>
       <c r="D197" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E197" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>359</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G197" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H197" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H197" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I197" s="13">
         <v>43918</v>
@@ -8537,7 +8617,7 @@
     </row>
     <row r="198" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>10</v>
@@ -8546,19 +8626,19 @@
         <v>35</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G198" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H198" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H198" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I198" s="13">
         <v>43918</v>
@@ -8566,7 +8646,7 @@
     </row>
     <row r="199" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>10</v>
@@ -8575,19 +8655,19 @@
         <v>11</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G199" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H199" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H199" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I199" s="13">
         <v>43918</v>
@@ -8595,7 +8675,7 @@
     </row>
     <row r="200" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>10</v>
@@ -8604,19 +8684,19 @@
         <v>17</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G200" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H200" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H200" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I200" s="13">
         <v>43918</v>
@@ -8624,7 +8704,7 @@
     </row>
     <row r="201" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>10</v>
@@ -8633,19 +8713,19 @@
         <v>11</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G201" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H201" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H201" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I201" s="13">
         <v>43918</v>
@@ -8653,7 +8733,7 @@
     </row>
     <row r="202" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>10</v>
@@ -8662,19 +8742,19 @@
         <v>57</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G202" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H202" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H202" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I202" s="13">
         <v>43918</v>
@@ -8682,7 +8762,7 @@
     </row>
     <row r="203" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>10</v>
@@ -8691,19 +8771,19 @@
         <v>35</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G203" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H203" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H203" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I203" s="13">
         <v>43918</v>
@@ -8711,7 +8791,7 @@
     </row>
     <row r="204" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
@@ -8720,19 +8800,19 @@
         <v>24</v>
       </c>
       <c r="D204" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E204" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="E204" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G204" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H204" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I204" s="13">
         <v>43918</v>
@@ -8740,7 +8820,7 @@
     </row>
     <row r="205" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>10</v>
@@ -8749,19 +8829,19 @@
         <v>27</v>
       </c>
       <c r="D205" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E205" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>369</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G205" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H205" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I205" s="13">
         <v>43918</v>
@@ -8769,7 +8849,7 @@
     </row>
     <row r="206" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>10</v>
@@ -8778,19 +8858,19 @@
         <v>55</v>
       </c>
       <c r="D206" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E206" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="E206" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G206" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H206" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="I206" s="13">
         <v>43918</v>
@@ -8798,7 +8878,7 @@
     </row>
     <row r="207" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>10</v>
@@ -8807,19 +8887,19 @@
         <v>27</v>
       </c>
       <c r="D207" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E207" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E207" s="12" t="s">
+      <c r="F207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" s="12" t="s">
+      <c r="H207" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="I207" s="4">
         <v>43928</v>
@@ -8827,7 +8907,7 @@
     </row>
     <row r="208" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>10</v>
@@ -8836,27 +8916,27 @@
         <v>57</v>
       </c>
       <c r="D208" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E208" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E208" s="14" t="s">
+      <c r="F208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" s="12" t="s">
+      <c r="H208" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="H208" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="I208" s="4">
         <v>43924</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>10</v>
@@ -8865,27 +8945,27 @@
         <v>55</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E209" s="15" t="s">
-        <v>383</v>
+        <v>733</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>384</v>
+        <v>731</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I209" s="4">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>10</v>
@@ -8894,19 +8974,19 @@
         <v>35</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E210" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I210" s="4">
         <v>43923</v>
@@ -8914,7 +8994,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>10</v>
@@ -8924,24 +9004,24 @@
       </c>
       <c r="D211" s="11"/>
       <c r="E211" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I211" s="13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B212" s="11" t="s">
         <v>10</v>
@@ -8951,7 +9031,7 @@
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>14</v>
@@ -8960,7 +9040,7 @@
         <v>314</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I212" s="4">
         <v>43929</v>
@@ -8968,7 +9048,7 @@
     </row>
     <row r="213" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>10</v>
@@ -8978,7 +9058,7 @@
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>14</v>
@@ -8987,7 +9067,7 @@
         <v>314</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I213" s="4">
         <v>43929</v>
@@ -8995,7 +9075,7 @@
     </row>
     <row r="214" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B214" s="11" t="s">
         <v>10</v>
@@ -9005,7 +9085,7 @@
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>14</v>
@@ -9014,7 +9094,7 @@
         <v>314</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I214" s="4">
         <v>43929</v>
@@ -9022,7 +9102,7 @@
     </row>
     <row r="215" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>10</v>
@@ -9032,7 +9112,7 @@
       </c>
       <c r="D215" s="16"/>
       <c r="E215" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>14</v>
@@ -9041,7 +9121,7 @@
         <v>314</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I215" s="4">
         <v>43929</v>
@@ -9049,7 +9129,7 @@
     </row>
     <row r="216" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B216" s="26" t="s">
         <v>10</v>
@@ -9059,7 +9139,7 @@
       </c>
       <c r="D216" s="25"/>
       <c r="E216" s="28" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F216" s="26" t="s">
         <v>14</v>
@@ -9068,7 +9148,7 @@
         <v>314</v>
       </c>
       <c r="H216" s="29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I216" s="30">
         <v>43929</v>
@@ -9076,7 +9156,7 @@
     </row>
     <row r="217" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>10</v>
@@ -9086,7 +9166,7 @@
       </c>
       <c r="D217" s="32"/>
       <c r="E217" s="28" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F217" s="26" t="s">
         <v>14</v>
@@ -9095,7 +9175,7 @@
         <v>314</v>
       </c>
       <c r="H217" s="29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I217" s="30">
         <v>43929</v>
@@ -9103,7 +9183,7 @@
     </row>
     <row r="218" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B218" s="26" t="s">
         <v>10</v>
@@ -9113,7 +9193,7 @@
       </c>
       <c r="D218" s="25"/>
       <c r="E218" s="28" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F218" s="26" t="s">
         <v>14</v>
@@ -9122,7 +9202,7 @@
         <v>314</v>
       </c>
       <c r="H218" s="29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I218" s="30">
         <v>43929</v>
@@ -9130,17 +9210,17 @@
     </row>
     <row r="219" spans="1:9" s="31" customFormat="1" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="28" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F219" s="26" t="s">
         <v>14</v>
@@ -9149,7 +9229,7 @@
         <v>314</v>
       </c>
       <c r="H219" s="29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I219" s="30">
         <v>43929</v>
@@ -9157,7 +9237,7 @@
     </row>
     <row r="220" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B220" s="26" t="s">
         <v>10</v>
@@ -9167,24 +9247,24 @@
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="28" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F220" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G220" s="26" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H220" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I220" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="221" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B221" s="26" t="s">
         <v>10</v>
@@ -9194,24 +9274,24 @@
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F221" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H221" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I221" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="222" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B222" s="26" t="s">
         <v>10</v>
@@ -9221,24 +9301,24 @@
       </c>
       <c r="D222" s="25"/>
       <c r="E222" s="28" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F222" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H222" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I222" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B223" s="26" t="s">
         <v>10</v>
@@ -9248,24 +9328,24 @@
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="28" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H223" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I223" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B224" s="26" t="s">
         <v>10</v>
@@ -9275,24 +9355,24 @@
       </c>
       <c r="D224" s="25"/>
       <c r="E224" s="28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H224" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I224" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B225" s="26" t="s">
         <v>10</v>
@@ -9302,24 +9382,24 @@
       </c>
       <c r="D225" s="25"/>
       <c r="E225" s="28" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F225" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H225" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I225" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B226" s="26" t="s">
         <v>10</v>
@@ -9329,24 +9409,24 @@
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="28" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F226" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H226" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I226" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B227" s="26" t="s">
         <v>10</v>
@@ -9356,51 +9436,51 @@
       </c>
       <c r="D227" s="25"/>
       <c r="E227" s="28" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F227" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G227" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I227" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" spans="1:9" s="31" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B228" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D228" s="25"/>
       <c r="E228" s="35" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F228" s="33" t="s">
         <v>29</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H228" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I228" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="229" spans="1:9" s="31" customFormat="1" ht="71" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B229" s="26" t="s">
         <v>10</v>
@@ -9410,24 +9490,24 @@
       </c>
       <c r="D229" s="25"/>
       <c r="E229" s="35" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F229" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G229" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H229" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I229" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="230" spans="1:9" s="31" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B230" s="26" t="s">
         <v>10</v>
@@ -9436,24 +9516,24 @@
         <v>108</v>
       </c>
       <c r="E230" s="35" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F230" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G230" s="33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H230" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I230" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>10</v>
@@ -9463,7 +9543,7 @@
       </c>
       <c r="D231" s="16"/>
       <c r="E231" s="22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>14</v>
@@ -9472,7 +9552,7 @@
         <v>314</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I231" s="4">
         <v>43929</v>
@@ -9480,7 +9560,7 @@
     </row>
     <row r="232" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>10</v>
@@ -9489,10 +9569,10 @@
         <v>86</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>14</v>
@@ -9501,7 +9581,7 @@
         <v>314</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I232" s="7">
         <v>43915</v>
@@ -9509,7 +9589,7 @@
     </row>
     <row r="233" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>10</v>
@@ -9518,10 +9598,10 @@
         <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>14</v>
@@ -9530,7 +9610,7 @@
         <v>314</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I233" s="7">
         <v>43915</v>
@@ -9538,7 +9618,7 @@
     </row>
     <row r="234" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>10</v>
@@ -9547,10 +9627,10 @@
         <v>11</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>14</v>
@@ -9559,7 +9639,7 @@
         <v>314</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I234" s="7">
         <v>43915</v>
@@ -9567,7 +9647,7 @@
     </row>
     <row r="235" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>10</v>
@@ -9576,10 +9656,10 @@
         <v>86</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F235" s="11" t="s">
         <v>14</v>
@@ -9588,7 +9668,7 @@
         <v>314</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I235" s="7">
         <v>43915</v>
@@ -9596,7 +9676,7 @@
     </row>
     <row r="236" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>10</v>
@@ -9605,19 +9685,19 @@
         <v>35</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I236" s="7">
         <v>43917</v>
@@ -9625,7 +9705,7 @@
     </row>
     <row r="237" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>10</v>
@@ -9634,19 +9714,19 @@
         <v>52</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E237" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="E237" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I237" s="7">
         <v>43917</v>
@@ -9654,7 +9734,7 @@
     </row>
     <row r="238" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B238" s="11" t="s">
         <v>10</v>
@@ -9663,19 +9743,19 @@
         <v>172</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I238" s="7">
         <v>43917</v>
@@ -9683,7 +9763,7 @@
     </row>
     <row r="239" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>10</v>
@@ -9692,19 +9772,19 @@
         <v>35</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I239" s="7">
         <v>43917</v>
@@ -9712,7 +9792,7 @@
     </row>
     <row r="240" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>10</v>
@@ -9721,19 +9801,19 @@
         <v>59</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I240" s="7">
         <v>43917</v>
@@ -9741,7 +9821,7 @@
     </row>
     <row r="241" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>10</v>
@@ -9750,19 +9830,19 @@
         <v>57</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I241" s="7">
         <v>43917</v>
@@ -9770,7 +9850,7 @@
     </row>
     <row r="242" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B242" s="11" t="s">
         <v>10</v>
@@ -9779,19 +9859,19 @@
         <v>57</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I242" s="7">
         <v>43917</v>
@@ -9802,25 +9882,25 @@
         <v>324</v>
       </c>
       <c r="B243" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C243" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="D243" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="C243" s="39" t="s">
+      <c r="H243" s="18" t="s">
         <v>432</v>
-      </c>
-      <c r="D243" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="E243" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="F243" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="H243" s="18" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9828,25 +9908,25 @@
         <v>324</v>
       </c>
       <c r="B244" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="F244" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="C244" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="D244" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="E244" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="F244" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="39" t="s">
-        <v>435</v>
-      </c>
       <c r="H244" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9854,25 +9934,25 @@
         <v>324</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>261</v>
       </c>
       <c r="D245" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F245" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G245" s="39" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9880,25 +9960,25 @@
         <v>324</v>
       </c>
       <c r="B246" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D246" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="F246" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="C246" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="D246" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="E246" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="F246" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" s="39" t="s">
-        <v>435</v>
-      </c>
       <c r="H246" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9906,25 +9986,25 @@
         <v>324</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F247" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G247" s="39" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9932,25 +10012,25 @@
         <v>324</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D248" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F248" s="38" t="s">
         <v>14</v>
       </c>
       <c r="G248" s="39" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9958,25 +10038,25 @@
         <v>324</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C249" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E249" s="40" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F249" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G249" s="39" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9984,25 +10064,25 @@
         <v>324</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C250" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E250" s="40" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F250" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G250" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10010,25 +10090,25 @@
         <v>324</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D251" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F251" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G251" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10036,25 +10116,25 @@
         <v>324</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D252" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F252" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G252" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10062,25 +10142,25 @@
         <v>324</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E253" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F253" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G253" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10088,25 +10168,25 @@
         <v>324</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D254" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E254" s="40" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F254" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G254" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10114,25 +10194,25 @@
         <v>324</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C255" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F255" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G255" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10140,25 +10220,25 @@
         <v>324</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F256" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G256" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10166,25 +10246,25 @@
         <v>324</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D257" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E257" s="40" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F257" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10192,25 +10272,25 @@
         <v>324</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F258" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10218,25 +10298,25 @@
         <v>324</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C259" s="39" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F259" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G259" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10244,25 +10324,25 @@
         <v>324</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C260" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D260" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F260" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G260" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10270,25 +10350,25 @@
         <v>324</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C261" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F261" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G261" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10296,25 +10376,25 @@
         <v>324</v>
       </c>
       <c r="B262" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C262" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D262" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="E262" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="F262" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="G262" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="H262" s="18" t="s">
         <v>458</v>
-      </c>
-      <c r="D262" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="E262" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="F262" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="G262" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="H262" s="18" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10322,25 +10402,25 @@
         <v>324</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C263" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D263" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E263" s="40" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F263" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G263" s="39" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10354,22 +10434,22 @@
         <v>86</v>
       </c>
       <c r="D264" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E264" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="F264" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="H264" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="I264" s="43" t="s">
         <v>473</v>
-      </c>
-      <c r="E264" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="F264" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H264" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="I264" s="43" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10383,22 +10463,22 @@
         <v>11</v>
       </c>
       <c r="D265" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E265" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="F265" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="H265" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="I265" s="43" t="s">
         <v>473</v>
-      </c>
-      <c r="E265" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="F265" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H265" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="I265" s="43" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10412,22 +10492,22 @@
         <v>11</v>
       </c>
       <c r="D266" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E266" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="F266" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="H266" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="I266" s="43" t="s">
         <v>473</v>
-      </c>
-      <c r="E266" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="F266" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H266" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="I266" s="43" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="53" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10441,22 +10521,22 @@
         <v>11</v>
       </c>
       <c r="D267" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E267" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="F267" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="H267" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="I267" s="43" t="s">
         <v>473</v>
-      </c>
-      <c r="E267" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="F267" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H267" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="I267" s="43" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10470,22 +10550,22 @@
         <v>11</v>
       </c>
       <c r="D268" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F268" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G268" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H268" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I268" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10496,25 +10576,25 @@
         <v>10</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F269" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G269" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H269" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I269" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10528,22 +10608,22 @@
         <v>35</v>
       </c>
       <c r="D270" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F270" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G270" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H270" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I270" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10557,22 +10637,22 @@
         <v>35</v>
       </c>
       <c r="D271" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F271" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G271" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H271" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I271" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10586,22 +10666,22 @@
         <v>35</v>
       </c>
       <c r="D272" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="E272" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="E272" s="42" t="s">
-        <v>492</v>
-      </c>
       <c r="F272" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G272" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H272" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I272" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10615,22 +10695,22 @@
         <v>21</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F273" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G273" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H273" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I273" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10641,25 +10721,25 @@
         <v>10</v>
       </c>
       <c r="C274" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D274" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="E274" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="F274" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="H274" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="I274" s="36" t="s">
         <v>498</v>
-      </c>
-      <c r="D274" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="E274" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="F274" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="H274" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="I274" s="36" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10673,22 +10753,22 @@
         <v>21</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E275" s="42" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F275" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G275" s="36" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H275" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I275" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10702,22 +10782,22 @@
         <v>59</v>
       </c>
       <c r="D276" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E276" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="F276" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="F276" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" s="36" t="s">
-        <v>500</v>
-      </c>
       <c r="H276" s="37" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I276" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10731,22 +10811,22 @@
         <v>35</v>
       </c>
       <c r="D277" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E277" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="F277" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="H277" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="F277" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="H277" s="37" t="s">
-        <v>501</v>
-      </c>
       <c r="I277" s="36" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10760,22 +10840,22 @@
         <v>57</v>
       </c>
       <c r="D278" s="44" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E278" s="42" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F278" s="36" t="s">
         <v>23</v>
       </c>
       <c r="G278" s="36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H278" s="37" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I278" s="43" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10790,16 +10870,16 @@
       </c>
       <c r="D279"/>
       <c r="E279" s="42" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F279" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G279" s="36" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H279" s="37" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I279" s="45">
         <v>44078</v>
@@ -10817,19 +10897,19 @@
       </c>
       <c r="D280"/>
       <c r="E280" s="42" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F280" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G280" s="36" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H280" s="37" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I280" s="43" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10840,23 +10920,23 @@
         <v>10</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D281"/>
       <c r="E281" s="42" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F281" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G281" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="H281" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="H281" s="37" t="s">
-        <v>513</v>
-      </c>
       <c r="I281" s="43" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="282" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10867,25 +10947,25 @@
         <v>10</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E282" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="F282" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="H282" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="F282" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" s="47" t="s">
-        <v>535</v>
-      </c>
-      <c r="H282" s="31" t="s">
-        <v>537</v>
-      </c>
       <c r="I282" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="31" customFormat="1" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10899,22 +10979,22 @@
         <v>11</v>
       </c>
       <c r="D283" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E283" s="49" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F283" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G283" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H283" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="31" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10928,22 +11008,22 @@
         <v>11</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E284" s="49" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F284" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G284" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H284" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="31" customFormat="1" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10957,22 +11037,22 @@
         <v>11</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E285" s="49" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F285" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G285" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H285" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="31" customFormat="1" ht="41" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10986,22 +11066,22 @@
         <v>11</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E286" s="49" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F286" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G286" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H286" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I286" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11015,22 +11095,22 @@
         <v>261</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E287" s="49" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F287" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G287" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H287" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I287" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11041,25 +11121,25 @@
         <v>10</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E288" s="49" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F288" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G288" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H288" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I288" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11073,22 +11153,22 @@
         <v>86</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E289" s="49" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F289" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G289" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H289" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I289" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11099,54 +11179,54 @@
         <v>10</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E290" s="49" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F290" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G290" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H290" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I290" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="46" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="B291" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="D291" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="B291" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C291" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="D291" s="50" t="s">
-        <v>338</v>
-      </c>
       <c r="E291" s="42" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F291" s="50" t="s">
         <v>14</v>
       </c>
       <c r="G291" s="50" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H291" s="51" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I291" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11157,19 +11237,19 @@
         <v>10</v>
       </c>
       <c r="C292" s="52" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E292" s="23" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F292" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G292" s="52" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H292" s="53" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11183,16 +11263,16 @@
         <v>35</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F293" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G293" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11206,16 +11286,16 @@
         <v>227</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F294" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G294" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H294" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11226,19 +11306,19 @@
         <v>10</v>
       </c>
       <c r="C295" s="44" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F295" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G295" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11252,16 +11332,16 @@
         <v>55</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F296" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G296" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11272,19 +11352,19 @@
         <v>10</v>
       </c>
       <c r="C297" s="43" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F297" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G297" s="52" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H297" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11295,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="C298" s="52" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E298" s="42" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F298" s="52" t="s">
         <v>23</v>
       </c>
       <c r="G298" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H298" s="53" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I298" s="43" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="56" t="s">
         <v>325</v>
       </c>
@@ -11324,25 +11404,25 @@
         <v>10</v>
       </c>
       <c r="C299" s="56" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E299" s="23" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F299" s="56" t="s">
         <v>14</v>
       </c>
       <c r="G299" s="56" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H299" s="68" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I299" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11356,22 +11436,22 @@
         <v>55</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E300" s="23" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F300" s="56" t="s">
         <v>14</v>
       </c>
       <c r="G300" s="56" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H300" s="57" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I300" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11385,16 +11465,16 @@
         <v>55</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F301" s="56" t="s">
         <v>14</v>
       </c>
       <c r="G301" s="56" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H301" s="57" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I301" s="45">
         <v>44047</v>
@@ -11402,28 +11482,28 @@
     </row>
     <row r="302" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B302" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E302" s="23" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F302" t="s">
         <v>14</v>
       </c>
       <c r="G302" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H302" s="57" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I302" s="57" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="31" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11437,19 +11517,19 @@
         <v>35</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F303" s="56" t="s">
         <v>23</v>
       </c>
       <c r="G303" s="56" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H303" s="55" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I303" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="44" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11463,22 +11543,22 @@
         <v>35</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F304" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G304" s="58" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H304" s="59" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I304" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11489,25 +11569,25 @@
         <v>10</v>
       </c>
       <c r="C305" s="58" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F305" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G305" s="58" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H305" s="59" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I305" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11521,22 +11601,22 @@
         <v>57</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F306" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G306" s="58" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H306" s="59" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I306" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11547,25 +11627,25 @@
         <v>10</v>
       </c>
       <c r="C307" s="58" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D307" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E307" s="42" t="s">
         <v>580</v>
-      </c>
-      <c r="E307" s="42" t="s">
-        <v>584</v>
       </c>
       <c r="F307" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G307" s="58" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H307" s="59" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I307" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11579,22 +11659,22 @@
         <v>261</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E308" s="42" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F308" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G308" s="58" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H308" s="59" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I308" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11608,22 +11688,22 @@
         <v>261</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E309" s="42" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F309" s="60" t="s">
         <v>23</v>
       </c>
       <c r="G309" s="60" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H309" s="61" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I309" s="43" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11634,22 +11714,22 @@
         <v>10</v>
       </c>
       <c r="C310" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="D310" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="E310" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="F310" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="H310" s="63" t="s">
         <v>592</v>
-      </c>
-      <c r="D310" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="E310" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="F310" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G310" s="62" t="s">
-        <v>594</v>
-      </c>
-      <c r="H310" s="63" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11660,22 +11740,22 @@
         <v>10</v>
       </c>
       <c r="C311" s="62" t="s">
+        <v>593</v>
+      </c>
+      <c r="E311" s="23" t="s">
         <v>597</v>
-      </c>
-      <c r="E311" s="23" t="s">
-        <v>601</v>
       </c>
       <c r="F311" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G311" s="62" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H311" s="63" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I311" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11686,22 +11766,22 @@
         <v>10</v>
       </c>
       <c r="C312" s="62" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F312" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G312" s="62" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H312" s="63" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I312" s="63" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11718,16 +11798,16 @@
         <v>126</v>
       </c>
       <c r="E313" s="42" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F313" s="62" t="s">
         <v>23</v>
       </c>
       <c r="G313" s="62" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="H313" s="64" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I313" s="4">
         <v>43946</v>
@@ -11747,16 +11827,16 @@
         <v>126</v>
       </c>
       <c r="E314" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F314" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G314" s="62" t="s">
         <v>606</v>
       </c>
-      <c r="F314" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G314" s="62" t="s">
-        <v>610</v>
-      </c>
       <c r="H314" s="64" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I314" s="4">
         <v>43946</v>
@@ -11776,16 +11856,16 @@
         <v>126</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F315" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G315" s="62" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H315" s="64" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I315" s="4">
         <v>43946</v>
@@ -11799,48 +11879,48 @@
         <v>10</v>
       </c>
       <c r="C316" s="65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F316" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G316" s="65" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I316" s="66" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="65" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B317" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C317" s="65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F317" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G317" s="65" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I317" s="66" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11851,22 +11931,22 @@
         <v>10</v>
       </c>
       <c r="C318" s="65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F318" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G318" s="65" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H318" s="66" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I318" s="66" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11877,27 +11957,27 @@
         <v>10</v>
       </c>
       <c r="C319" s="65" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F319" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G319" s="65" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H319" s="66" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I319" s="66" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B320" s="12" t="s">
         <v>10</v>
@@ -11906,24 +11986,24 @@
         <v>35</v>
       </c>
       <c r="D320" s="67" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E320" s="43" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F320" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H320" s="68" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B321" s="12" t="s">
         <v>10</v>
@@ -11932,24 +12012,24 @@
         <v>258</v>
       </c>
       <c r="D321" s="67" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E321" s="68" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F321" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H321" s="68" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B322" s="12" t="s">
         <v>10</v>
@@ -11958,24 +12038,24 @@
         <v>57</v>
       </c>
       <c r="D322" s="67" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E322" s="68" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F322" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H322" s="68" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B323" s="12" t="s">
         <v>10</v>
@@ -11984,24 +12064,24 @@
         <v>24</v>
       </c>
       <c r="D323" s="67" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E323" s="43" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F323" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H323" s="68" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B324" s="12" t="s">
         <v>10</v>
@@ -12010,24 +12090,24 @@
         <v>35</v>
       </c>
       <c r="D324" s="67" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E324" s="43" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H324" s="68" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B325" s="12" t="s">
         <v>10</v>
@@ -12036,19 +12116,19 @@
         <v>30</v>
       </c>
       <c r="D325" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="E325" s="43" t="s">
         <v>617</v>
-      </c>
-      <c r="E325" s="43" t="s">
-        <v>621</v>
       </c>
       <c r="F325" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H325" s="68" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="47" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12059,22 +12139,22 @@
         <v>10</v>
       </c>
       <c r="C326" s="67" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D326" s="42" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E326" s="42" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F326" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G326" s="67" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H326" s="68" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12085,22 +12165,22 @@
         <v>10</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D327" s="67" t="s">
         <v>126</v>
       </c>
       <c r="E327" s="42" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F327" s="67" t="s">
         <v>23</v>
       </c>
       <c r="G327" s="67" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H327" s="68" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I327" s="45">
         <v>43866</v>
@@ -12114,25 +12194,25 @@
         <v>10</v>
       </c>
       <c r="C328" s="44" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D328" s="42" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E328" s="42" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F328" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G328" s="67" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H328" s="68" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I328" s="43" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12146,22 +12226,22 @@
         <v>227</v>
       </c>
       <c r="D329" s="42" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E329" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F329" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G329" s="67" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H329" s="68" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I329" s="43" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12175,22 +12255,22 @@
         <v>227</v>
       </c>
       <c r="D330" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="E330" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="F330" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" s="67" t="s">
+        <v>640</v>
+      </c>
+      <c r="H330" s="68" t="s">
         <v>634</v>
       </c>
-      <c r="E330" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="F330" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" s="67" t="s">
-        <v>644</v>
-      </c>
-      <c r="H330" s="68" t="s">
+      <c r="I330" s="43" t="s">
         <v>638</v>
-      </c>
-      <c r="I330" s="43" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12204,22 +12284,22 @@
         <v>57</v>
       </c>
       <c r="D331" s="42" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E331" s="42" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F331" s="67" t="s">
         <v>23</v>
       </c>
       <c r="G331" s="67" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H331" s="68" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I331" s="43" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12233,19 +12313,19 @@
         <v>57</v>
       </c>
       <c r="D332" s="42" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E332" s="42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F332" s="69" t="s">
         <v>14</v>
       </c>
       <c r="G332" s="69" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H332" s="70" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I332" s="45">
         <v>44017</v>
@@ -12263,16 +12343,16 @@
       </c>
       <c r="D333" s="42"/>
       <c r="E333" s="42" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F333" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G333" s="69" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H333" s="70" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I333" s="45">
         <v>43956</v>
@@ -12289,22 +12369,22 @@
         <v>30</v>
       </c>
       <c r="E334" s="42" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F334" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G334" s="69" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H334" s="70" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I334" s="45">
         <v>43956</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="69" t="s">
         <v>34</v>
       </c>
@@ -12318,16 +12398,16 @@
         <v>36</v>
       </c>
       <c r="E335" s="42" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F335" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G335" s="69" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H335" s="70" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I335" s="5">
         <v>43920</v>
@@ -12344,19 +12424,19 @@
         <v>27</v>
       </c>
       <c r="D336" s="42" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E336" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="F336" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" s="69" t="s">
+        <v>666</v>
+      </c>
+      <c r="H336" s="70" t="s">
         <v>667</v>
-      </c>
-      <c r="F336" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" s="69" t="s">
-        <v>670</v>
-      </c>
-      <c r="H336" s="70" t="s">
-        <v>671</v>
       </c>
       <c r="I336" s="45">
         <v>43926</v>
@@ -12373,19 +12453,19 @@
         <v>27</v>
       </c>
       <c r="D337" s="42" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E337" s="42" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F337" s="69" t="s">
         <v>14</v>
       </c>
       <c r="G337" s="69" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H337" s="70" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I337" s="45">
         <v>43926</v>
@@ -12399,22 +12479,22 @@
         <v>10</v>
       </c>
       <c r="C338" s="44" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D338" s="23" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E338" s="42" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F338" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G338" s="69" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H338" s="70" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I338" s="45">
         <v>43835</v>
@@ -12434,13 +12514,16 @@
         <v>326</v>
       </c>
       <c r="E339" s="42" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="F339" s="71" t="s">
         <v>14</v>
       </c>
       <c r="G339" s="71" t="s">
-        <v>680</v>
+        <v>675</v>
+      </c>
+      <c r="I339" s="45">
+        <v>44048</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12457,13 +12540,13 @@
         <v>326</v>
       </c>
       <c r="E340" s="42" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F340" s="71" t="s">
         <v>14</v>
       </c>
       <c r="G340" s="71" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12480,13 +12563,13 @@
         <v>326</v>
       </c>
       <c r="E341" s="42" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F341" s="71" t="s">
         <v>14</v>
       </c>
       <c r="G341" s="71" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12500,22 +12583,22 @@
         <v>35</v>
       </c>
       <c r="D342" s="72" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E342" s="42" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F342" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G342" s="72" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="H342" s="73" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="I342" s="72" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12529,19 +12612,19 @@
         <v>55</v>
       </c>
       <c r="E343" s="23" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F343" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G343" s="72" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="H343" s="73" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="I343" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12555,19 +12638,19 @@
         <v>299</v>
       </c>
       <c r="E344" s="23" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F344" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G344" s="72" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="H344" s="64" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="I344" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12584,22 +12667,22 @@
         <v>64</v>
       </c>
       <c r="E345" s="23" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F345" s="72" t="s">
         <v>23</v>
       </c>
       <c r="G345" s="72" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="H345" s="73" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I345" s="45">
         <v>44140</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="72" t="s">
         <v>34</v>
       </c>
@@ -12610,22 +12693,22 @@
         <v>55</v>
       </c>
       <c r="E346" s="23" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F346" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G346" s="72" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="H346" s="73" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="I346" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="72" t="s">
         <v>34</v>
       </c>
@@ -12633,32 +12716,273 @@
         <v>10</v>
       </c>
       <c r="C347" s="44" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D347" s="23" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E347" s="23" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F347" s="72" t="s">
         <v>29</v>
       </c>
       <c r="G347" s="72" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="H347" s="73" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="I347" t="s">
-        <v>691</v>
-      </c>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="B348" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D348" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="E348" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="F348" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G348" s="75" t="s">
+        <v>712</v>
+      </c>
+      <c r="I348" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="B349" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D349" s="74"/>
+      <c r="E349" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F349" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" s="74" t="s">
+        <v>721</v>
+      </c>
+      <c r="H349" s="75" t="s">
+        <v>722</v>
+      </c>
+      <c r="I349" s="45">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="B350" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" s="74" t="s">
+        <v>456</v>
+      </c>
+      <c r="E350" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="F350" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G350" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="H350" s="75" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>380</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" t="s">
+        <v>72</v>
+      </c>
+      <c r="E351" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="F351" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G351" t="s">
+        <v>727</v>
+      </c>
+      <c r="H351" s="77" t="s">
+        <v>728</v>
+      </c>
+      <c r="I351" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>380</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" t="s">
+        <v>456</v>
+      </c>
+      <c r="E352" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="F352" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G352" t="s">
+        <v>740</v>
+      </c>
+      <c r="H352" s="77" t="s">
+        <v>739</v>
+      </c>
+      <c r="I352" s="77" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" t="s">
+        <v>456</v>
+      </c>
+      <c r="E353" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="F353" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G353" s="77" t="s">
+        <v>740</v>
+      </c>
+      <c r="H353" s="77" t="s">
+        <v>739</v>
+      </c>
+      <c r="I353" s="77" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" t="s">
+        <v>24</v>
+      </c>
+      <c r="E354" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="F354" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G354" s="77" t="s">
+        <v>740</v>
+      </c>
+      <c r="H354" s="77" t="s">
+        <v>739</v>
+      </c>
+      <c r="I354" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="E355" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="F355" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G355" t="s">
+        <v>737</v>
+      </c>
+      <c r="H355" s="77" t="s">
+        <v>738</v>
+      </c>
+      <c r="I355" s="77" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="F356" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>742</v>
+      </c>
+      <c r="H356" s="77" t="s">
+        <v>743</v>
+      </c>
+      <c r="I356" s="77" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="77"/>
+      <c r="B357" s="12"/>
+      <c r="C357" s="77"/>
+      <c r="F357" s="76"/>
+    </row>
+    <row r="358" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F358" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I345" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
+  <autoFilter ref="A1:I354" xr:uid="{C3010493-C82F-BE46-AECA-DFAE9988625B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Jalisco"/>
+        <filter val="Colima"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12855,59 +13179,58 @@
     <hyperlink ref="H207" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
     <hyperlink ref="E208" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
     <hyperlink ref="H208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="H209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="H210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="H212" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="H213" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="H214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="H215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="H216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="H217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="H218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="H219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="H231" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="H232" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="H233" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="H234" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="H235" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="H236" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="H237" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="H238" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="H239" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="H240" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="H241" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="H242" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="H243" r:id="rId212" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
-    <hyperlink ref="H244" r:id="rId213" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
-    <hyperlink ref="H245" r:id="rId214" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
-    <hyperlink ref="H246" r:id="rId215" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
-    <hyperlink ref="H247" r:id="rId216" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
-    <hyperlink ref="H248" r:id="rId217" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
-    <hyperlink ref="H249" r:id="rId218" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
-    <hyperlink ref="H250" r:id="rId219" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
-    <hyperlink ref="H251" r:id="rId220" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
-    <hyperlink ref="H252" r:id="rId221" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
-    <hyperlink ref="H253" r:id="rId222" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
-    <hyperlink ref="H254" r:id="rId223" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
-    <hyperlink ref="H255" r:id="rId224" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
-    <hyperlink ref="H256" r:id="rId225" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
-    <hyperlink ref="H257" r:id="rId226" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
-    <hyperlink ref="H258" r:id="rId227" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
-    <hyperlink ref="H259" r:id="rId228" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
-    <hyperlink ref="H260" r:id="rId229" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
-    <hyperlink ref="H261" r:id="rId230" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
-    <hyperlink ref="H262" r:id="rId231" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
-    <hyperlink ref="H263" r:id="rId232" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
-    <hyperlink ref="H158" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="H157" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="H156" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="H155" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="H154" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="H153" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="H128" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E69" r:id="rId240" display="https://twitter.com/hashtag/MiBecaParaEmoezar?src=hashtag_click" xr:uid="{E4C03695-50A6-3C4B-8EE4-656CCD3761A1}"/>
-    <hyperlink ref="E70" r:id="rId241" display="https://twitter.com/s" xr:uid="{0038EB1C-31CD-884B-B646-5CDC2AF8E9F8}"/>
-    <hyperlink ref="H303" r:id="rId242" xr:uid="{19F6246B-E4FC-7A46-8596-F38ECF542546}"/>
+    <hyperlink ref="H210" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="H212" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="H213" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="H214" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="H215" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="H216" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="H217" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="H218" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H219" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="H231" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="H232" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="H233" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="H234" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="H235" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="H236" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="H237" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="H238" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="H239" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="H240" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="H241" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="H242" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="H243" r:id="rId211" xr:uid="{2DE8C71C-696A-0840-8302-4EC6F6E81277}"/>
+    <hyperlink ref="H244" r:id="rId212" xr:uid="{600159CA-9F9B-B248-B64E-B0EEE2883814}"/>
+    <hyperlink ref="H245" r:id="rId213" xr:uid="{F88E72B4-9014-0D47-928D-A258BE1AC761}"/>
+    <hyperlink ref="H246" r:id="rId214" xr:uid="{5CE41E71-0C9F-014F-A471-84186E7D553D}"/>
+    <hyperlink ref="H247" r:id="rId215" xr:uid="{4B6595BA-6BE6-1149-B40C-7461545EC320}"/>
+    <hyperlink ref="H248" r:id="rId216" xr:uid="{D0705058-1D63-B74D-9083-B7329C4F5300}"/>
+    <hyperlink ref="H249" r:id="rId217" xr:uid="{4C7AC0A0-1FAE-5B4F-BD45-EE9B5064A121}"/>
+    <hyperlink ref="H250" r:id="rId218" xr:uid="{74E2B254-1E55-754B-955C-B83D3F742D3C}"/>
+    <hyperlink ref="H251" r:id="rId219" xr:uid="{AB78D7D3-AD5E-8A45-B1BC-196D43D604CF}"/>
+    <hyperlink ref="H252" r:id="rId220" xr:uid="{9769E87C-DAE4-3B48-B45C-AA40AA689A5C}"/>
+    <hyperlink ref="H253" r:id="rId221" xr:uid="{9EE1C104-9670-5142-AEFB-EE466835675C}"/>
+    <hyperlink ref="H254" r:id="rId222" xr:uid="{8025166B-B9C0-BB40-BECE-527F98EFB85F}"/>
+    <hyperlink ref="H255" r:id="rId223" xr:uid="{44898E98-887A-224D-B959-DAE7ED20B4AD}"/>
+    <hyperlink ref="H256" r:id="rId224" xr:uid="{DC09EB89-65A0-8B43-8A32-C2A36D75A0CB}"/>
+    <hyperlink ref="H257" r:id="rId225" xr:uid="{6666904F-5CA4-CE4B-8683-A404BCD4B3A2}"/>
+    <hyperlink ref="H258" r:id="rId226" xr:uid="{25222358-496F-FF4B-9CD1-49FD77C0B1C6}"/>
+    <hyperlink ref="H259" r:id="rId227" xr:uid="{62576927-C793-AF44-9718-6BDDD68DEB6E}"/>
+    <hyperlink ref="H260" r:id="rId228" xr:uid="{5CAF06AD-E312-3544-B921-7BE6FA236243}"/>
+    <hyperlink ref="H261" r:id="rId229" xr:uid="{5137C778-49AE-084C-8671-648D27949180}"/>
+    <hyperlink ref="H262" r:id="rId230" xr:uid="{98B2EE15-990F-8240-B951-48000FEE4D80}"/>
+    <hyperlink ref="H263" r:id="rId231" xr:uid="{D7BDB594-B170-3545-BEE2-C7C7F69CE124}"/>
+    <hyperlink ref="H158" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="H157" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="H156" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="H155" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="H154" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="H153" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="H128" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E69" r:id="rId239" display="https://twitter.com/hashtag/MiBecaParaEmoezar?src=hashtag_click" xr:uid="{E4C03695-50A6-3C4B-8EE4-656CCD3761A1}"/>
+    <hyperlink ref="E70" r:id="rId240" display="https://twitter.com/s" xr:uid="{0038EB1C-31CD-884B-B646-5CDC2AF8E9F8}"/>
+    <hyperlink ref="H303" r:id="rId241" xr:uid="{19F6246B-E4FC-7A46-8596-F38ECF542546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/www/BasesDeDatos/medidas.xlsx
+++ b/www/BasesDeDatos/medidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F02B1B-598C-5C4F-9188-7651589CD058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970C16A-DD42-0844-BA11-858F01B84510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11340" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -2078,9 +2078,6 @@
     <t>http://empleo.hidalgo.gob.mx</t>
   </si>
   <si>
-    <t>Creación de la plataforma &lt;a href = 'http://empleo.hidalgo.gob.mx'&gt;compragto.com&lt;/a&gt; en la cual se estaran anunciando más de 1400 vacantes laborales disponibles inmediatas.</t>
-  </si>
-  <si>
     <t>450 millones de pesos para micro y pequeñas empresas, para otorgar créditos a tasas del 0% de 20 hasta 300 mil pesos, con plazo de pago de 24 meses con 6 meses de gracias, para empresas con máximo 15 trabajadores.</t>
   </si>
   <si>
@@ -2596,6 +2593,9 @@
   </si>
   <si>
     <t>Las personas físicas, morales o unidades económicas sujetas al pago del Impuesto sobre la Prestación de Servicios de Hospedaje, tendrán un estímulo fiscal del 100% respecto del impuesto causado en el periodo del segundo bimestre del.ejercicio fiscal 2020.</t>
+  </si>
+  <si>
+    <t>Creación de la plataforma &lt;a href = 'http://empleo.hidalgo.gob.mx'&gt;empleo.hidalgo.gob.mx&lt;/a&gt; en la cual se estaran anunciando más de 1400 vacantes laborales disponibles inmediatas.</t>
   </si>
 </sst>
 </file>
@@ -2929,10 +2929,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2942,6 +2938,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3163,8 +3163,8 @@
   </sheetPr>
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" zoomScale="190" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="C79" zoomScale="190" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3516,7 +3516,7 @@
         <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I12" s="5">
         <v>43920</v>
@@ -3536,7 +3536,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>23</v>
@@ -3594,7 +3594,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -3913,7 +3913,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>23</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="45" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="46" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="49" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="51" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -4771,16 +4771,16 @@
         <v>113</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I56" s="7">
         <v>43914</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="68" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="69" spans="1:9" ht="59" x14ac:dyDescent="0.2">
       <c r="A69" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -5146,7 +5146,7 @@
         <v>142</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
@@ -5174,8 +5174,8 @@
       <c r="D70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="79" t="s">
-        <v>803</v>
+      <c r="E70" s="77" t="s">
+        <v>802</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>23</v>
@@ -5204,7 +5204,7 @@
         <v>144</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>23</v>
@@ -5523,7 +5523,7 @@
         <v>156</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>14</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="95" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="96" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="97" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="98" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="99" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -6035,10 +6035,10 @@
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="77" t="s">
+      <c r="C101" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="78"/>
+      <c r="D101" s="81"/>
       <c r="E101" s="18" t="s">
         <v>203</v>
       </c>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="117" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>10</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="118" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>10</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="119" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>10</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="120" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="121" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>10</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="122" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A122" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="123" spans="1:9" s="28" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A123" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>10</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="124" spans="1:9" s="28" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A124" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>10</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="125" spans="1:9" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>10</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="126" spans="1:9" s="28" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A126" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>10</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="127" spans="1:9" s="28" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A127" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>10</v>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="128" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A128" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>10</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="129" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>10</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="130" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>10</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="131" spans="1:9" s="68" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B131" s="67" t="s">
         <v>10</v>
@@ -6880,24 +6880,24 @@
         <v>256</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F131" s="67" t="s">
         <v>23</v>
       </c>
       <c r="G131" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>684</v>
-      </c>
       <c r="I131" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A132" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>10</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="133" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>10</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="134" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A134" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>10</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="135" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>10</v>
@@ -6996,7 +6996,7 @@
         <v>261</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>14</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="136" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A136" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="137" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A137" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="138" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>10</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="139" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A139" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>10</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="140" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>10</v>
@@ -7941,7 +7941,7 @@
         <v>317</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>14</v>
@@ -7970,7 +7970,7 @@
         <v>317</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>14</v>
@@ -7999,7 +7999,7 @@
         <v>317</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>14</v>
@@ -8028,7 +8028,7 @@
         <v>317</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>14</v>
@@ -8057,7 +8057,7 @@
         <v>317</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>14</v>
@@ -8231,19 +8231,19 @@
         <v>326</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F178" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G178" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="H178" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="G178" s="67" t="s">
+      <c r="I178" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="80" x14ac:dyDescent="0.2">
@@ -8347,7 +8347,7 @@
         <v>326</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>14</v>
@@ -8637,7 +8637,7 @@
         <v>326</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>14</v>
@@ -8666,7 +8666,7 @@
         <v>326</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>14</v>
@@ -8695,7 +8695,7 @@
         <v>326</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>14</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="195" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>10</v>
@@ -8723,7 +8723,7 @@
       <c r="D195" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E195" s="80" t="s">
+      <c r="E195" s="78" t="s">
         <v>342</v>
       </c>
       <c r="F195" s="1" t="s">
@@ -8741,7 +8741,7 @@
     </row>
     <row r="196" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>10</v>
@@ -8752,7 +8752,7 @@
       <c r="D196" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="E196" s="80" t="s">
+      <c r="E196" s="78" t="s">
         <v>346</v>
       </c>
       <c r="F196" s="1" t="s">
@@ -8770,7 +8770,7 @@
     </row>
     <row r="197" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>10</v>
@@ -8781,7 +8781,7 @@
       <c r="D197" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E197" s="80" t="s">
+      <c r="E197" s="78" t="s">
         <v>347</v>
       </c>
       <c r="F197" s="1" t="s">
@@ -8799,7 +8799,7 @@
     </row>
     <row r="198" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>10</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="199" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>10</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="200" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>10</v>
@@ -8868,7 +8868,7 @@
       <c r="D200" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E200" s="80" t="s">
+      <c r="E200" s="78" t="s">
         <v>350</v>
       </c>
       <c r="F200" s="1" t="s">
@@ -8886,7 +8886,7 @@
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>10</v>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="202" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>10</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>10</v>
@@ -8955,7 +8955,7 @@
       <c r="D203" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="E203" s="80" t="s">
+      <c r="E203" s="78" t="s">
         <v>354</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -8973,7 +8973,7 @@
     </row>
     <row r="204" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
@@ -8984,7 +8984,7 @@
       <c r="D204" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E204" s="80" t="s">
+      <c r="E204" s="78" t="s">
         <v>356</v>
       </c>
       <c r="F204" s="1" t="s">
@@ -9002,7 +9002,7 @@
     </row>
     <row r="205" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B205" s="11" t="s">
         <v>10</v>
@@ -9013,7 +9013,7 @@
       <c r="D205" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="E205" s="80" t="s">
+      <c r="E205" s="78" t="s">
         <v>358</v>
       </c>
       <c r="F205" s="1" t="s">
@@ -9042,7 +9042,7 @@
       <c r="D206" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="E206" s="80" t="s">
+      <c r="E206" s="78" t="s">
         <v>361</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -9071,7 +9071,7 @@
       <c r="D207" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="E207" s="81" t="s">
+      <c r="E207" s="79" t="s">
         <v>365</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -9101,19 +9101,19 @@
         <v>369</v>
       </c>
       <c r="E208" s="76" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G208" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="I208" s="4" t="s">
         <v>711</v>
-      </c>
-      <c r="H208" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -9156,7 +9156,7 @@
         <v>35</v>
       </c>
       <c r="D210" s="11"/>
-      <c r="E210" s="80" t="s">
+      <c r="E210" s="78" t="s">
         <v>522</v>
       </c>
       <c r="F210" s="1" t="s">
@@ -11067,7 +11067,7 @@
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B280" s="33" t="s">
         <v>10</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="281" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B281" s="22" t="s">
         <v>10</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="282" spans="1:9" s="28" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B282" s="22" t="s">
         <v>10</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="283" spans="1:9" s="28" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B283" s="22" t="s">
         <v>10</v>
@@ -11181,7 +11181,7 @@
     </row>
     <row r="284" spans="1:9" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B284" s="22" t="s">
         <v>10</v>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="285" spans="1:9" s="28" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B285" s="22" t="s">
         <v>10</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="286" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B286" s="22" t="s">
         <v>10</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="287" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B287" s="22" t="s">
         <v>10</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="288" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B288" s="22" t="s">
         <v>10</v>
@@ -11326,7 +11326,7 @@
     </row>
     <row r="289" spans="1:9" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="73" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B289" s="22" t="s">
         <v>10</v>
@@ -11399,18 +11399,18 @@
         <v>14</v>
       </c>
       <c r="G291" s="48" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H291" s="75" t="s">
+        <v>765</v>
+      </c>
+      <c r="I291" s="39" t="s">
         <v>766</v>
-      </c>
-      <c r="I291" s="39" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B292" s="48" t="s">
         <v>10</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B293" s="48" t="s">
         <v>10</v>
@@ -11456,7 +11456,7 @@
     </row>
     <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B294" s="48" t="s">
         <v>10</v>
@@ -11479,7 +11479,7 @@
     </row>
     <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B295" s="48" t="s">
         <v>10</v>
@@ -11488,7 +11488,7 @@
         <v>53</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F295" s="48" t="s">
         <v>14</v>
@@ -11502,7 +11502,7 @@
     </row>
     <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B296" s="48" t="s">
         <v>10</v>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B299" s="51" t="s">
         <v>10</v>
@@ -11595,7 +11595,7 @@
         <v>545</v>
       </c>
       <c r="E299" s="20" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F299" s="51" t="s">
         <v>14</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="309" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B309" s="57" t="s">
         <v>10</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="317" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B317" s="60" t="s">
         <v>10</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="318" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B318" s="60" t="s">
         <v>10</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="327" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B327" s="62" t="s">
         <v>10</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="328" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B328" s="62" t="s">
         <v>10</v>
@@ -12402,7 +12402,7 @@
     </row>
     <row r="329" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B329" s="62" t="s">
         <v>10</v>
@@ -12525,7 +12525,7 @@
         <v>30</v>
       </c>
       <c r="E333" s="38" t="s">
-        <v>638</v>
+        <v>804</v>
       </c>
       <c r="F333" s="64" t="s">
         <v>23</v>
@@ -12554,16 +12554,16 @@
         <v>36</v>
       </c>
       <c r="E334" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F334" s="64" t="s">
         <v>23</v>
       </c>
       <c r="G334" s="64" t="s">
+        <v>640</v>
+      </c>
+      <c r="H334" s="65" t="s">
         <v>641</v>
-      </c>
-      <c r="H334" s="65" t="s">
-        <v>642</v>
       </c>
       <c r="I334" s="5">
         <v>43920</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="335" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B335" s="64" t="s">
         <v>10</v>
@@ -12580,19 +12580,19 @@
         <v>27</v>
       </c>
       <c r="D335" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="E335" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="F335" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G335" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="E335" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="F335" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" s="64" t="s">
+      <c r="H335" s="65" t="s">
         <v>647</v>
-      </c>
-      <c r="H335" s="65" t="s">
-        <v>648</v>
       </c>
       <c r="I335" s="41">
         <v>43926</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="336" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B336" s="64" t="s">
         <v>10</v>
@@ -12609,19 +12609,19 @@
         <v>27</v>
       </c>
       <c r="D336" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="E336" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="F336" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="E336" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="F336" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" s="64" t="s">
+      <c r="H336" s="65" t="s">
         <v>647</v>
-      </c>
-      <c r="H336" s="65" t="s">
-        <v>648</v>
       </c>
       <c r="I336" s="41">
         <v>43926</v>
@@ -12638,19 +12638,19 @@
         <v>414</v>
       </c>
       <c r="D337" s="20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F337" s="64" t="s">
         <v>23</v>
       </c>
       <c r="G337" s="64" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H337" s="65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I337" s="41">
         <v>43835</v>
@@ -12670,13 +12670,13 @@
         <v>317</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F338" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G338" s="66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I338" s="41">
         <v>44048</v>
@@ -12696,13 +12696,13 @@
         <v>317</v>
       </c>
       <c r="E339" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="F339" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" s="66" t="s">
         <v>657</v>
-      </c>
-      <c r="F339" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" s="66" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12719,13 +12719,13 @@
         <v>317</v>
       </c>
       <c r="E340" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F340" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G340" s="66" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -12742,19 +12742,19 @@
         <v>472</v>
       </c>
       <c r="E341" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F341" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" s="67" t="s">
         <v>660</v>
       </c>
-      <c r="F341" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" s="67" t="s">
+      <c r="H341" s="68" t="s">
         <v>661</v>
       </c>
-      <c r="H341" s="68" t="s">
+      <c r="I341" s="67" t="s">
         <v>662</v>
-      </c>
-      <c r="I341" s="67" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12768,24 +12768,24 @@
         <v>53</v>
       </c>
       <c r="E342" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="F342" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="F342" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" s="67" t="s">
+      <c r="H342" s="68" t="s">
         <v>674</v>
       </c>
-      <c r="H342" s="68" t="s">
+      <c r="I342" t="s">
         <v>675</v>
-      </c>
-      <c r="I342" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B343" s="67" t="s">
         <v>10</v>
@@ -12794,19 +12794,19 @@
         <v>290</v>
       </c>
       <c r="E343" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="F343" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="F343" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G343" s="67" t="s">
+      <c r="H343" s="59" t="s">
         <v>678</v>
       </c>
-      <c r="H343" s="59" t="s">
-        <v>679</v>
-      </c>
       <c r="I343" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12823,16 +12823,16 @@
         <v>62</v>
       </c>
       <c r="E344" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F344" s="67" t="s">
         <v>23</v>
       </c>
       <c r="G344" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="H344" s="68" t="s">
         <v>681</v>
-      </c>
-      <c r="H344" s="68" t="s">
-        <v>682</v>
       </c>
       <c r="I344" s="41">
         <v>44140</v>
@@ -12849,16 +12849,16 @@
         <v>53</v>
       </c>
       <c r="E345" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="F345" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="F345" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G345" s="67" t="s">
+      <c r="H345" s="68" t="s">
         <v>686</v>
-      </c>
-      <c r="H345" s="68" t="s">
-        <v>687</v>
       </c>
       <c r="I345" t="s">
         <v>486</v>
@@ -12875,22 +12875,22 @@
         <v>414</v>
       </c>
       <c r="D346" s="20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E346" s="20" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F346" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G346" s="67" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H346" s="68" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I346" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12907,13 +12907,13 @@
         <v>317</v>
       </c>
       <c r="E347" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F347" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G347" s="70" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I347" t="s">
         <v>625</v>
@@ -12931,16 +12931,16 @@
       </c>
       <c r="D348" s="69"/>
       <c r="E348" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="F348" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" s="69" t="s">
         <v>700</v>
       </c>
-      <c r="F348" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G348" s="69" t="s">
+      <c r="H348" s="70" t="s">
         <v>701</v>
-      </c>
-      <c r="H348" s="70" t="s">
-        <v>702</v>
       </c>
       <c r="I348" s="41">
         <v>43987</v>
@@ -12957,16 +12957,16 @@
         <v>444</v>
       </c>
       <c r="E349" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F349" s="69" t="s">
         <v>23</v>
       </c>
       <c r="G349" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="H349" s="70" t="s">
         <v>704</v>
-      </c>
-      <c r="H349" s="70" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12980,19 +12980,19 @@
         <v>70</v>
       </c>
       <c r="E350" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="F350" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s">
         <v>706</v>
       </c>
-      <c r="F350" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G350" t="s">
+      <c r="H350" s="72" t="s">
         <v>707</v>
       </c>
-      <c r="H350" s="72" t="s">
+      <c r="I350" t="s">
         <v>708</v>
-      </c>
-      <c r="I350" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13006,19 +13006,19 @@
         <v>444</v>
       </c>
       <c r="E351" s="20" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F351" s="71" t="s">
         <v>23</v>
       </c>
       <c r="G351" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H351" s="72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I351" s="72" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13032,19 +13032,19 @@
         <v>444</v>
       </c>
       <c r="E352" s="20" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F352" s="71" t="s">
         <v>23</v>
       </c>
       <c r="G352" s="72" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H352" s="72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I352" s="72" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13058,19 +13058,19 @@
         <v>24</v>
       </c>
       <c r="E353" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F353" s="71" t="s">
         <v>23</v>
       </c>
       <c r="G353" s="72" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H353" s="72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I353" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13084,19 +13084,19 @@
         <v>414</v>
       </c>
       <c r="E354" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F354" s="71" t="s">
         <v>23</v>
       </c>
       <c r="G354" t="s">
+        <v>716</v>
+      </c>
+      <c r="H354" s="72" t="s">
         <v>717</v>
       </c>
-      <c r="H354" s="72" t="s">
-        <v>718</v>
-      </c>
       <c r="I354" s="72" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13110,19 +13110,19 @@
         <v>11</v>
       </c>
       <c r="E355" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F355" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s">
         <v>721</v>
       </c>
-      <c r="F355" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G355" t="s">
+      <c r="H355" s="72" t="s">
         <v>722</v>
       </c>
-      <c r="H355" s="72" t="s">
-        <v>723</v>
-      </c>
       <c r="I355" s="72" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13136,19 +13136,19 @@
         <v>414</v>
       </c>
       <c r="E356" s="20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F356" s="71" t="s">
         <v>29</v>
       </c>
       <c r="G356" s="74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H356" s="75" t="s">
+        <v>732</v>
+      </c>
+      <c r="I356" t="s">
         <v>733</v>
-      </c>
-      <c r="I356" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13162,19 +13162,19 @@
         <v>414</v>
       </c>
       <c r="E357" s="20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F357" s="71" t="s">
         <v>29</v>
       </c>
       <c r="G357" s="74" t="s">
+        <v>736</v>
+      </c>
+      <c r="H357" s="75" t="s">
         <v>737</v>
       </c>
-      <c r="H357" s="75" t="s">
-        <v>738</v>
-      </c>
       <c r="I357" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13188,19 +13188,19 @@
         <v>53</v>
       </c>
       <c r="E358" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="F358" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" s="74" t="s">
+        <v>740</v>
+      </c>
+      <c r="H358" s="50" t="s">
         <v>739</v>
       </c>
-      <c r="F358" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G358" s="74" t="s">
-        <v>741</v>
-      </c>
-      <c r="H358" s="50" t="s">
-        <v>740</v>
-      </c>
       <c r="I358" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13214,22 +13214,22 @@
         <v>55</v>
       </c>
       <c r="D359" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="E359" s="20" t="s">
         <v>742</v>
-      </c>
-      <c r="E359" s="20" t="s">
-        <v>743</v>
       </c>
       <c r="F359" s="74" t="s">
         <v>29</v>
       </c>
       <c r="G359" s="74" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H359" s="75" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I359" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13243,19 +13243,19 @@
         <v>53</v>
       </c>
       <c r="D360" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E360" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="F360" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G360" s="74" t="s">
         <v>746</v>
       </c>
-      <c r="F360" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G360" s="74" t="s">
+      <c r="H360" s="75" t="s">
         <v>747</v>
-      </c>
-      <c r="H360" s="75" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13269,22 +13269,22 @@
         <v>35</v>
       </c>
       <c r="D361" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E361" s="20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F361" s="74" t="s">
         <v>23</v>
       </c>
       <c r="G361" s="74" t="s">
+        <v>760</v>
+      </c>
+      <c r="H361" s="75" t="s">
         <v>761</v>
       </c>
-      <c r="H361" s="75" t="s">
-        <v>762</v>
-      </c>
       <c r="I361" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13298,22 +13298,22 @@
         <v>424</v>
       </c>
       <c r="D362" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E362" s="20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F362" s="74" t="s">
         <v>23</v>
       </c>
       <c r="G362" s="74" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H362" s="75" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I362" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13327,19 +13327,19 @@
         <v>11</v>
       </c>
       <c r="E363" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="F363" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G363" s="74" t="s">
         <v>754</v>
       </c>
-      <c r="F363" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G363" s="74" t="s">
+      <c r="H363" s="75" t="s">
         <v>755</v>
       </c>
-      <c r="H363" s="75" t="s">
-        <v>756</v>
-      </c>
       <c r="I363" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13356,24 +13356,24 @@
         <v>457</v>
       </c>
       <c r="E364" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="F364" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" s="74" t="s">
         <v>763</v>
       </c>
-      <c r="F364" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G364" s="74" t="s">
+      <c r="H364" s="75" t="s">
         <v>764</v>
       </c>
-      <c r="H364" s="75" t="s">
-        <v>765</v>
-      </c>
       <c r="I364" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="74" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B365" s="74" t="s">
         <v>10</v>
@@ -13382,21 +13382,21 @@
         <v>141</v>
       </c>
       <c r="E365" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="F365" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G365" s="74" t="s">
         <v>770</v>
       </c>
-      <c r="F365" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G365" s="74" t="s">
+      <c r="H365" s="59" t="s">
         <v>771</v>
-      </c>
-      <c r="H365" s="59" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="74" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B366" s="74" t="s">
         <v>10</v>
@@ -13405,24 +13405,24 @@
         <v>55</v>
       </c>
       <c r="E366" s="20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F366" s="74" t="s">
         <v>14</v>
       </c>
       <c r="G366" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H366" s="75" t="s">
+        <v>772</v>
+      </c>
+      <c r="I366" t="s">
         <v>773</v>
-      </c>
-      <c r="I366" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="74" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B367" s="74" t="s">
         <v>10</v>
@@ -13431,22 +13431,22 @@
         <v>414</v>
       </c>
       <c r="D367" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E367" s="20" t="s">
         <v>776</v>
-      </c>
-      <c r="E367" s="20" t="s">
-        <v>777</v>
       </c>
       <c r="F367" s="74" t="s">
         <v>29</v>
       </c>
       <c r="G367" s="74" t="s">
+        <v>777</v>
+      </c>
+      <c r="H367" s="75" t="s">
         <v>778</v>
       </c>
-      <c r="H367" s="75" t="s">
+      <c r="I367" t="s">
         <v>779</v>
-      </c>
-      <c r="I367" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13460,24 +13460,24 @@
         <v>414</v>
       </c>
       <c r="E368" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F368" s="74" t="s">
         <v>29</v>
       </c>
       <c r="G368" s="74" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H368" s="75" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I368" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="74" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B369" s="74" t="s">
         <v>10</v>
@@ -13486,19 +13486,19 @@
         <v>414</v>
       </c>
       <c r="E369" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F369" s="74" t="s">
         <v>29</v>
       </c>
       <c r="G369" s="74" t="s">
+        <v>786</v>
+      </c>
+      <c r="H369" s="75" t="s">
         <v>787</v>
       </c>
-      <c r="H369" s="75" t="s">
-        <v>788</v>
-      </c>
       <c r="I369" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13512,19 +13512,19 @@
         <v>55</v>
       </c>
       <c r="E370" s="20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F370" s="74" t="s">
         <v>23</v>
       </c>
       <c r="G370" s="74" t="s">
+        <v>789</v>
+      </c>
+      <c r="H370" s="75" t="s">
         <v>790</v>
       </c>
-      <c r="H370" s="75" t="s">
-        <v>791</v>
-      </c>
       <c r="I370" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13538,22 +13538,22 @@
         <v>30</v>
       </c>
       <c r="D371" s="74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E371" s="20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F371" s="74" t="s">
         <v>23</v>
       </c>
       <c r="G371" s="74" t="s">
+        <v>792</v>
+      </c>
+      <c r="H371" s="75" t="s">
+        <v>791</v>
+      </c>
+      <c r="I371" s="74" t="s">
         <v>793</v>
-      </c>
-      <c r="H371" s="75" t="s">
-        <v>792</v>
-      </c>
-      <c r="I371" s="74" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13567,22 +13567,22 @@
         <v>35</v>
       </c>
       <c r="D372" s="74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E372" s="20" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F372" s="74" t="s">
         <v>23</v>
       </c>
       <c r="G372" s="74" t="s">
+        <v>792</v>
+      </c>
+      <c r="H372" s="75" t="s">
+        <v>791</v>
+      </c>
+      <c r="I372" s="74" t="s">
         <v>793</v>
-      </c>
-      <c r="H372" s="75" t="s">
-        <v>792</v>
-      </c>
-      <c r="I372" s="74" t="s">
-        <v>794</v>
       </c>
     </row>
   </sheetData>
